--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5E6CCCD-F4A7-449C-8F4F-BAE49CF1078C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A6A7946-18EE-47B2-A7F4-B80836A91068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DBD95575-EB8B-4C9E-8757-AB9ABB9438DE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A09BFD81-69F7-481A-9D57-DC60FDD7F3A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="211">
   <si>
     <t>CLAVE</t>
   </si>
@@ -45,42 +45,42 @@
     <t>26/03/2025</t>
   </si>
   <si>
+    <t>I11D71d2b2a</t>
+  </si>
+  <si>
+    <t>I11D71d2b2b</t>
+  </si>
+  <si>
     <t>I11D71d2b2c</t>
   </si>
   <si>
-    <t>I11D71d2b2a</t>
-  </si>
-  <si>
-    <t>I11D71d2b2b</t>
+    <t>I11D71a4c4d</t>
+  </si>
+  <si>
+    <t>VOLADA</t>
+  </si>
+  <si>
+    <t>I11D71a4d3c</t>
   </si>
   <si>
     <t>I11D71d2b1a</t>
   </si>
   <si>
-    <t>VOLADA</t>
-  </si>
-  <si>
     <t>I11D71d2b1b</t>
   </si>
   <si>
-    <t>I11D71a4c4d</t>
-  </si>
-  <si>
-    <t>I11D71a4d3c</t>
-  </si>
-  <si>
     <t>I11D71a4d3d</t>
   </si>
   <si>
+    <t>I11D71a4d4a</t>
+  </si>
+  <si>
+    <t>I11D71a4d4b</t>
+  </si>
+  <si>
     <t>I11D71a4d4c</t>
   </si>
   <si>
-    <t>I11D71a4d4a</t>
-  </si>
-  <si>
-    <t>I11D71a4d4b</t>
-  </si>
-  <si>
     <t>I11D71a4d4d</t>
   </si>
   <si>
@@ -90,16 +90,22 @@
     <t>I11D71b3c3d</t>
   </si>
   <si>
+    <t>I11D71a4c2c</t>
+  </si>
+  <si>
+    <t>I11D71a4c2d</t>
+  </si>
+  <si>
     <t>I11D71a4c4a</t>
   </si>
   <si>
     <t>I11D71a4c4b</t>
   </si>
   <si>
-    <t>I11D71a4c2c</t>
-  </si>
-  <si>
-    <t>I11D71a4c2d</t>
+    <t>I11D71a4d1c</t>
+  </si>
+  <si>
+    <t>I11D71a4d1d</t>
   </si>
   <si>
     <t>I11D71a4d3a</t>
@@ -108,10 +114,10 @@
     <t>I11D71a4d3b</t>
   </si>
   <si>
-    <t>I11D71a4d1c</t>
-  </si>
-  <si>
-    <t>I11D71a4d1d</t>
+    <t>I11D71b3c1c</t>
+  </si>
+  <si>
+    <t>I11D71b3c1d</t>
   </si>
   <si>
     <t>I11D71b3c3a</t>
@@ -120,10 +126,10 @@
     <t>I11D71b3c3b</t>
   </si>
   <si>
-    <t>I11D71b3c1c</t>
-  </si>
-  <si>
-    <t>I11D71b3c1d</t>
+    <t>I11D71b3c2c</t>
+  </si>
+  <si>
+    <t>I11D71b3c2d</t>
   </si>
   <si>
     <t>I11D71b3c4a</t>
@@ -132,12 +138,6 @@
     <t>I11D71b3c4b</t>
   </si>
   <si>
-    <t>I11D71b3c2c</t>
-  </si>
-  <si>
-    <t>I11D71b3c2d</t>
-  </si>
-  <si>
     <t>I11D71a4d1b</t>
   </si>
   <si>
@@ -150,16 +150,22 @@
     <t>I11D71a4d2d</t>
   </si>
   <si>
+    <t>I11D71a4b4c</t>
+  </si>
+  <si>
+    <t>I11D71a4b4d</t>
+  </si>
+  <si>
     <t>I11D71a4d2b</t>
   </si>
   <si>
     <t>I11D71b3c1a</t>
   </si>
   <si>
-    <t>I11D71a4b4d</t>
-  </si>
-  <si>
-    <t>I11D71a4b4c</t>
+    <t>I11D71b3a3c</t>
+  </si>
+  <si>
+    <t>I11D71b3a3d</t>
   </si>
   <si>
     <t>I11D71b3c1b</t>
@@ -168,25 +174,22 @@
     <t>I11D71b3c2a</t>
   </si>
   <si>
-    <t>I11D71b3a3c</t>
-  </si>
-  <si>
-    <t>I11D71b3a3d</t>
+    <t>I11D71b3a4c</t>
+  </si>
+  <si>
+    <t>18/03/2025</t>
+  </si>
+  <si>
+    <t>I11D71b3a4d</t>
   </si>
   <si>
     <t>I11D71b3c2b</t>
   </si>
   <si>
-    <t>18/03/2025</t>
-  </si>
-  <si>
     <t>I11D71b3d1a</t>
   </si>
   <si>
-    <t>I11D71b3a4d</t>
-  </si>
-  <si>
-    <t>I11D71b3a4c</t>
+    <t>I11D71b3d1b</t>
   </si>
   <si>
     <t>I11D71b3d1c</t>
@@ -195,9 +198,6 @@
     <t>I11D71b3d1d</t>
   </si>
   <si>
-    <t>I11D71b3d1b</t>
-  </si>
-  <si>
     <t>I11D71b3d2a</t>
   </si>
   <si>
@@ -207,21 +207,21 @@
     <t>PENDIENTE</t>
   </si>
   <si>
+    <t>I11D71b4a3c</t>
+  </si>
+  <si>
     <t>I11D71b4c1a</t>
   </si>
   <si>
-    <t>I11D71b4a3c</t>
+    <t>I11D71b4a3d</t>
+  </si>
+  <si>
+    <t>I11D71b4a4c</t>
   </si>
   <si>
     <t>I11D71b4c1b</t>
   </si>
   <si>
-    <t>I11D71b4a3d</t>
-  </si>
-  <si>
-    <t>I11D71b4a4c</t>
-  </si>
-  <si>
     <t>I11D71b4a4a</t>
   </si>
   <si>
@@ -234,37 +234,43 @@
     <t>I11D71b3b3d</t>
   </si>
   <si>
+    <t>I11D71b3b4a</t>
+  </si>
+  <si>
     <t>I11D71b3b4c</t>
   </si>
   <si>
-    <t>I11D71b3b4a</t>
+    <t>I11D71b3b4b</t>
+  </si>
+  <si>
+    <t>28/03/2025</t>
   </si>
   <si>
     <t>I11D71b3b4d</t>
   </si>
   <si>
-    <t>I11D71b3b4b</t>
-  </si>
-  <si>
     <t>I11D71b4a3a</t>
   </si>
   <si>
+    <t>I11D71b4a1c</t>
+  </si>
+  <si>
+    <t>I11D71b4a1d</t>
+  </si>
+  <si>
     <t>I11D71b4a3b</t>
   </si>
   <si>
-    <t>I11D71b4a1c</t>
-  </si>
-  <si>
-    <t>I11D71b4a1d</t>
+    <t>I11D71b4b1c</t>
+  </si>
+  <si>
+    <t>I11D71b4b1d</t>
   </si>
   <si>
     <t>I11D71b4b3a</t>
   </si>
   <si>
-    <t>I11D71b4b1c</t>
-  </si>
-  <si>
-    <t>I11D71b4b1d</t>
+    <t>I11D71b3b2b</t>
   </si>
   <si>
     <t>I11D71b3b2c</t>
@@ -273,7 +279,7 @@
     <t>I11D71b3b2d</t>
   </si>
   <si>
-    <t>I11D71b3b2b</t>
+    <t>I11D71b2c3c</t>
   </si>
   <si>
     <t>I11D71b4a1a</t>
@@ -282,7 +288,10 @@
     <t>I11D71b4a1b</t>
   </si>
   <si>
-    <t>I11D71b2c3c</t>
+    <t>I11D71b4a2a</t>
+  </si>
+  <si>
+    <t>I11D71b4a2b</t>
   </si>
   <si>
     <t>I11D71b4a2c</t>
@@ -291,10 +300,10 @@
     <t>I11D71b4a2d</t>
   </si>
   <si>
-    <t>I11D71b4a2a</t>
-  </si>
-  <si>
-    <t>I11D71b4a2b</t>
+    <t>I11D71b2d3c</t>
+  </si>
+  <si>
+    <t>I11D71b2d3d</t>
   </si>
   <si>
     <t>I11D71b4b1a</t>
@@ -303,19 +312,16 @@
     <t>I11D71b4b1b</t>
   </si>
   <si>
-    <t>I11D71b2d3c</t>
-  </si>
-  <si>
-    <t>I11D71b2d3d</t>
+    <t>I11D71b4b2a</t>
+  </si>
+  <si>
+    <t>I11D71b4b2b</t>
   </si>
   <si>
     <t>I11D71b4b2c</t>
   </si>
   <si>
-    <t>I11D71b4b2a</t>
-  </si>
-  <si>
-    <t>I11D71b4b2b</t>
+    <t>I11D71b2c4b</t>
   </si>
   <si>
     <t>I11D71b2c4c</t>
@@ -324,22 +330,22 @@
     <t>I11D71b2c4d</t>
   </si>
   <si>
-    <t>I11D71b2c4b</t>
-  </si>
-  <si>
     <t>I11D71b2d3a</t>
   </si>
   <si>
+    <t>I11D71b2d1d</t>
+  </si>
+  <si>
+    <t>I11D71b2d2c</t>
+  </si>
+  <si>
     <t>I11D71b2d3b</t>
   </si>
   <si>
     <t>I11D71b2d4a</t>
   </si>
   <si>
-    <t>I11D71b2d1d</t>
-  </si>
-  <si>
-    <t>I11D71b2d2c</t>
+    <t>I11D71b2d4b</t>
   </si>
   <si>
     <t>I11D71b2d4c</t>
@@ -348,30 +354,27 @@
     <t>I11D71b2d4d</t>
   </si>
   <si>
-    <t>I11D71b2d4b</t>
-  </si>
-  <si>
     <t>I11D71b2d2d</t>
   </si>
   <si>
     <t>I11D71c1c1c</t>
   </si>
   <si>
+    <t>I11D71c1c3a</t>
+  </si>
+  <si>
     <t>I11D71c1c3b</t>
   </si>
   <si>
-    <t>I11D71c1c3a</t>
+    <t>I11D71c1c3c</t>
+  </si>
+  <si>
+    <t>I11D71c1c3d</t>
   </si>
   <si>
     <t>I11D71c3a1a</t>
   </si>
   <si>
-    <t>I11D71c1c3c</t>
-  </si>
-  <si>
-    <t>I11D71c1c3d</t>
-  </si>
-  <si>
     <t>I11D71c1c4c</t>
   </si>
   <si>
@@ -381,13 +384,16 @@
     <t>I11D71c1d3c</t>
   </si>
   <si>
+    <t>I11D71c1c2d</t>
+  </si>
+  <si>
     <t>I11D71c1c4a</t>
   </si>
   <si>
     <t>I11D71c1c4b</t>
   </si>
   <si>
-    <t>I11D71c1c2d</t>
+    <t>I11D71c1d1d</t>
   </si>
   <si>
     <t>I11D71c1d3a</t>
@@ -396,16 +402,19 @@
     <t>I11D71c1d3b</t>
   </si>
   <si>
-    <t>I11D71c1d1d</t>
+    <t>I11D71c1d2c</t>
+  </si>
+  <si>
+    <t>I11D71c1d2d</t>
   </si>
   <si>
     <t>I11D71c1d4a</t>
   </si>
   <si>
-    <t>I11D71c1d2c</t>
-  </si>
-  <si>
-    <t>I11D71c1d2d</t>
+    <t>I11D71c2c1a</t>
+  </si>
+  <si>
+    <t>I11D71c2c1b</t>
   </si>
   <si>
     <t>I11D71c2c1c</t>
@@ -414,91 +423,88 @@
     <t>I11D71c2c1d</t>
   </si>
   <si>
-    <t>I11D71c2c1a</t>
-  </si>
-  <si>
-    <t>I11D71c2c1b</t>
-  </si>
-  <si>
     <t>I11D71c2c2a</t>
   </si>
   <si>
     <t>I11D71c2c2b</t>
   </si>
   <si>
+    <t>I11D61e4c3b</t>
+  </si>
+  <si>
     <t>I11D61e4c3d</t>
   </si>
   <si>
+    <t>I11D61e4c4a</t>
+  </si>
+  <si>
     <t>I11D61e4c4c</t>
   </si>
   <si>
-    <t>I11D61e4c3b</t>
-  </si>
-  <si>
-    <t>I11D61e4c4a</t>
+    <t>I11D61e4c4b</t>
   </si>
   <si>
     <t>I11D61e4c4d</t>
   </si>
   <si>
-    <t>I11D61e4c4b</t>
-  </si>
-  <si>
     <t>I11D61e4d3a</t>
   </si>
   <si>
+    <t>I11D61e4c1b</t>
+  </si>
+  <si>
     <t>I11D61e4c1d</t>
   </si>
   <si>
+    <t>I11D61e4c2a</t>
+  </si>
+  <si>
     <t>I11D61e4c2c</t>
   </si>
   <si>
-    <t>I11D61e4c1b</t>
-  </si>
-  <si>
-    <t>I11D61e4c2a</t>
+    <t>I11D61e4c2b</t>
   </si>
   <si>
     <t>I11D61e4c2d</t>
   </si>
   <si>
+    <t>I11D61e4d1a</t>
+  </si>
+  <si>
     <t>I11D61e4d1c</t>
   </si>
   <si>
-    <t>I11D61e4c2b</t>
-  </si>
-  <si>
-    <t>I11D61e4d1a</t>
+    <t>I11D61e4d1b</t>
   </si>
   <si>
     <t>I11D61e4d1d</t>
   </si>
   <si>
-    <t>I11D61e4d1b</t>
-  </si>
-  <si>
     <t>I11D61e4d2a</t>
   </si>
   <si>
     <t>I11D61e4a3d</t>
   </si>
   <si>
+    <t>I11D61e4a4a</t>
+  </si>
+  <si>
+    <t>I11D61e4a4b</t>
+  </si>
+  <si>
     <t>I11D61e4a4c</t>
   </si>
   <si>
-    <t>I11D61e4a4a</t>
-  </si>
-  <si>
-    <t>I11D61e4a4b</t>
-  </si>
-  <si>
     <t>I11D61e4a4d</t>
   </si>
   <si>
+    <t>I11D61e4b3a</t>
+  </si>
+  <si>
     <t>I11D61e4b3c</t>
   </si>
   <si>
-    <t>I11D61e4b3a</t>
+    <t>I11D61e4b3b</t>
   </si>
   <si>
     <t>I11D61e4b3d</t>
@@ -507,9 +513,6 @@
     <t>I11D61e4b4c</t>
   </si>
   <si>
-    <t>I11D61e4b3b</t>
-  </si>
-  <si>
     <t>I11D61e4b4a</t>
   </si>
   <si>
@@ -519,120 +522,120 @@
     <t>I11D61e4b4d</t>
   </si>
   <si>
+    <t>I11D61e3a2b</t>
+  </si>
+  <si>
     <t>I11D61e3a2d</t>
   </si>
   <si>
+    <t>I11D61e3b1a</t>
+  </si>
+  <si>
     <t>I11D61e3b1c</t>
   </si>
   <si>
-    <t>I11D61e3a2b</t>
-  </si>
-  <si>
-    <t>I11D61e3b1a</t>
+    <t>I11D61e3b1b</t>
   </si>
   <si>
     <t>I11D61e3b1d</t>
   </si>
   <si>
+    <t>I11D61e3b2a</t>
+  </si>
+  <si>
     <t>I11D61e3b2c</t>
   </si>
   <si>
-    <t>I11D61e3b1b</t>
-  </si>
-  <si>
-    <t>I11D61e3b2a</t>
+    <t>I11D61e3b2b</t>
   </si>
   <si>
     <t>I11D61e3b2d</t>
   </si>
   <si>
+    <t>I11D61e4a1a</t>
+  </si>
+  <si>
     <t>I11D61e4a1c</t>
   </si>
   <si>
-    <t>I11D61e3b2b</t>
-  </si>
-  <si>
-    <t>I11D61e4a1a</t>
+    <t>I11D61e4a1b</t>
   </si>
   <si>
     <t>I11D61e4a1d</t>
   </si>
   <si>
+    <t>I11D61e4a2a</t>
+  </si>
+  <si>
     <t>I11D61e4a2c</t>
   </si>
   <si>
-    <t>I11D61e4a1b</t>
-  </si>
-  <si>
-    <t>I11D61e4a2a</t>
+    <t>I11D61e4a2b</t>
   </si>
   <si>
     <t>I11D61e4a2d</t>
   </si>
   <si>
+    <t>I11D61e4b1a</t>
+  </si>
+  <si>
     <t>I11D61e4b1c</t>
   </si>
   <si>
-    <t>I11D61e4a2b</t>
-  </si>
-  <si>
-    <t>I11D61e4b1a</t>
+    <t>I11D61e4b1b</t>
   </si>
   <si>
     <t>I11D61e4b1d</t>
   </si>
   <si>
+    <t>I11D61e4b2a</t>
+  </si>
+  <si>
     <t>I11D61e4b2c</t>
   </si>
   <si>
-    <t>I11D61e4b1b</t>
-  </si>
-  <si>
-    <t>I11D61e4b2a</t>
+    <t>I11D61e2d4c</t>
+  </si>
+  <si>
+    <t>I11D61e2d4d</t>
   </si>
   <si>
     <t>I11D61e4b2b</t>
   </si>
   <si>
-    <t>I11D61e2d4c</t>
-  </si>
-  <si>
-    <t>I11D61e2d4d</t>
-  </si>
-  <si>
     <t>I11D61e4b2d</t>
   </si>
   <si>
+    <t>I11D61f3a1a</t>
+  </si>
+  <si>
     <t>I11D61f3a1c</t>
   </si>
   <si>
-    <t>I11D61f3a1a</t>
+    <t>I11D61f1c3c</t>
+  </si>
+  <si>
+    <t>I11D61f1c3d</t>
   </si>
   <si>
     <t>I11D61f3a1b</t>
   </si>
   <si>
-    <t>I11D61f1c3c</t>
-  </si>
-  <si>
-    <t>I11D61f1c3d</t>
-  </si>
-  <si>
     <t>I11D61f3a1d</t>
   </si>
   <si>
+    <t>I11D61f3a2a</t>
+  </si>
+  <si>
     <t>I11D61f3a2c</t>
   </si>
   <si>
-    <t>I11D61f3a2a</t>
+    <t>I11D61f3a2b</t>
   </si>
   <si>
     <t>I11D61f3a2d</t>
   </si>
   <si>
-    <t>I11D61f3a2b</t>
-  </si>
-  <si>
     <t>I11D61f3b1a</t>
   </si>
   <si>
@@ -645,16 +648,16 @@
     <t>I11D61f1d3c</t>
   </si>
   <si>
+    <t>I11D61f1d3d</t>
+  </si>
+  <si>
+    <t>I11D61f1d4c</t>
+  </si>
+  <si>
     <t>I11D61f3b1b</t>
   </si>
   <si>
     <t>I11D61f3b2a</t>
-  </si>
-  <si>
-    <t>I11D61f1d3d</t>
-  </si>
-  <si>
-    <t>I11D61f1d4c</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B32AC4-2F32-4E5F-BD50-0E935B854137}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFC9609-D00D-401A-9A35-BF996B77851A}">
   <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1525,7 +1528,7 @@
         <v>45</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>5</v>
@@ -1536,7 +1539,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>5</v>
@@ -1547,7 +1550,7 @@
         <v>47</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>5</v>
@@ -1558,7 +1561,7 @@
         <v>48</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>5</v>
@@ -1771,58 +1774,70 @@
         <v>71</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C65" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C66" s="5"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C67" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C70" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>59</v>
@@ -1831,7 +1846,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>59</v>
@@ -1840,7 +1855,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>59</v>
@@ -1849,7 +1864,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>10</v>
@@ -1860,7 +1875,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>10</v>
@@ -1871,7 +1886,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>10</v>
@@ -1882,18 +1897,18 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>10</v>
@@ -1904,18 +1919,18 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>59</v>
@@ -1924,7 +1939,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>59</v>
@@ -1933,7 +1948,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>59</v>
@@ -1942,7 +1957,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>59</v>
@@ -1951,7 +1966,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>10</v>
@@ -1962,7 +1977,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>10</v>
@@ -1973,7 +1988,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>10</v>
@@ -1984,7 +1999,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>10</v>
@@ -1995,7 +2010,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>59</v>
@@ -2004,7 +2019,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>59</v>
@@ -2013,7 +2028,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>59</v>
@@ -2022,7 +2037,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>10</v>
@@ -2033,7 +2048,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>10</v>
@@ -2044,7 +2059,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>10</v>
@@ -2055,7 +2070,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>10</v>
@@ -2066,7 +2081,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>10</v>
@@ -2077,7 +2092,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>10</v>
@@ -2088,7 +2103,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>10</v>
@@ -2099,7 +2114,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>10</v>
@@ -2110,7 +2125,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>59</v>
@@ -2119,7 +2134,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>59</v>
@@ -2128,7 +2143,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>59</v>
@@ -2137,7 +2152,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>59</v>
@@ -2146,7 +2161,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>59</v>
@@ -2155,7 +2170,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>59</v>
@@ -2164,7 +2179,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>59</v>
@@ -2173,7 +2188,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>59</v>
@@ -2182,7 +2197,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>59</v>
@@ -2191,7 +2206,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>59</v>
@@ -2200,7 +2215,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>59</v>
@@ -2209,7 +2224,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>59</v>
@@ -2218,7 +2233,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>59</v>
@@ -2227,7 +2242,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>59</v>
@@ -2236,7 +2251,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>59</v>
@@ -2245,7 +2260,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>59</v>
@@ -2254,7 +2269,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>59</v>
@@ -2263,7 +2278,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>59</v>
@@ -2272,7 +2287,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>59</v>
@@ -2281,7 +2296,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>59</v>
@@ -2290,7 +2305,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>59</v>
@@ -2299,7 +2314,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>59</v>
@@ -2308,7 +2323,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>59</v>
@@ -2317,7 +2332,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>59</v>
@@ -2326,7 +2341,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>59</v>
@@ -2335,7 +2350,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>59</v>
@@ -2344,7 +2359,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>59</v>
@@ -2353,7 +2368,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>59</v>
@@ -2362,7 +2377,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B127" s="7" t="s">
         <v>59</v>
@@ -2371,7 +2386,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>59</v>
@@ -2380,7 +2395,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B129" s="7" t="s">
         <v>59</v>
@@ -2389,7 +2404,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>59</v>
@@ -2398,7 +2413,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B131" s="7" t="s">
         <v>59</v>
@@ -2407,7 +2422,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>59</v>
@@ -2416,7 +2431,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>59</v>
@@ -2425,7 +2440,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>59</v>
@@ -2434,7 +2449,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B135" s="7" t="s">
         <v>59</v>
@@ -2443,7 +2458,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>59</v>
@@ -2452,7 +2467,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B137" s="7" t="s">
         <v>59</v>
@@ -2461,7 +2476,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>59</v>
@@ -2470,7 +2485,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B139" s="7" t="s">
         <v>59</v>
@@ -2479,7 +2494,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>59</v>
@@ -2488,7 +2503,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B141" s="7" t="s">
         <v>59</v>
@@ -2497,7 +2512,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>59</v>
@@ -2506,7 +2521,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B143" s="7" t="s">
         <v>59</v>
@@ -2515,7 +2530,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>59</v>
@@ -2524,7 +2539,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B145" s="7" t="s">
         <v>59</v>
@@ -2533,7 +2548,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>59</v>
@@ -2542,7 +2557,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B147" s="7" t="s">
         <v>59</v>
@@ -2551,7 +2566,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>59</v>
@@ -2560,7 +2575,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B149" s="7" t="s">
         <v>59</v>
@@ -2569,7 +2584,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>59</v>
@@ -2578,7 +2593,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B151" s="7" t="s">
         <v>59</v>
@@ -2587,7 +2602,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>59</v>
@@ -2596,7 +2611,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B153" s="7" t="s">
         <v>59</v>
@@ -2605,7 +2620,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>59</v>
@@ -2614,7 +2629,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B155" s="7" t="s">
         <v>59</v>
@@ -2623,7 +2638,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>59</v>
@@ -2632,7 +2647,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>59</v>
@@ -2641,7 +2656,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>59</v>
@@ -2650,7 +2665,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B159" s="7" t="s">
         <v>59</v>
@@ -2659,7 +2674,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>59</v>
@@ -2668,7 +2683,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B161" s="7" t="s">
         <v>59</v>
@@ -2677,7 +2692,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>59</v>
@@ -2686,7 +2701,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B163" s="7" t="s">
         <v>59</v>
@@ -2695,7 +2710,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>59</v>
@@ -2704,7 +2719,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B165" s="7" t="s">
         <v>59</v>
@@ -2713,7 +2728,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>59</v>
@@ -2722,7 +2737,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B167" s="7" t="s">
         <v>59</v>
@@ -2731,7 +2746,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>59</v>
@@ -2740,7 +2755,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B169" s="7" t="s">
         <v>59</v>
@@ -2749,7 +2764,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>59</v>
@@ -2758,7 +2773,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B171" s="7" t="s">
         <v>59</v>
@@ -2767,7 +2782,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>59</v>
@@ -2776,7 +2791,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B173" s="7" t="s">
         <v>59</v>
@@ -2785,7 +2800,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>59</v>
@@ -2794,7 +2809,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B175" s="7" t="s">
         <v>59</v>
@@ -2803,7 +2818,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>59</v>
@@ -2812,7 +2827,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B177" s="7" t="s">
         <v>59</v>
@@ -2821,7 +2836,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>59</v>
@@ -2830,7 +2845,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B179" s="7" t="s">
         <v>59</v>
@@ -2839,7 +2854,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>59</v>
@@ -2848,7 +2863,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B181" s="7" t="s">
         <v>59</v>
@@ -2857,7 +2872,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>59</v>
@@ -2866,7 +2881,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B183" s="7" t="s">
         <v>59</v>
@@ -2875,7 +2890,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>59</v>
@@ -2884,7 +2899,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>59</v>
@@ -2893,7 +2908,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>59</v>
@@ -2902,7 +2917,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B187" s="7" t="s">
         <v>59</v>
@@ -2911,7 +2926,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>59</v>
@@ -2920,7 +2935,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B189" s="7" t="s">
         <v>59</v>
@@ -2929,7 +2944,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>59</v>
@@ -2938,7 +2953,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B191" s="7" t="s">
         <v>59</v>
@@ -2947,7 +2962,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>59</v>
@@ -2956,7 +2971,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B193" s="7" t="s">
         <v>59</v>
@@ -2965,7 +2980,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>59</v>
@@ -2974,7 +2989,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B195" s="7" t="s">
         <v>59</v>
@@ -2983,7 +2998,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>59</v>
@@ -2992,7 +3007,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B197" s="7" t="s">
         <v>59</v>
@@ -3001,7 +3016,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>59</v>
@@ -3010,7 +3025,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B199" s="7" t="s">
         <v>59</v>
@@ -3019,7 +3034,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>59</v>
@@ -3028,7 +3043,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B201" s="7" t="s">
         <v>59</v>
@@ -3037,7 +3052,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>59</v>
@@ -3046,7 +3061,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B203" s="7" t="s">
         <v>59</v>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A6A7946-18EE-47B2-A7F4-B80836A91068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B209A1DA-6503-4269-B845-3ADCE31EE14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A09BFD81-69F7-481A-9D57-DC60FDD7F3A9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A74D733F-08A4-4414-90BE-C994F6B92A7C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="212">
   <si>
     <t>CLAVE</t>
   </si>
@@ -204,214 +204,217 @@
     <t>I11D71b3d2b</t>
   </si>
   <si>
+    <t>31/03/2025</t>
+  </si>
+  <si>
+    <t>I11D71b4a3c</t>
+  </si>
+  <si>
+    <t>I11D71b4c1a</t>
+  </si>
+  <si>
+    <t>I11D71b4a3d</t>
+  </si>
+  <si>
+    <t>I11D71b4a4c</t>
+  </si>
+  <si>
+    <t>I11D71b4c1b</t>
+  </si>
+  <si>
+    <t>I11D71b4a4a</t>
+  </si>
+  <si>
+    <t>I11D71b4a4b</t>
+  </si>
+  <si>
+    <t>I11D71b4a4d</t>
+  </si>
+  <si>
+    <t>I11D71b3b3d</t>
+  </si>
+  <si>
+    <t>I11D71b3b4a</t>
+  </si>
+  <si>
+    <t>I11D71b3b4c</t>
+  </si>
+  <si>
+    <t>I11D71b3b4b</t>
+  </si>
+  <si>
+    <t>I11D71b3b4d</t>
+  </si>
+  <si>
+    <t>I11D71b4a3a</t>
+  </si>
+  <si>
+    <t>I11D71b4a1c</t>
+  </si>
+  <si>
+    <t>I11D71b4a1d</t>
+  </si>
+  <si>
+    <t>I11D71b4a3b</t>
+  </si>
+  <si>
+    <t>I11D71b4b1c</t>
+  </si>
+  <si>
+    <t>I11D71b4b1d</t>
+  </si>
+  <si>
+    <t>I11D71b4b3a</t>
+  </si>
+  <si>
+    <t>I11D71b3b2b</t>
+  </si>
+  <si>
+    <t>I11D71b3b2c</t>
+  </si>
+  <si>
+    <t>I11D71b3b2d</t>
+  </si>
+  <si>
+    <t>I11D71b2c3c</t>
+  </si>
+  <si>
+    <t>REVISADA</t>
+  </si>
+  <si>
+    <t>I11D71b4a1a</t>
+  </si>
+  <si>
+    <t>I11D71b4a1b</t>
+  </si>
+  <si>
+    <t>I11D71b4a2a</t>
+  </si>
+  <si>
+    <t>I11D71b4a2b</t>
+  </si>
+  <si>
+    <t>I11D71b4a2c</t>
+  </si>
+  <si>
+    <t>I11D71b4a2d</t>
+  </si>
+  <si>
+    <t>I11D71b2d3c</t>
+  </si>
+  <si>
+    <t>I11D71b2d3d</t>
+  </si>
+  <si>
+    <t>I11D71b4b1a</t>
+  </si>
+  <si>
+    <t>I11D71b4b1b</t>
+  </si>
+  <si>
+    <t>I11D71b4b2a</t>
+  </si>
+  <si>
+    <t>I11D71b4b2b</t>
+  </si>
+  <si>
+    <t>I11D71b4b2c</t>
+  </si>
+  <si>
+    <t>I11D71b2c4b</t>
+  </si>
+  <si>
+    <t>I11D71b2c4c</t>
+  </si>
+  <si>
+    <t>I11D71b2c4d</t>
+  </si>
+  <si>
+    <t>I11D71b2d3a</t>
+  </si>
+  <si>
+    <t>I11D71b2d1d</t>
+  </si>
+  <si>
+    <t>I11D71b2d2c</t>
+  </si>
+  <si>
+    <t>I11D71b2d3b</t>
+  </si>
+  <si>
+    <t>I11D71b2d4a</t>
+  </si>
+  <si>
+    <t>I11D71b2d4b</t>
+  </si>
+  <si>
+    <t>I11D71b2d4c</t>
+  </si>
+  <si>
+    <t>I11D71b2d4d</t>
+  </si>
+  <si>
+    <t>I11D71b2d2d</t>
+  </si>
+  <si>
+    <t>I11D71c1c1c</t>
+  </si>
+  <si>
+    <t>I11D71c1c3a</t>
+  </si>
+  <si>
+    <t>I11D71c1c3b</t>
+  </si>
+  <si>
+    <t>I11D71c1c3c</t>
+  </si>
+  <si>
+    <t>I11D71c1c3d</t>
+  </si>
+  <si>
+    <t>I11D71c3a1a</t>
+  </si>
+  <si>
+    <t>I11D71c1c4c</t>
+  </si>
+  <si>
+    <t>I11D71c1c4d</t>
+  </si>
+  <si>
+    <t>I11D71c1d3c</t>
+  </si>
+  <si>
+    <t>I11D71c1c2d</t>
+  </si>
+  <si>
+    <t>I11D71c1c4a</t>
+  </si>
+  <si>
+    <t>I11D71c1c4b</t>
+  </si>
+  <si>
+    <t>I11D71c1d1d</t>
+  </si>
+  <si>
+    <t>I11D71c1d3a</t>
+  </si>
+  <si>
+    <t>I11D71c1d3b</t>
+  </si>
+  <si>
+    <t>I11D71c1d2c</t>
+  </si>
+  <si>
+    <t>I11D71c1d2d</t>
+  </si>
+  <si>
+    <t>I11D71c1d4a</t>
+  </si>
+  <si>
+    <t>I11D71c2c1a</t>
+  </si>
+  <si>
     <t>PENDIENTE</t>
-  </si>
-  <si>
-    <t>I11D71b4a3c</t>
-  </si>
-  <si>
-    <t>I11D71b4c1a</t>
-  </si>
-  <si>
-    <t>I11D71b4a3d</t>
-  </si>
-  <si>
-    <t>I11D71b4a4c</t>
-  </si>
-  <si>
-    <t>I11D71b4c1b</t>
-  </si>
-  <si>
-    <t>I11D71b4a4a</t>
-  </si>
-  <si>
-    <t>I11D71b4a4b</t>
-  </si>
-  <si>
-    <t>I11D71b4a4d</t>
-  </si>
-  <si>
-    <t>I11D71b3b3d</t>
-  </si>
-  <si>
-    <t>I11D71b3b4a</t>
-  </si>
-  <si>
-    <t>I11D71b3b4c</t>
-  </si>
-  <si>
-    <t>I11D71b3b4b</t>
-  </si>
-  <si>
-    <t>28/03/2025</t>
-  </si>
-  <si>
-    <t>I11D71b3b4d</t>
-  </si>
-  <si>
-    <t>I11D71b4a3a</t>
-  </si>
-  <si>
-    <t>I11D71b4a1c</t>
-  </si>
-  <si>
-    <t>I11D71b4a1d</t>
-  </si>
-  <si>
-    <t>I11D71b4a3b</t>
-  </si>
-  <si>
-    <t>I11D71b4b1c</t>
-  </si>
-  <si>
-    <t>I11D71b4b1d</t>
-  </si>
-  <si>
-    <t>I11D71b4b3a</t>
-  </si>
-  <si>
-    <t>I11D71b3b2b</t>
-  </si>
-  <si>
-    <t>I11D71b3b2c</t>
-  </si>
-  <si>
-    <t>I11D71b3b2d</t>
-  </si>
-  <si>
-    <t>I11D71b2c3c</t>
-  </si>
-  <si>
-    <t>I11D71b4a1a</t>
-  </si>
-  <si>
-    <t>I11D71b4a1b</t>
-  </si>
-  <si>
-    <t>I11D71b4a2a</t>
-  </si>
-  <si>
-    <t>I11D71b4a2b</t>
-  </si>
-  <si>
-    <t>I11D71b4a2c</t>
-  </si>
-  <si>
-    <t>I11D71b4a2d</t>
-  </si>
-  <si>
-    <t>I11D71b2d3c</t>
-  </si>
-  <si>
-    <t>I11D71b2d3d</t>
-  </si>
-  <si>
-    <t>I11D71b4b1a</t>
-  </si>
-  <si>
-    <t>I11D71b4b1b</t>
-  </si>
-  <si>
-    <t>I11D71b4b2a</t>
-  </si>
-  <si>
-    <t>I11D71b4b2b</t>
-  </si>
-  <si>
-    <t>I11D71b4b2c</t>
-  </si>
-  <si>
-    <t>I11D71b2c4b</t>
-  </si>
-  <si>
-    <t>I11D71b2c4c</t>
-  </si>
-  <si>
-    <t>I11D71b2c4d</t>
-  </si>
-  <si>
-    <t>I11D71b2d3a</t>
-  </si>
-  <si>
-    <t>I11D71b2d1d</t>
-  </si>
-  <si>
-    <t>I11D71b2d2c</t>
-  </si>
-  <si>
-    <t>I11D71b2d3b</t>
-  </si>
-  <si>
-    <t>I11D71b2d4a</t>
-  </si>
-  <si>
-    <t>I11D71b2d4b</t>
-  </si>
-  <si>
-    <t>I11D71b2d4c</t>
-  </si>
-  <si>
-    <t>I11D71b2d4d</t>
-  </si>
-  <si>
-    <t>I11D71b2d2d</t>
-  </si>
-  <si>
-    <t>I11D71c1c1c</t>
-  </si>
-  <si>
-    <t>I11D71c1c3a</t>
-  </si>
-  <si>
-    <t>I11D71c1c3b</t>
-  </si>
-  <si>
-    <t>I11D71c1c3c</t>
-  </si>
-  <si>
-    <t>I11D71c1c3d</t>
-  </si>
-  <si>
-    <t>I11D71c3a1a</t>
-  </si>
-  <si>
-    <t>I11D71c1c4c</t>
-  </si>
-  <si>
-    <t>I11D71c1c4d</t>
-  </si>
-  <si>
-    <t>I11D71c1d3c</t>
-  </si>
-  <si>
-    <t>I11D71c1c2d</t>
-  </si>
-  <si>
-    <t>I11D71c1c4a</t>
-  </si>
-  <si>
-    <t>I11D71c1c4b</t>
-  </si>
-  <si>
-    <t>I11D71c1d1d</t>
-  </si>
-  <si>
-    <t>I11D71c1d3a</t>
-  </si>
-  <si>
-    <t>I11D71c1d3b</t>
-  </si>
-  <si>
-    <t>I11D71c1d2c</t>
-  </si>
-  <si>
-    <t>I11D71c1d2d</t>
-  </si>
-  <si>
-    <t>I11D71c1d4a</t>
-  </si>
-  <si>
-    <t>I11D71c2c1a</t>
   </si>
   <si>
     <t>I11D71c2c1b</t>
@@ -1076,7 +1079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EFC9609-D00D-401A-9A35-BF996B77851A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A49E0D-BC50-48F2-B605-2E6CE285DCB3}">
   <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1660,91 +1663,109 @@
         <v>58</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1752,10 +1773,10 @@
         <v>69</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1763,10 +1784,10 @@
         <v>70</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1774,136 +1795,142 @@
         <v>71</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C71" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C72" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C73" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>4</v>
-      </c>
       <c r="C77" s="8" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1911,10 +1938,10 @@
         <v>85</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1922,10 +1949,10 @@
         <v>86</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1933,46 +1960,54 @@
         <v>87</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C80" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C81" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C82" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C83" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1980,10 +2015,10 @@
         <v>92</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1991,10 +2026,10 @@
         <v>93</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2002,10 +2037,10 @@
         <v>94</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2013,37 +2048,43 @@
         <v>95</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C88" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C89" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C90" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2051,10 +2092,10 @@
         <v>99</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2062,10 +2103,10 @@
         <v>100</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2073,10 +2114,10 @@
         <v>101</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2084,10 +2125,10 @@
         <v>102</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2095,10 +2136,10 @@
         <v>103</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2106,10 +2147,10 @@
         <v>104</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2117,10 +2158,10 @@
         <v>105</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2128,943 +2169,987 @@
         <v>106</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C99" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C100" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C101" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C102" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C103" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C104" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C105" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C106" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C107" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C108" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C109" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C110" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C111" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C112" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>120</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C113" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C115" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C116" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C117" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C118" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C119" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C120" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C121" s="8"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C122" s="5"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C123" s="8"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C124" s="5"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C125" s="8"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C126" s="5"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C127" s="8"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C128" s="5"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C129" s="8"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C130" s="5"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C131" s="8"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C133" s="8"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C134" s="5"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C135" s="8"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C136" s="5"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C137" s="8"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C138" s="5"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C139" s="8"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C140" s="5"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C141" s="8"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C142" s="5"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C143" s="8"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C144" s="5"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C145" s="8"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C146" s="5"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C147" s="8"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C148" s="5"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C149" s="8"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C150" s="5"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C151" s="8"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C152" s="5"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C153" s="8"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C154" s="5"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C155" s="8"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C156" s="5"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C157" s="8"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C158" s="5"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C159" s="8"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C160" s="5"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C161" s="8"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C162" s="5"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C163" s="8"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C164" s="5"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C165" s="8"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C166" s="5"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C167" s="8"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C168" s="5"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C169" s="8"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C170" s="5"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C171" s="8"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C172" s="5"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C173" s="8"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C174" s="5"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C175" s="8"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C176" s="5"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C177" s="8"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C178" s="5"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C179" s="8"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C180" s="5"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C181" s="8"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C182" s="5"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C183" s="8"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C184" s="5"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C185" s="8"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C186" s="5"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C187" s="8"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C188" s="5"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C189" s="8"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C190" s="5"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C191" s="8"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C192" s="5"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C193" s="8"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C194" s="5"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C195" s="8"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C196" s="5"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C197" s="8"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C198" s="5"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C199" s="8"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C200" s="5"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C201" s="8"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C202" s="5"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>59</v>
+        <v>129</v>
       </c>
       <c r="C203" s="8"/>
     </row>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B209A1DA-6503-4269-B845-3ADCE31EE14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06F339D9-0A6F-4DC9-92FA-3F2A1CD8CCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A74D733F-08A4-4414-90BE-C994F6B92A7C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D53BE7EE-49C4-4E06-B3C7-28D3CE2983B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="210">
   <si>
     <t>CLAVE</t>
   </si>
@@ -177,9 +177,6 @@
     <t>I11D71b3a4c</t>
   </si>
   <si>
-    <t>18/03/2025</t>
-  </si>
-  <si>
     <t>I11D71b3a4d</t>
   </si>
   <si>
@@ -277,9 +274,6 @@
   </si>
   <si>
     <t>I11D71b2c3c</t>
-  </si>
-  <si>
-    <t>REVISADA</t>
   </si>
   <si>
     <t>I11D71b4a1a</t>
@@ -1079,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A49E0D-BC50-48F2-B605-2E6CE285DCB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CFA093-A9A6-400D-9532-64013D54BB37}">
   <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1553,10 +1547,10 @@
         <v>47</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C43" s="8">
+        <v>45661</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1564,10 +1558,10 @@
         <v>48</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C44" s="5">
+        <v>45661</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1575,1581 +1569,1581 @@
         <v>49</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="C45" s="8">
+        <v>45661</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="C46" s="5">
+        <v>45661</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="C47" s="8">
+        <v>45661</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="C48" s="5">
+        <v>45661</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C49" s="8">
+        <v>45661</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C50" s="5">
+        <v>45661</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C51" s="8">
+        <v>45661</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C52" s="5">
+        <v>45661</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>59</v>
+        <v>4</v>
+      </c>
+      <c r="C77" s="8">
+        <v>45661</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B79" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B89" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B103" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B107" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B109" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B111" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C121" s="8"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C122" s="5"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C123" s="8"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C124" s="5"/>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C125" s="8"/>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C126" s="5"/>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C127" s="8"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C128" s="5"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C129" s="8"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C130" s="5"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C131" s="8"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C132" s="5"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C133" s="8"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C134" s="5"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C135" s="8"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C136" s="5"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C137" s="8"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C138" s="5"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C139" s="8"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C140" s="5"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C141" s="8"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C142" s="5"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C143" s="8"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C144" s="5"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C145" s="8"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C146" s="5"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C147" s="8"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C148" s="5"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C149" s="8"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C150" s="5"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C151" s="8"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C152" s="5"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C153" s="8"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C154" s="5"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C155" s="8"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C156" s="5"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C157" s="8"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C158" s="5"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C159" s="8"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C160" s="5"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C161" s="8"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C162" s="5"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C163" s="8"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C164" s="5"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C165" s="8"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C166" s="5"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C167" s="8"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C168" s="5"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C169" s="8"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C170" s="5"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C171" s="8"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C172" s="5"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C173" s="8"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C174" s="5"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C175" s="8"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C176" s="5"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C177" s="8"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C178" s="5"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C179" s="8"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C180" s="5"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C181" s="8"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C182" s="5"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C183" s="8"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C184" s="5"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C185" s="8"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C186" s="5"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C187" s="8"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C188" s="5"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C189" s="8"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C190" s="5"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C191" s="8"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C192" s="5"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C193" s="8"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C194" s="5"/>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C195" s="8"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C196" s="5"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C197" s="8"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C198" s="5"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C199" s="8"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C200" s="5"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C201" s="8"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C202" s="5"/>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C203" s="8"/>
     </row>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06F339D9-0A6F-4DC9-92FA-3F2A1CD8CCEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE9ED85-6C32-4619-AEBD-1BB178A3CA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D53BE7EE-49C4-4E06-B3C7-28D3CE2983B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7CB8FDA-11A4-4C9C-91C1-D0873A5567BC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -408,25 +408,25 @@
     <t>I11D71c2c1a</t>
   </si>
   <si>
+    <t>I11D71c2c1b</t>
+  </si>
+  <si>
+    <t>I11D71c2c1c</t>
+  </si>
+  <si>
+    <t>I11D71c2c1d</t>
+  </si>
+  <si>
+    <t>I11D71c2c2a</t>
+  </si>
+  <si>
+    <t>I11D71c2c2b</t>
+  </si>
+  <si>
+    <t>I11D61e4c3b</t>
+  </si>
+  <si>
     <t>PENDIENTE</t>
-  </si>
-  <si>
-    <t>I11D71c2c1b</t>
-  </si>
-  <si>
-    <t>I11D71c2c1c</t>
-  </si>
-  <si>
-    <t>I11D71c2c1d</t>
-  </si>
-  <si>
-    <t>I11D71c2c2a</t>
-  </si>
-  <si>
-    <t>I11D71c2c2b</t>
-  </si>
-  <si>
-    <t>I11D61e4c3b</t>
   </si>
   <si>
     <t>I11D61e4c3d</t>
@@ -1073,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18CFA093-A9A6-400D-9532-64013D54BB37}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6919293A-5B5D-451A-BCC6-8F0BDD672161}">
   <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2405,61 +2405,73 @@
         <v>126</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C121" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C121" s="8">
+        <v>45751</v>
+      </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C122" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C122" s="5">
+        <v>45751</v>
+      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C123" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C123" s="8">
+        <v>45751</v>
+      </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C124" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C124" s="5">
+        <v>45751</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C125" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C125" s="8">
+        <v>45751</v>
+      </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C126" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C126" s="5">
+        <v>45751</v>
+      </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C127" s="8"/>
     </row>
@@ -2468,7 +2480,7 @@
         <v>134</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C128" s="5"/>
     </row>
@@ -2477,7 +2489,7 @@
         <v>135</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C129" s="8"/>
     </row>
@@ -2486,7 +2498,7 @@
         <v>136</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C130" s="5"/>
     </row>
@@ -2495,7 +2507,7 @@
         <v>137</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C131" s="8"/>
     </row>
@@ -2504,7 +2516,7 @@
         <v>138</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C132" s="5"/>
     </row>
@@ -2513,7 +2525,7 @@
         <v>139</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C133" s="8"/>
     </row>
@@ -2522,7 +2534,7 @@
         <v>140</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C134" s="5"/>
     </row>
@@ -2531,7 +2543,7 @@
         <v>141</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C135" s="8"/>
     </row>
@@ -2540,7 +2552,7 @@
         <v>142</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C136" s="5"/>
     </row>
@@ -2549,7 +2561,7 @@
         <v>143</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C137" s="8"/>
     </row>
@@ -2558,7 +2570,7 @@
         <v>144</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C138" s="5"/>
     </row>
@@ -2567,7 +2579,7 @@
         <v>145</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C139" s="8"/>
     </row>
@@ -2576,7 +2588,7 @@
         <v>146</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C140" s="5"/>
     </row>
@@ -2585,7 +2597,7 @@
         <v>147</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C141" s="8"/>
     </row>
@@ -2594,7 +2606,7 @@
         <v>148</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C142" s="5"/>
     </row>
@@ -2603,7 +2615,7 @@
         <v>149</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C143" s="8"/>
     </row>
@@ -2612,7 +2624,7 @@
         <v>150</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C144" s="5"/>
     </row>
@@ -2621,7 +2633,7 @@
         <v>151</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C145" s="8"/>
     </row>
@@ -2630,7 +2642,7 @@
         <v>152</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C146" s="5"/>
     </row>
@@ -2639,7 +2651,7 @@
         <v>153</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C147" s="8"/>
     </row>
@@ -2648,7 +2660,7 @@
         <v>154</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C148" s="5"/>
     </row>
@@ -2657,7 +2669,7 @@
         <v>155</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C149" s="8"/>
     </row>
@@ -2666,7 +2678,7 @@
         <v>156</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C150" s="5"/>
     </row>
@@ -2675,7 +2687,7 @@
         <v>157</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C151" s="8"/>
     </row>
@@ -2684,7 +2696,7 @@
         <v>158</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C152" s="5"/>
     </row>
@@ -2693,7 +2705,7 @@
         <v>159</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C153" s="8"/>
     </row>
@@ -2702,7 +2714,7 @@
         <v>160</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C154" s="5"/>
     </row>
@@ -2711,7 +2723,7 @@
         <v>161</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C155" s="8"/>
     </row>
@@ -2720,7 +2732,7 @@
         <v>162</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C156" s="5"/>
     </row>
@@ -2729,7 +2741,7 @@
         <v>163</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C157" s="8"/>
     </row>
@@ -2738,7 +2750,7 @@
         <v>164</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C158" s="5"/>
     </row>
@@ -2747,7 +2759,7 @@
         <v>165</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C159" s="8"/>
     </row>
@@ -2756,7 +2768,7 @@
         <v>166</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C160" s="5"/>
     </row>
@@ -2765,7 +2777,7 @@
         <v>167</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C161" s="8"/>
     </row>
@@ -2774,7 +2786,7 @@
         <v>168</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C162" s="5"/>
     </row>
@@ -2783,7 +2795,7 @@
         <v>169</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C163" s="8"/>
     </row>
@@ -2792,7 +2804,7 @@
         <v>170</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C164" s="5"/>
     </row>
@@ -2801,7 +2813,7 @@
         <v>171</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C165" s="8"/>
     </row>
@@ -2810,7 +2822,7 @@
         <v>172</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C166" s="5"/>
     </row>
@@ -2819,7 +2831,7 @@
         <v>173</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C167" s="8"/>
     </row>
@@ -2828,7 +2840,7 @@
         <v>174</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C168" s="5"/>
     </row>
@@ -2837,7 +2849,7 @@
         <v>175</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C169" s="8"/>
     </row>
@@ -2846,7 +2858,7 @@
         <v>176</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C170" s="5"/>
     </row>
@@ -2855,7 +2867,7 @@
         <v>177</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C171" s="8"/>
     </row>
@@ -2864,7 +2876,7 @@
         <v>178</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C172" s="5"/>
     </row>
@@ -2873,7 +2885,7 @@
         <v>179</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C173" s="8"/>
     </row>
@@ -2882,7 +2894,7 @@
         <v>180</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C174" s="5"/>
     </row>
@@ -2891,7 +2903,7 @@
         <v>181</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C175" s="8"/>
     </row>
@@ -2900,7 +2912,7 @@
         <v>182</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C176" s="5"/>
     </row>
@@ -2909,7 +2921,7 @@
         <v>183</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C177" s="8"/>
     </row>
@@ -2918,7 +2930,7 @@
         <v>184</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C178" s="5"/>
     </row>
@@ -2927,7 +2939,7 @@
         <v>185</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C179" s="8"/>
     </row>
@@ -2936,7 +2948,7 @@
         <v>186</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C180" s="5"/>
     </row>
@@ -2945,7 +2957,7 @@
         <v>187</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C181" s="8"/>
     </row>
@@ -2954,7 +2966,7 @@
         <v>188</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C182" s="5"/>
     </row>
@@ -2963,7 +2975,7 @@
         <v>189</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C183" s="8"/>
     </row>
@@ -2972,7 +2984,7 @@
         <v>190</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C184" s="5"/>
     </row>
@@ -2981,7 +2993,7 @@
         <v>191</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C185" s="8"/>
     </row>
@@ -2990,7 +3002,7 @@
         <v>192</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C186" s="5"/>
     </row>
@@ -2999,7 +3011,7 @@
         <v>193</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C187" s="8"/>
     </row>
@@ -3008,7 +3020,7 @@
         <v>194</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C188" s="5"/>
     </row>
@@ -3017,7 +3029,7 @@
         <v>195</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C189" s="8"/>
     </row>
@@ -3026,7 +3038,7 @@
         <v>196</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C190" s="5"/>
     </row>
@@ -3035,7 +3047,7 @@
         <v>197</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C191" s="8"/>
     </row>
@@ -3044,7 +3056,7 @@
         <v>198</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C192" s="5"/>
     </row>
@@ -3053,7 +3065,7 @@
         <v>199</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C193" s="8"/>
     </row>
@@ -3062,7 +3074,7 @@
         <v>200</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C194" s="5"/>
     </row>
@@ -3071,7 +3083,7 @@
         <v>201</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C195" s="8"/>
     </row>
@@ -3080,7 +3092,7 @@
         <v>202</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C196" s="5"/>
     </row>
@@ -3089,7 +3101,7 @@
         <v>203</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C197" s="8"/>
     </row>
@@ -3098,7 +3110,7 @@
         <v>204</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C198" s="5"/>
     </row>
@@ -3107,7 +3119,7 @@
         <v>205</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C199" s="8"/>
     </row>
@@ -3116,7 +3128,7 @@
         <v>206</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C200" s="5"/>
     </row>
@@ -3125,7 +3137,7 @@
         <v>207</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C201" s="8"/>
     </row>
@@ -3134,7 +3146,7 @@
         <v>208</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C202" s="5"/>
     </row>
@@ -3143,7 +3155,7 @@
         <v>209</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C203" s="8"/>
     </row>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE9ED85-6C32-4619-AEBD-1BB178A3CA66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF79B886-60BE-4FA5-B94F-C690757471EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F7CB8FDA-11A4-4C9C-91C1-D0873A5567BC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6B8D0B6A-904F-4C06-8F05-F76D528FCAE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="210">
   <si>
     <t>CLAVE</t>
   </si>
@@ -372,6 +372,9 @@
     <t>I11D71c1c4c</t>
   </si>
   <si>
+    <t>PENDIENTE</t>
+  </si>
+  <si>
     <t>I11D71c1c4d</t>
   </si>
   <si>
@@ -424,9 +427,6 @@
   </si>
   <si>
     <t>I11D61e4c3b</t>
-  </si>
-  <si>
-    <t>PENDIENTE</t>
   </si>
   <si>
     <t>I11D61e4c3d</t>
@@ -1073,7 +1073,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6919293A-5B5D-451A-BCC6-8F0BDD672161}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA66F4FD-5FA6-4AC6-9C0F-DB7D6AB4158F}">
   <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2163,10 +2163,10 @@
         <v>104</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>58</v>
+        <v>4</v>
+      </c>
+      <c r="C99" s="8">
+        <v>45842</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2273,37 +2273,31 @@
         <v>114</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C109" s="8"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C110" s="5"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>58</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C111" s="8"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>10</v>
@@ -2314,7 +2308,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B113" s="7" t="s">
         <v>10</v>
@@ -2325,7 +2319,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>10</v>
@@ -2336,7 +2330,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B115" s="7" t="s">
         <v>10</v>
@@ -2347,7 +2341,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>10</v>
@@ -2358,7 +2352,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B117" s="7" t="s">
         <v>10</v>
@@ -2369,7 +2363,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>10</v>
@@ -2380,7 +2374,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B119" s="7" t="s">
         <v>10</v>
@@ -2391,7 +2385,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>10</v>
@@ -2402,7 +2396,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B121" s="7" t="s">
         <v>10</v>
@@ -2413,7 +2407,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>10</v>
@@ -2424,7 +2418,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B123" s="7" t="s">
         <v>10</v>
@@ -2435,7 +2429,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>10</v>
@@ -2446,7 +2440,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B125" s="7" t="s">
         <v>10</v>
@@ -2457,7 +2451,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>10</v>
@@ -2468,10 +2462,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C127" s="8"/>
     </row>
@@ -2480,7 +2474,7 @@
         <v>134</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C128" s="5"/>
     </row>
@@ -2489,7 +2483,7 @@
         <v>135</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C129" s="8"/>
     </row>
@@ -2498,7 +2492,7 @@
         <v>136</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C130" s="5"/>
     </row>
@@ -2507,7 +2501,7 @@
         <v>137</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C131" s="8"/>
     </row>
@@ -2516,7 +2510,7 @@
         <v>138</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C132" s="5"/>
     </row>
@@ -2525,7 +2519,7 @@
         <v>139</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C133" s="8"/>
     </row>
@@ -2534,7 +2528,7 @@
         <v>140</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C134" s="5"/>
     </row>
@@ -2543,7 +2537,7 @@
         <v>141</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C135" s="8"/>
     </row>
@@ -2552,7 +2546,7 @@
         <v>142</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C136" s="5"/>
     </row>
@@ -2561,7 +2555,7 @@
         <v>143</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C137" s="8"/>
     </row>
@@ -2570,7 +2564,7 @@
         <v>144</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C138" s="5"/>
     </row>
@@ -2579,7 +2573,7 @@
         <v>145</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C139" s="8"/>
     </row>
@@ -2588,7 +2582,7 @@
         <v>146</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C140" s="5"/>
     </row>
@@ -2597,7 +2591,7 @@
         <v>147</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C141" s="8"/>
     </row>
@@ -2606,7 +2600,7 @@
         <v>148</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C142" s="5"/>
     </row>
@@ -2615,7 +2609,7 @@
         <v>149</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C143" s="8"/>
     </row>
@@ -2624,7 +2618,7 @@
         <v>150</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C144" s="5"/>
     </row>
@@ -2633,7 +2627,7 @@
         <v>151</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C145" s="8"/>
     </row>
@@ -2642,7 +2636,7 @@
         <v>152</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C146" s="5"/>
     </row>
@@ -2651,7 +2645,7 @@
         <v>153</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C147" s="8"/>
     </row>
@@ -2660,7 +2654,7 @@
         <v>154</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C148" s="5"/>
     </row>
@@ -2669,7 +2663,7 @@
         <v>155</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C149" s="8"/>
     </row>
@@ -2678,7 +2672,7 @@
         <v>156</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C150" s="5"/>
     </row>
@@ -2687,7 +2681,7 @@
         <v>157</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C151" s="8"/>
     </row>
@@ -2696,7 +2690,7 @@
         <v>158</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C152" s="5"/>
     </row>
@@ -2705,7 +2699,7 @@
         <v>159</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C153" s="8"/>
     </row>
@@ -2714,7 +2708,7 @@
         <v>160</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C154" s="5"/>
     </row>
@@ -2723,7 +2717,7 @@
         <v>161</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C155" s="8"/>
     </row>
@@ -2732,7 +2726,7 @@
         <v>162</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C156" s="5"/>
     </row>
@@ -2741,7 +2735,7 @@
         <v>163</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C157" s="8"/>
     </row>
@@ -2750,7 +2744,7 @@
         <v>164</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C158" s="5"/>
     </row>
@@ -2759,7 +2753,7 @@
         <v>165</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C159" s="8"/>
     </row>
@@ -2768,7 +2762,7 @@
         <v>166</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C160" s="5"/>
     </row>
@@ -2777,7 +2771,7 @@
         <v>167</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C161" s="8"/>
     </row>
@@ -2786,7 +2780,7 @@
         <v>168</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C162" s="5"/>
     </row>
@@ -2795,7 +2789,7 @@
         <v>169</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C163" s="8"/>
     </row>
@@ -2804,7 +2798,7 @@
         <v>170</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C164" s="5"/>
     </row>
@@ -2813,7 +2807,7 @@
         <v>171</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C165" s="8"/>
     </row>
@@ -2822,7 +2816,7 @@
         <v>172</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C166" s="5"/>
     </row>
@@ -2831,7 +2825,7 @@
         <v>173</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C167" s="8"/>
     </row>
@@ -2840,7 +2834,7 @@
         <v>174</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C168" s="5"/>
     </row>
@@ -2849,7 +2843,7 @@
         <v>175</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C169" s="8"/>
     </row>
@@ -2858,7 +2852,7 @@
         <v>176</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C170" s="5"/>
     </row>
@@ -2867,7 +2861,7 @@
         <v>177</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C171" s="8"/>
     </row>
@@ -2876,7 +2870,7 @@
         <v>178</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C172" s="5"/>
     </row>
@@ -2885,7 +2879,7 @@
         <v>179</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C173" s="8"/>
     </row>
@@ -2894,7 +2888,7 @@
         <v>180</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C174" s="5"/>
     </row>
@@ -2903,7 +2897,7 @@
         <v>181</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C175" s="8"/>
     </row>
@@ -2912,7 +2906,7 @@
         <v>182</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C176" s="5"/>
     </row>
@@ -2921,7 +2915,7 @@
         <v>183</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C177" s="8"/>
     </row>
@@ -2930,7 +2924,7 @@
         <v>184</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C178" s="5"/>
     </row>
@@ -2939,7 +2933,7 @@
         <v>185</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C179" s="8"/>
     </row>
@@ -2948,7 +2942,7 @@
         <v>186</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C180" s="5"/>
     </row>
@@ -2957,7 +2951,7 @@
         <v>187</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C181" s="8"/>
     </row>
@@ -2966,7 +2960,7 @@
         <v>188</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C182" s="5"/>
     </row>
@@ -2975,7 +2969,7 @@
         <v>189</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C183" s="8"/>
     </row>
@@ -2984,7 +2978,7 @@
         <v>190</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C184" s="5"/>
     </row>
@@ -2993,7 +2987,7 @@
         <v>191</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C185" s="8"/>
     </row>
@@ -3002,7 +2996,7 @@
         <v>192</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C186" s="5"/>
     </row>
@@ -3011,7 +3005,7 @@
         <v>193</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C187" s="8"/>
     </row>
@@ -3020,7 +3014,7 @@
         <v>194</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C188" s="5"/>
     </row>
@@ -3029,7 +3023,7 @@
         <v>195</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C189" s="8"/>
     </row>
@@ -3038,7 +3032,7 @@
         <v>196</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C190" s="5"/>
     </row>
@@ -3047,7 +3041,7 @@
         <v>197</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C191" s="8"/>
     </row>
@@ -3056,7 +3050,7 @@
         <v>198</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C192" s="5"/>
     </row>
@@ -3065,7 +3059,7 @@
         <v>199</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C193" s="8"/>
     </row>
@@ -3074,34 +3068,40 @@
         <v>200</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C194" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C194" s="5">
+        <v>45842</v>
+      </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>201</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C195" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C195" s="8">
+        <v>45842</v>
+      </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C196" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C196" s="5">
+        <v>45842</v>
+      </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>203</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C197" s="8"/>
     </row>
@@ -3110,7 +3110,7 @@
         <v>204</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C198" s="5"/>
     </row>
@@ -3119,7 +3119,7 @@
         <v>205</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C199" s="8"/>
     </row>
@@ -3128,7 +3128,7 @@
         <v>206</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C200" s="5"/>
     </row>
@@ -3137,7 +3137,7 @@
         <v>207</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C201" s="8"/>
     </row>
@@ -3146,18 +3146,22 @@
         <v>208</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C202" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C202" s="5">
+        <v>45842</v>
+      </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>209</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C203" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="C203" s="8">
+        <v>45842</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF79B886-60BE-4FA5-B94F-C690757471EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07949FC-0530-4021-AA69-FE9A4C41DBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6B8D0B6A-904F-4C06-8F05-F76D528FCAE7}"/>
   </bookViews>
@@ -1076,7 +1076,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA66F4FD-5FA6-4AC6-9C0F-DB7D6AB4158F}">
   <dimension ref="A1:C203"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1109,7 +1111,7 @@
       <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1120,7 +1122,7 @@
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1131,7 +1133,7 @@
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1142,7 +1144,7 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1153,7 +1155,7 @@
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1164,7 +1166,7 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1175,7 +1177,7 @@
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1186,7 +1188,7 @@
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1197,7 +1199,7 @@
       <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1208,7 +1210,7 @@
       <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1219,7 +1221,7 @@
       <c r="B13" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1230,7 +1232,7 @@
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1241,7 +1243,7 @@
       <c r="B15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1252,7 +1254,7 @@
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1263,7 +1265,7 @@
       <c r="B17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1274,7 +1276,7 @@
       <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1285,7 +1287,7 @@
       <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1296,7 +1298,7 @@
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1307,7 +1309,7 @@
       <c r="B21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1318,7 +1320,7 @@
       <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1329,7 +1331,7 @@
       <c r="B23" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1340,7 +1342,7 @@
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1351,7 +1353,7 @@
       <c r="B25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1362,7 +1364,7 @@
       <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1373,7 +1375,7 @@
       <c r="B27" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1384,7 +1386,7 @@
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1395,7 +1397,7 @@
       <c r="B29" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1406,7 +1408,7 @@
       <c r="B30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1417,7 +1419,7 @@
       <c r="B31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1428,7 +1430,7 @@
       <c r="B32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1450,7 +1452,7 @@
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1461,7 +1463,7 @@
       <c r="B35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1472,7 +1474,7 @@
       <c r="B36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="5" t="s">
         <v>5</v>
       </c>
     </row>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07949FC-0530-4021-AA69-FE9A4C41DBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7149F93-8632-46BD-9643-764120D7F52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6B8D0B6A-904F-4C06-8F05-F76D528FCAE7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20A67AED-7896-4534-8FE0-A7EB2317E862}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="211">
   <si>
     <t>CLAVE</t>
   </si>
@@ -409,6 +409,9 @@
   </si>
   <si>
     <t>I11D71c2c1a</t>
+  </si>
+  <si>
+    <t>07/04/2025</t>
   </si>
   <si>
     <t>I11D71c2c1b</t>
@@ -748,16 +751,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1073,12 +1076,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA66F4FD-5FA6-4AC6-9C0F-DB7D6AB4158F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7409EDD5-88E4-4CED-92B4-4B9F4F27C76D}">
   <dimension ref="A1:C203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
-      <selection activeCell="C197" sqref="C197"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1100,18 +1101,18 @@
       <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1122,18 +1123,18 @@
       <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1144,18 +1145,18 @@
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1166,18 +1167,18 @@
       <c r="B8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1188,18 +1189,18 @@
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1210,18 +1211,18 @@
       <c r="B12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1232,18 +1233,18 @@
       <c r="B14" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1254,18 +1255,18 @@
       <c r="B16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1276,18 +1277,18 @@
       <c r="B18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1298,18 +1299,18 @@
       <c r="B20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1320,18 +1321,18 @@
       <c r="B22" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1342,18 +1343,18 @@
       <c r="B24" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1364,18 +1365,18 @@
       <c r="B26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1386,18 +1387,18 @@
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1408,18 +1409,18 @@
       <c r="B30" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1430,18 +1431,18 @@
       <c r="B32" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1452,18 +1453,18 @@
       <c r="B34" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1474,18 +1475,18 @@
       <c r="B36" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1496,18 +1497,18 @@
       <c r="B38" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1518,18 +1519,18 @@
       <c r="B40" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1540,19 +1541,19 @@
       <c r="B42" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="8">
-        <v>45661</v>
+      <c r="B43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1562,19 +1563,19 @@
       <c r="B44" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C44" s="5">
-        <v>45661</v>
+      <c r="C44" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="8">
-        <v>45661</v>
+      <c r="B45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1584,19 +1585,19 @@
       <c r="B46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="5">
-        <v>45661</v>
+      <c r="C46" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="8">
-        <v>45661</v>
+      <c r="B47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1606,19 +1607,19 @@
       <c r="B48" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="5">
-        <v>45661</v>
+      <c r="C48" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="8">
-        <v>45661</v>
+      <c r="B49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1628,19 +1629,19 @@
       <c r="B50" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C50" s="5">
-        <v>45661</v>
+      <c r="C50" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="8">
-        <v>45661</v>
+      <c r="B51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,18 +1651,18 @@
       <c r="B52" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C52" s="5">
-        <v>45661</v>
+      <c r="C52" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="8" t="s">
+      <c r="B53" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1672,18 +1673,18 @@
       <c r="B54" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B55" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="8" t="s">
+      <c r="B55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1694,18 +1695,18 @@
       <c r="B56" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="8" t="s">
+      <c r="B57" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1716,18 +1717,18 @@
       <c r="B58" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="8" t="s">
+      <c r="B59" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1738,18 +1739,18 @@
       <c r="B60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="8" t="s">
+      <c r="B61" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1760,18 +1761,18 @@
       <c r="B62" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="B63" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1782,18 +1783,18 @@
       <c r="B64" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B65" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="8" t="s">
+      <c r="B65" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1804,18 +1805,18 @@
       <c r="B66" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="8" t="s">
+      <c r="B67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1826,18 +1827,18 @@
       <c r="B68" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="8" t="s">
+      <c r="B69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1848,18 +1849,18 @@
       <c r="B70" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="8" t="s">
+      <c r="B71" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1870,18 +1871,18 @@
       <c r="B72" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="8" t="s">
+      <c r="B73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1892,18 +1893,18 @@
       <c r="B74" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="8" t="s">
+      <c r="B75" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1914,19 +1915,19 @@
       <c r="B76" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="8">
-        <v>45661</v>
+      <c r="B77" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1936,18 +1937,18 @@
       <c r="B78" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="6" t="s">
+      <c r="A79" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B79" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="8" t="s">
+      <c r="B79" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1958,18 +1959,18 @@
       <c r="B80" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" s="8" t="s">
+      <c r="B81" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1980,18 +1981,18 @@
       <c r="B82" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B83" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="8" t="s">
+      <c r="B83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2002,18 +2003,18 @@
       <c r="B84" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="8" t="s">
+      <c r="B85" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2024,18 +2025,18 @@
       <c r="B86" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B87" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="8" t="s">
+      <c r="B87" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2046,18 +2047,18 @@
       <c r="B88" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="8" t="s">
+      <c r="B89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2068,18 +2069,18 @@
       <c r="B90" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="8" t="s">
+      <c r="B91" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2090,18 +2091,18 @@
       <c r="B92" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C93" s="8" t="s">
+      <c r="B93" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2112,18 +2113,18 @@
       <c r="B94" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C95" s="8" t="s">
+      <c r="B95" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2134,18 +2135,18 @@
       <c r="B96" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="8" t="s">
+      <c r="B97" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2156,19 +2157,19 @@
       <c r="B98" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C98" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B99" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" s="8">
-        <v>45842</v>
+      <c r="B99" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2178,18 +2179,18 @@
       <c r="B100" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+      <c r="A101" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" s="8" t="s">
+      <c r="B101" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2200,18 +2201,18 @@
       <c r="B102" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B103" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" s="8" t="s">
+      <c r="B103" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2222,18 +2223,18 @@
       <c r="B104" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B105" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" s="8" t="s">
+      <c r="B105" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2244,18 +2245,18 @@
       <c r="B106" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" s="8" t="s">
+      <c r="B107" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2266,18 +2267,18 @@
       <c r="B108" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C109" s="8"/>
+      <c r="B109" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="6"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
@@ -2286,16 +2287,16 @@
       <c r="B110" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C110" s="5"/>
+      <c r="C110" s="4"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B111" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C111" s="8"/>
+      <c r="B111" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="6"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
@@ -2304,18 +2305,18 @@
       <c r="B112" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+      <c r="A113" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" s="8" t="s">
+      <c r="B113" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2326,18 +2327,18 @@
       <c r="B114" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B115" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" s="8" t="s">
+      <c r="B115" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2348,18 +2349,18 @@
       <c r="B116" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B117" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117" s="8" t="s">
+      <c r="B117" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2370,18 +2371,18 @@
       <c r="B118" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="6" t="s">
+      <c r="A119" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B119" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" s="8" t="s">
+      <c r="B119" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2392,777 +2393,777 @@
       <c r="B120" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C120" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="6" t="s">
+      <c r="A121" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" s="8">
-        <v>45751</v>
+      <c r="B121" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" s="5">
-        <v>45751</v>
-      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="8">
-        <v>45751</v>
+      <c r="A123" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C124" s="5">
-        <v>45751</v>
+      <c r="C124" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="8">
-        <v>45751</v>
+      <c r="A125" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C126" s="5">
-        <v>45751</v>
+      <c r="C126" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C127" s="8"/>
+      <c r="A127" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C127" s="6"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C128" s="5"/>
+      <c r="C128" s="4"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B129" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C129" s="8"/>
+      <c r="A129" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C129" s="6"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C130" s="5"/>
+      <c r="C130" s="4"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C131" s="8"/>
+      <c r="A131" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C131" s="6"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C132" s="5"/>
+      <c r="C132" s="4"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C133" s="8"/>
+      <c r="A133" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C133" s="6"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C134" s="5"/>
+      <c r="C134" s="4"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C135" s="8"/>
+      <c r="A135" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C135" s="6"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C136" s="5"/>
+      <c r="C136" s="4"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B137" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C137" s="8"/>
+      <c r="A137" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C137" s="6"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C138" s="5"/>
+      <c r="C138" s="4"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C139" s="8"/>
+      <c r="A139" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C139" s="6"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C140" s="5"/>
+      <c r="C140" s="4"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B141" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C141" s="8"/>
+      <c r="A141" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C141" s="6"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C142" s="5"/>
+      <c r="C142" s="4"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C143" s="8"/>
+      <c r="A143" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C143" s="6"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C144" s="5"/>
+      <c r="C144" s="4"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C145" s="8"/>
+      <c r="A145" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C145" s="6"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C146" s="5"/>
+      <c r="C146" s="4"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B147" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C147" s="8"/>
+      <c r="A147" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C147" s="6"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C148" s="5"/>
+      <c r="C148" s="4"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B149" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C149" s="8"/>
+      <c r="A149" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C149" s="6"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C150" s="5"/>
+      <c r="C150" s="4"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C151" s="8"/>
+      <c r="A151" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C151" s="6"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C152" s="5"/>
+      <c r="C152" s="4"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C153" s="8"/>
+      <c r="A153" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C153" s="6"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C154" s="5"/>
+      <c r="C154" s="4"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B155" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C155" s="8"/>
+      <c r="A155" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C155" s="6"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C156" s="5"/>
+      <c r="C156" s="4"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C157" s="8"/>
+      <c r="A157" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C157" s="6"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C158" s="5"/>
+      <c r="C158" s="4"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C159" s="8"/>
+      <c r="A159" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C159" s="6"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C160" s="5"/>
+      <c r="C160" s="4"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C161" s="8"/>
+      <c r="A161" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C161" s="6"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C162" s="5"/>
+      <c r="C162" s="4"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C163" s="8"/>
+      <c r="A163" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C163" s="6"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C164" s="5"/>
+      <c r="C164" s="4"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B165" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C165" s="8"/>
+      <c r="A165" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C165" s="6"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C166" s="5"/>
+      <c r="C166" s="4"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C167" s="8"/>
+      <c r="A167" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C167" s="6"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C168" s="5"/>
+      <c r="C168" s="4"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B169" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C169" s="8"/>
+      <c r="A169" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C169" s="6"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C170" s="5"/>
+      <c r="C170" s="4"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C171" s="8"/>
+      <c r="A171" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C171" s="6"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C172" s="5"/>
+      <c r="C172" s="4"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C173" s="8"/>
+      <c r="A173" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C173" s="6"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C174" s="5"/>
+      <c r="C174" s="4"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C175" s="8"/>
+      <c r="A175" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C175" s="6"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C176" s="5"/>
+      <c r="C176" s="4"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C177" s="8"/>
+      <c r="A177" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C177" s="6"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C178" s="5"/>
+      <c r="C178" s="4"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C179" s="8"/>
+      <c r="A179" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C179" s="6"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C180" s="5"/>
+      <c r="C180" s="4"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C181" s="8"/>
+      <c r="A181" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C181" s="6"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C182" s="5"/>
+      <c r="C182" s="4"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B183" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C183" s="8"/>
+      <c r="A183" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C183" s="6"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C184" s="5"/>
+      <c r="C184" s="4"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C185" s="8"/>
+      <c r="A185" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C185" s="6"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C186" s="5"/>
+      <c r="C186" s="4"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C187" s="8"/>
+      <c r="A187" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C187" s="6"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C188" s="5"/>
+      <c r="C188" s="4"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C189" s="8"/>
+      <c r="A189" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C189" s="6"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C190" s="5"/>
+      <c r="C190" s="4"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="B191" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C191" s="8"/>
+      <c r="A191" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C191" s="6"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C192" s="5"/>
+      <c r="C192" s="4"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="B193" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C193" s="8"/>
+      <c r="A193" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C193" s="6"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C194" s="5">
-        <v>45842</v>
+      <c r="C194" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B195" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C195" s="8">
-        <v>45842</v>
+      <c r="A195" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C196" s="5">
-        <v>45842</v>
+      <c r="C196" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B197" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C197" s="8"/>
+      <c r="A197" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C197" s="6"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C198" s="5"/>
+      <c r="C198" s="8"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B199" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C199" s="8"/>
+      <c r="A199" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C199" s="6"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C200" s="5"/>
+      <c r="C200" s="4"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="B201" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C201" s="8"/>
+      <c r="A201" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C201" s="6"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C202" s="5">
-        <v>45842</v>
+      <c r="C202" s="8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B203" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C203" s="8">
-        <v>45842</v>
+      <c r="A203" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7149F93-8632-46BD-9643-764120D7F52D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9921EE5E-C4C9-4DAC-A528-07B930D56C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20A67AED-7896-4534-8FE0-A7EB2317E862}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97703658-F5D1-47E5-9CC1-52EE053A32E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="212">
   <si>
     <t>CLAVE</t>
   </si>
@@ -201,22 +201,25 @@
     <t>I11D71b3d2b</t>
   </si>
   <si>
+    <t>11/04/2025</t>
+  </si>
+  <si>
+    <t>I11D71b4a3c</t>
+  </si>
+  <si>
+    <t>I11D71b4c1a</t>
+  </si>
+  <si>
+    <t>I11D71b4a3d</t>
+  </si>
+  <si>
+    <t>I11D71b4a4c</t>
+  </si>
+  <si>
+    <t>I11D71b4c1b</t>
+  </si>
+  <si>
     <t>31/03/2025</t>
-  </si>
-  <si>
-    <t>I11D71b4a3c</t>
-  </si>
-  <si>
-    <t>I11D71b4c1a</t>
-  </si>
-  <si>
-    <t>I11D71b4a3d</t>
-  </si>
-  <si>
-    <t>I11D71b4a4c</t>
-  </si>
-  <si>
-    <t>I11D71b4c1b</t>
   </si>
   <si>
     <t>I11D71b4a4a</t>
@@ -745,22 +748,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1076,7 +1079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7409EDD5-88E4-4CED-92B4-4B9F4F27C76D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A28C23-3610-482C-9A18-2C5FE5E2F21A}">
   <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1098,21 +1101,21 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1120,21 +1123,21 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1142,21 +1145,21 @@
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1164,21 +1167,21 @@
       <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1186,21 +1189,21 @@
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1208,21 +1211,21 @@
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1230,21 +1233,21 @@
       <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1252,21 +1255,21 @@
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1274,21 +1277,21 @@
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1296,21 +1299,21 @@
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="6" t="s">
+      <c r="B21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1318,21 +1321,21 @@
       <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="4" t="s">
+      <c r="B22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1340,21 +1343,21 @@
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="6" t="s">
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1362,21 +1365,21 @@
       <c r="A26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="B27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1384,21 +1387,21 @@
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="6" t="s">
+      <c r="B29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1406,21 +1409,21 @@
       <c r="A30" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="4" t="s">
+      <c r="B30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="6" t="s">
+      <c r="B31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1428,21 +1431,21 @@
       <c r="A32" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="4" t="s">
+      <c r="B32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="6" t="s">
+      <c r="B33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1450,21 +1453,21 @@
       <c r="A34" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="4" t="s">
+      <c r="B34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1472,21 +1475,21 @@
       <c r="A36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="4" t="s">
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="6" t="s">
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1494,21 +1497,21 @@
       <c r="A38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="6" t="s">
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1516,21 +1519,21 @@
       <c r="A40" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="4" t="s">
+      <c r="B40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="6" t="s">
+      <c r="B41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1538,21 +1541,21 @@
       <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="4" t="s">
+      <c r="B42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="7" t="s">
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1560,21 +1563,21 @@
       <c r="A44" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="8" t="s">
+      <c r="B44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="7" t="s">
+      <c r="B45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1582,21 +1585,21 @@
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1604,21 +1607,21 @@
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="8" t="s">
+      <c r="B48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="B49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1626,21 +1629,21 @@
       <c r="A50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="8" t="s">
+      <c r="B50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1648,10 +1651,10 @@
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1660,18 +1663,18 @@
         <v>57</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C53" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>10</v>
+      <c r="B54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>58</v>
@@ -1682,18 +1685,18 @@
         <v>60</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="A56" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>10</v>
+      <c r="B56" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C56" s="4" t="s">
         <v>58</v>
@@ -1704,1466 +1707,1466 @@
         <v>62</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C57" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="7" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>58</v>
+      <c r="B58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>58</v>
+      <c r="A59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>58</v>
+      <c r="A66" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="6" t="s">
+      <c r="A67" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>58</v>
+        <v>74</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>58</v>
+      <c r="A69" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>58</v>
+        <v>76</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>58</v>
+      <c r="A71" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>58</v>
+        <v>78</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>58</v>
+      <c r="A73" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>58</v>
+        <v>80</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>58</v>
+      <c r="A75" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>58</v>
+        <v>82</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>58</v>
+      <c r="A77" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>58</v>
+      <c r="A82" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>58</v>
+      <c r="A83" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>58</v>
+        <v>90</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>58</v>
+      <c r="A85" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>58</v>
+        <v>92</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>58</v>
+      <c r="A87" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>58</v>
+        <v>94</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>58</v>
+      <c r="A89" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>58</v>
+        <v>96</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>58</v>
+      <c r="A92" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="4" t="s">
-        <v>58</v>
+      <c r="A94" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>58</v>
+      <c r="A96" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>58</v>
+      <c r="A98" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>58</v>
+      <c r="A99" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>58</v>
+        <v>106</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>58</v>
+      <c r="A101" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>58</v>
+        <v>108</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>58</v>
+      <c r="A103" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>58</v>
+        <v>110</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>58</v>
+      <c r="A105" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>58</v>
+        <v>112</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>58</v>
+      <c r="A107" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>58</v>
+        <v>114</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B109" s="6" t="s">
+      <c r="A109" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C109" s="6"/>
+      <c r="B109" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="3"/>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C110" s="4"/>
+        <v>117</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" s="3"/>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C111" s="6"/>
+      <c r="A111" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C111" s="3"/>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>58</v>
+        <v>119</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>58</v>
+      <c r="A113" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>58</v>
+        <v>121</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>58</v>
+      <c r="A115" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>58</v>
+        <v>123</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>58</v>
+      <c r="A117" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>58</v>
+        <v>125</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>58</v>
+      <c r="A119" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>58</v>
+        <v>127</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" s="7" t="s">
+      <c r="A121" s="3" t="s">
         <v>128</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="B122" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>128</v>
+      <c r="A123" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>128</v>
+      <c r="A125" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>128</v>
+        <v>134</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C127" s="6"/>
+      <c r="A127" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C127" s="3"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C128" s="4"/>
+        <v>136</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C128" s="3"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C129" s="6"/>
+      <c r="A129" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C129" s="3"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C130" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C130" s="3"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C131" s="6"/>
+      <c r="A131" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C131" s="3"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C132" s="4"/>
+        <v>140</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C132" s="3"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C133" s="6"/>
+      <c r="A133" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C133" s="3"/>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C134" s="4"/>
+        <v>142</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C134" s="3"/>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C135" s="6"/>
+      <c r="A135" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C135" s="3"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C136" s="4"/>
+        <v>144</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C136" s="3"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C137" s="6"/>
+      <c r="A137" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C137" s="3"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C138" s="4"/>
+        <v>146</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C138" s="3"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B139" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C139" s="6"/>
+      <c r="A139" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C139" s="3"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C140" s="4"/>
+        <v>148</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C140" s="3"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B141" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C141" s="6"/>
+      <c r="A141" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C141" s="3"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C142" s="4"/>
+        <v>150</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C142" s="3"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C143" s="6"/>
+      <c r="A143" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C143" s="3"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C144" s="4"/>
+        <v>152</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C144" s="3"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C145" s="6"/>
+      <c r="A145" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C145" s="3"/>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C146" s="4"/>
+        <v>154</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C146" s="3"/>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C147" s="6"/>
+      <c r="A147" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C147" s="3"/>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C148" s="4"/>
+        <v>156</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C148" s="3"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C149" s="6"/>
+      <c r="A149" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C149" s="3"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C150" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C150" s="3"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C151" s="6"/>
+      <c r="A151" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C151" s="3"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C152" s="4"/>
+        <v>160</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C152" s="3"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C153" s="6"/>
+      <c r="A153" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C153" s="3"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C154" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C154" s="3"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B155" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C155" s="6"/>
+      <c r="A155" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C155" s="3"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C156" s="4"/>
+        <v>164</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C156" s="3"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C157" s="6"/>
+      <c r="A157" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C157" s="3"/>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C158" s="4"/>
+        <v>166</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C158" s="3"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C159" s="6"/>
+      <c r="A159" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C159" s="3"/>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C160" s="4"/>
+        <v>168</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C160" s="3"/>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C161" s="6"/>
+      <c r="A161" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C161" s="3"/>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C162" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C162" s="3"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C163" s="6"/>
+      <c r="A163" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C163" s="3"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C164" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C164" s="3"/>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C165" s="6"/>
+      <c r="A165" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C165" s="3"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C166" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C166" s="3"/>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C167" s="6"/>
+      <c r="A167" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C167" s="3"/>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C168" s="4"/>
+        <v>176</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C168" s="3"/>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C169" s="6"/>
+      <c r="A169" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C169" s="3"/>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C170" s="4"/>
+        <v>178</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C170" s="3"/>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C171" s="6"/>
+      <c r="A171" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C171" s="3"/>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C172" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C172" s="3"/>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C173" s="6"/>
+      <c r="A173" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C173" s="3"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B174" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C174" s="4"/>
+        <v>182</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C174" s="3"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C175" s="6"/>
+      <c r="A175" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C175" s="3"/>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C176" s="4"/>
+        <v>184</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C176" s="3"/>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C177" s="6"/>
+      <c r="A177" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C177" s="3"/>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C178" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C178" s="3"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C179" s="6"/>
+      <c r="A179" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C179" s="3"/>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C180" s="4"/>
+        <v>188</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C180" s="3"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C181" s="6"/>
+      <c r="A181" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C181" s="3"/>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B182" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C182" s="4"/>
+        <v>190</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C182" s="3"/>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C183" s="6"/>
+      <c r="A183" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C183" s="3"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B184" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C184" s="4"/>
+        <v>192</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C184" s="3"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C185" s="6"/>
+      <c r="A185" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C185" s="3"/>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B186" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C186" s="4"/>
+        <v>194</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C186" s="3"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C187" s="6"/>
+      <c r="A187" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C187" s="3"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B188" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C188" s="4"/>
+        <v>196</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C188" s="3"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C189" s="6"/>
+      <c r="A189" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C189" s="3"/>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B190" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C190" s="4"/>
+        <v>198</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C190" s="3"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C191" s="6"/>
+      <c r="A191" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C191" s="3"/>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B192" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C192" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C192" s="3"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C193" s="6"/>
+      <c r="A193" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C193" s="3"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B194" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C194" s="8" t="s">
-        <v>128</v>
+      <c r="A194" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C195" s="7" t="s">
-        <v>128</v>
+      <c r="A195" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B196" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C196" s="8" t="s">
-        <v>128</v>
+      <c r="A196" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C197" s="6"/>
+      <c r="A197" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C197" s="3"/>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B198" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C198" s="8"/>
+        <v>206</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C198" s="4"/>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C199" s="6"/>
+      <c r="A199" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C199" s="3"/>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B200" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="C200" s="4"/>
+      <c r="A200" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C200" s="3"/>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C201" s="6"/>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B202" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C202" s="8" t="s">
-        <v>128</v>
+      <c r="A202" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9921EE5E-C4C9-4DAC-A528-07B930D56C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F479B58-514A-45C8-84FC-852AE3C50F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{97703658-F5D1-47E5-9CC1-52EE053A32E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B0B8333C-8846-4DE5-9721-A6862311952B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="210">
   <si>
     <t>CLAVE</t>
   </si>
@@ -33,7 +33,7 @@
     <t>ESTADO</t>
   </si>
   <si>
-    <t>FECHA DE ULTIMA MODIFICACION</t>
+    <t>LIDAR</t>
   </si>
   <si>
     <t>I11D71d2b1d</t>
@@ -42,7 +42,7 @@
     <t>PROCESADA</t>
   </si>
   <si>
-    <t>26/03/2025</t>
+    <t>NO</t>
   </si>
   <si>
     <t>I11D71d2b2a</t>
@@ -57,171 +57,171 @@
     <t>I11D71a4c4d</t>
   </si>
   <si>
+    <t>PENDIENTE</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>I11D71a4d3c</t>
+  </si>
+  <si>
+    <t>I11D71d2b1a</t>
+  </si>
+  <si>
+    <t>I11D71d2b1b</t>
+  </si>
+  <si>
+    <t>I11D71a4d3d</t>
+  </si>
+  <si>
+    <t>I11D71a4d4a</t>
+  </si>
+  <si>
+    <t>I11D71a4d4b</t>
+  </si>
+  <si>
+    <t>I11D71a4d4c</t>
+  </si>
+  <si>
+    <t>I11D71a4d4d</t>
+  </si>
+  <si>
+    <t>I11D71b3c3c</t>
+  </si>
+  <si>
+    <t>I11D71b3c3d</t>
+  </si>
+  <si>
+    <t>I11D71a4c2c</t>
+  </si>
+  <si>
+    <t>I11D71a4c2d</t>
+  </si>
+  <si>
+    <t>I11D71a4c4a</t>
+  </si>
+  <si>
+    <t>I11D71a4c4b</t>
+  </si>
+  <si>
+    <t>I11D71a4d1c</t>
+  </si>
+  <si>
+    <t>I11D71a4d1d</t>
+  </si>
+  <si>
+    <t>I11D71a4d3a</t>
+  </si>
+  <si>
+    <t>I11D71a4d3b</t>
+  </si>
+  <si>
+    <t>I11D71b3c1c</t>
+  </si>
+  <si>
+    <t>I11D71b3c1d</t>
+  </si>
+  <si>
+    <t>I11D71b3c3a</t>
+  </si>
+  <si>
+    <t>I11D71b3c3b</t>
+  </si>
+  <si>
+    <t>I11D71b3c2c</t>
+  </si>
+  <si>
+    <t>I11D71b3c2d</t>
+  </si>
+  <si>
+    <t>I11D71b3c4a</t>
+  </si>
+  <si>
+    <t>I11D71b3c4b</t>
+  </si>
+  <si>
+    <t>I11D71a4d1b</t>
+  </si>
+  <si>
+    <t>I11D71a4d2a</t>
+  </si>
+  <si>
+    <t>I11D71a4d2c</t>
+  </si>
+  <si>
+    <t>I11D71a4d2d</t>
+  </si>
+  <si>
+    <t>I11D71a4b4c</t>
+  </si>
+  <si>
+    <t>I11D71a4b4d</t>
+  </si>
+  <si>
+    <t>I11D71a4d2b</t>
+  </si>
+  <si>
+    <t>I11D71b3c1a</t>
+  </si>
+  <si>
+    <t>I11D71b3a3c</t>
+  </si>
+  <si>
+    <t>I11D71b3a3d</t>
+  </si>
+  <si>
+    <t>I11D71b3c1b</t>
+  </si>
+  <si>
+    <t>I11D71b3c2a</t>
+  </si>
+  <si>
+    <t>I11D71b3a4c</t>
+  </si>
+  <si>
+    <t>I11D71b3a4d</t>
+  </si>
+  <si>
+    <t>I11D71b3c2b</t>
+  </si>
+  <si>
+    <t>I11D71b3d1a</t>
+  </si>
+  <si>
+    <t>I11D71b3d1b</t>
+  </si>
+  <si>
+    <t>I11D71b3d1c</t>
+  </si>
+  <si>
+    <t>I11D71b3d1d</t>
+  </si>
+  <si>
+    <t>I11D71b3d2a</t>
+  </si>
+  <si>
+    <t>I11D71b3d2b</t>
+  </si>
+  <si>
+    <t>I11D71b4a3c</t>
+  </si>
+  <si>
+    <t>I11D71b4c1a</t>
+  </si>
+  <si>
+    <t>I11D71b4a3d</t>
+  </si>
+  <si>
+    <t>I11D71b4a4c</t>
+  </si>
+  <si>
+    <t>I11D71b4c1b</t>
+  </si>
+  <si>
     <t>VOLADA</t>
   </si>
   <si>
-    <t>I11D71a4d3c</t>
-  </si>
-  <si>
-    <t>I11D71d2b1a</t>
-  </si>
-  <si>
-    <t>I11D71d2b1b</t>
-  </si>
-  <si>
-    <t>I11D71a4d3d</t>
-  </si>
-  <si>
-    <t>I11D71a4d4a</t>
-  </si>
-  <si>
-    <t>I11D71a4d4b</t>
-  </si>
-  <si>
-    <t>I11D71a4d4c</t>
-  </si>
-  <si>
-    <t>I11D71a4d4d</t>
-  </si>
-  <si>
-    <t>I11D71b3c3c</t>
-  </si>
-  <si>
-    <t>I11D71b3c3d</t>
-  </si>
-  <si>
-    <t>I11D71a4c2c</t>
-  </si>
-  <si>
-    <t>I11D71a4c2d</t>
-  </si>
-  <si>
-    <t>I11D71a4c4a</t>
-  </si>
-  <si>
-    <t>I11D71a4c4b</t>
-  </si>
-  <si>
-    <t>I11D71a4d1c</t>
-  </si>
-  <si>
-    <t>I11D71a4d1d</t>
-  </si>
-  <si>
-    <t>I11D71a4d3a</t>
-  </si>
-  <si>
-    <t>I11D71a4d3b</t>
-  </si>
-  <si>
-    <t>I11D71b3c1c</t>
-  </si>
-  <si>
-    <t>I11D71b3c1d</t>
-  </si>
-  <si>
-    <t>I11D71b3c3a</t>
-  </si>
-  <si>
-    <t>I11D71b3c3b</t>
-  </si>
-  <si>
-    <t>I11D71b3c2c</t>
-  </si>
-  <si>
-    <t>I11D71b3c2d</t>
-  </si>
-  <si>
-    <t>I11D71b3c4a</t>
-  </si>
-  <si>
-    <t>I11D71b3c4b</t>
-  </si>
-  <si>
-    <t>I11D71a4d1b</t>
-  </si>
-  <si>
-    <t>I11D71a4d2a</t>
-  </si>
-  <si>
-    <t>I11D71a4d2c</t>
-  </si>
-  <si>
-    <t>I11D71a4d2d</t>
-  </si>
-  <si>
-    <t>I11D71a4b4c</t>
-  </si>
-  <si>
-    <t>I11D71a4b4d</t>
-  </si>
-  <si>
-    <t>I11D71a4d2b</t>
-  </si>
-  <si>
-    <t>I11D71b3c1a</t>
-  </si>
-  <si>
-    <t>I11D71b3a3c</t>
-  </si>
-  <si>
-    <t>I11D71b3a3d</t>
-  </si>
-  <si>
-    <t>I11D71b3c1b</t>
-  </si>
-  <si>
-    <t>I11D71b3c2a</t>
-  </si>
-  <si>
-    <t>I11D71b3a4c</t>
-  </si>
-  <si>
-    <t>I11D71b3a4d</t>
-  </si>
-  <si>
-    <t>I11D71b3c2b</t>
-  </si>
-  <si>
-    <t>I11D71b3d1a</t>
-  </si>
-  <si>
-    <t>I11D71b3d1b</t>
-  </si>
-  <si>
-    <t>I11D71b3d1c</t>
-  </si>
-  <si>
-    <t>I11D71b3d1d</t>
-  </si>
-  <si>
-    <t>I11D71b3d2a</t>
-  </si>
-  <si>
-    <t>I11D71b3d2b</t>
-  </si>
-  <si>
-    <t>11/04/2025</t>
-  </si>
-  <si>
-    <t>I11D71b4a3c</t>
-  </si>
-  <si>
-    <t>I11D71b4c1a</t>
-  </si>
-  <si>
-    <t>I11D71b4a3d</t>
-  </si>
-  <si>
-    <t>I11D71b4a4c</t>
-  </si>
-  <si>
-    <t>I11D71b4c1b</t>
-  </si>
-  <si>
-    <t>31/03/2025</t>
-  </si>
-  <si>
     <t>I11D71b4a4a</t>
   </si>
   <si>
@@ -375,9 +375,6 @@
     <t>I11D71c1c4c</t>
   </si>
   <si>
-    <t>PENDIENTE</t>
-  </si>
-  <si>
     <t>I11D71c1c4d</t>
   </si>
   <si>
@@ -412,9 +409,6 @@
   </si>
   <si>
     <t>I11D71c2c1a</t>
-  </si>
-  <si>
-    <t>07/04/2025</t>
   </si>
   <si>
     <t>I11D71c2c1b</t>
@@ -740,18 +734,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,10 +748,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1079,7 +1070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32A28C23-3610-482C-9A18-2C5FE5E2F21A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70B6F0-5233-47B2-820E-0C3685436BE5}">
   <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1101,21 +1092,21 @@
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1123,21 +1114,21 @@
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1145,425 +1136,425 @@
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="A9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="A13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="A15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="A19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="A23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="A25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="A27" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="A29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="A31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="A33" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="A35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="A37" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="A39" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="A41" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" s="4" t="s">
+      <c r="A43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C44" s="4" t="s">
@@ -1571,65 +1562,65 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="4" t="s">
+      <c r="A45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>4</v>
+        <v>51</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="4" t="s">
+      <c r="A47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>4</v>
+        <v>53</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="4" t="s">
+      <c r="A49" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B50" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -1637,21 +1628,21 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="4" t="s">
+      <c r="A51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C52" s="4" t="s">
@@ -1660,24 +1651,24 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>58</v>
+      <c r="C53" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1687,19 +1678,19 @@
       <c r="B55" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>58</v>
+      <c r="C55" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1709,371 +1700,371 @@
       <c r="B57" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>58</v>
+      <c r="C57" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>64</v>
+      <c r="B58" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>64</v>
+      <c r="B59" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>64</v>
+      <c r="B60" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>64</v>
+      <c r="B61" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>64</v>
+      <c r="B62" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>64</v>
+      <c r="B63" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>64</v>
+      <c r="B64" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>58</v>
+      <c r="B65" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>64</v>
+      <c r="B66" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>58</v>
+      <c r="B67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>64</v>
+      <c r="B68" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>64</v>
+      <c r="B69" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>64</v>
+      <c r="B70" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>64</v>
+      <c r="B71" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>64</v>
+      <c r="B72" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>64</v>
+      <c r="B73" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>64</v>
+      <c r="B74" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B75" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>64</v>
+      <c r="B75" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>64</v>
+      <c r="B76" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>64</v>
+      <c r="B77" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>64</v>
+      <c r="B78" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="A79" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>64</v>
+      <c r="B79" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B80" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>64</v>
+      <c r="B80" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>58</v>
+      <c r="B81" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B82" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>64</v>
+      <c r="B82" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>64</v>
+      <c r="B83" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>64</v>
+      <c r="B84" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>64</v>
+      <c r="B85" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>64</v>
+      <c r="B86" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>64</v>
+      <c r="B87" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>64</v>
+      <c r="B88" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="A89" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>64</v>
+      <c r="B89" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C90" s="3" t="s">
-        <v>64</v>
+      <c r="B90" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2084,18 +2075,18 @@
         <v>4</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>64</v>
+      <c r="B92" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2106,18 +2097,18 @@
         <v>4</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>64</v>
+      <c r="B94" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2128,18 +2119,18 @@
         <v>4</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>64</v>
+      <c r="B96" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2147,1026 +2138,1176 @@
         <v>103</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>4</v>
+        <v>64</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>64</v>
+      <c r="B98" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
+      <c r="A99" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>64</v>
+      <c r="B99" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>64</v>
+      <c r="B100" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="A101" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>64</v>
+      <c r="B101" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C101" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>64</v>
+      <c r="B102" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="3" t="s">
+      <c r="A103" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>64</v>
+      <c r="B103" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>64</v>
+      <c r="B104" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>64</v>
+      <c r="B105" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>64</v>
+      <c r="B106" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>64</v>
+      <c r="B107" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>64</v>
+      <c r="B108" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="3" t="s">
+      <c r="A109" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C109" s="3"/>
+      <c r="B109" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C110" s="3"/>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C111" s="3"/>
+      <c r="B111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>64</v>
+      <c r="B113" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C113" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>64</v>
+      <c r="B115" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C115" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>64</v>
+      <c r="B117" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>64</v>
+      <c r="B119" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B120" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>129</v>
+      <c r="B121" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>10</v>
+        <v>128</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C122" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="5" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>129</v>
+      <c r="B123" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>10</v>
+        <v>130</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>129</v>
+      <c r="A125" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C125" s="6" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B126" s="3" t="s">
-        <v>10</v>
+        <v>132</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>129</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C127" s="3"/>
+      <c r="A127" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C128" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C129" s="3"/>
+      <c r="A129" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C130" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C131" s="3"/>
+      <c r="A131" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C132" s="3"/>
+        <v>138</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C133" s="3"/>
+      <c r="A133" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C134" s="3"/>
+        <v>140</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C135" s="3"/>
+      <c r="A135" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C136" s="3"/>
+        <v>142</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B137" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C137" s="3"/>
+      <c r="A137" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C138" s="3"/>
+        <v>144</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B139" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C139" s="3"/>
+      <c r="A139" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C140" s="3"/>
+        <v>146</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C141" s="3"/>
+      <c r="A141" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C142" s="3"/>
+        <v>148</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C142" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B143" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C143" s="3"/>
+      <c r="A143" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C143" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C144" s="3"/>
+        <v>150</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B145" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C145" s="3"/>
+      <c r="A145" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C146" s="3"/>
+        <v>152</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B147" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C147" s="3"/>
+      <c r="A147" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C148" s="3"/>
+        <v>154</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C149" s="3"/>
+      <c r="A149" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C150" s="3"/>
+        <v>156</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C151" s="3"/>
+      <c r="A151" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C152" s="3"/>
+        <v>158</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C153" s="3"/>
+      <c r="A153" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C154" s="3"/>
+        <v>160</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C155" s="3"/>
+      <c r="A155" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C155" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C156" s="3"/>
+        <v>162</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C157" s="3"/>
+      <c r="A157" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C158" s="3"/>
+        <v>164</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C159" s="3"/>
+      <c r="A159" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C160" s="3"/>
+        <v>166</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C161" s="3"/>
+      <c r="A161" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C162" s="3"/>
+        <v>168</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C163" s="3"/>
+      <c r="A163" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C163" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C164" s="3"/>
+        <v>170</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C165" s="3"/>
+      <c r="A165" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C166" s="3"/>
+        <v>172</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C167" s="3"/>
+      <c r="A167" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C168" s="3"/>
+        <v>174</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C169" s="3"/>
+      <c r="A169" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C170" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C171" s="3"/>
+      <c r="A171" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C172" s="3"/>
+        <v>178</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C173" s="3"/>
+      <c r="A173" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C174" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C175" s="3"/>
+      <c r="A175" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B176" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C176" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B177" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C177" s="3"/>
+      <c r="A177" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C178" s="3"/>
+        <v>184</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C179" s="3"/>
+      <c r="A179" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C180" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C181" s="3"/>
+      <c r="A181" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C182" s="3"/>
+        <v>188</v>
+      </c>
+      <c r="B182" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B183" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C183" s="3"/>
+      <c r="A183" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B184" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C184" s="3"/>
+        <v>190</v>
+      </c>
+      <c r="B184" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C184" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C185" s="3"/>
+      <c r="A185" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C186" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="B186" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C186" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C187" s="3"/>
+      <c r="A187" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C188" s="3"/>
+        <v>194</v>
+      </c>
+      <c r="B188" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C189" s="3"/>
+      <c r="A189" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C190" s="3"/>
+        <v>196</v>
+      </c>
+      <c r="B190" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C191" s="3"/>
+      <c r="A191" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B192" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="B192" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C192" s="3"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
+      <c r="B194" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B193" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C193" s="3"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="5" t="s">
+      <c r="B195" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B194" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C194" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="8" t="s">
+      <c r="B196" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C196" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="B195" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C196" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="B197" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C197" s="3"/>
+      <c r="B197" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B198" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C198" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B198" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C198" s="4"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="B199" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C199" s="3"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B200" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C200" s="3"/>
+      <c r="B200" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C201" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B202" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>58</v>
+      <c r="A202" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B202" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C203" s="7" t="s">
-        <v>58</v>
+      <c r="C203" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F479B58-514A-45C8-84FC-852AE3C50F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E511C868-A667-44AF-92B9-6E901DE6E20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B0B8333C-8846-4DE5-9721-A6862311952B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B12C05E-75D4-4CB8-B99E-2B2AA8E289CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -219,31 +219,31 @@
     <t>I11D71b4c1b</t>
   </si>
   <si>
+    <t>I11D71b4a4a</t>
+  </si>
+  <si>
+    <t>I11D71b4a4b</t>
+  </si>
+  <si>
+    <t>I11D71b4a4d</t>
+  </si>
+  <si>
+    <t>I11D71b3b3d</t>
+  </si>
+  <si>
+    <t>I11D71b3b4a</t>
+  </si>
+  <si>
+    <t>I11D71b3b4c</t>
+  </si>
+  <si>
+    <t>I11D71b3b4b</t>
+  </si>
+  <si>
+    <t>I11D71b3b4d</t>
+  </si>
+  <si>
     <t>VOLADA</t>
-  </si>
-  <si>
-    <t>I11D71b4a4a</t>
-  </si>
-  <si>
-    <t>I11D71b4a4b</t>
-  </si>
-  <si>
-    <t>I11D71b4a4d</t>
-  </si>
-  <si>
-    <t>I11D71b3b3d</t>
-  </si>
-  <si>
-    <t>I11D71b3b4a</t>
-  </si>
-  <si>
-    <t>I11D71b3b4c</t>
-  </si>
-  <si>
-    <t>I11D71b3b4b</t>
-  </si>
-  <si>
-    <t>I11D71b3b4d</t>
   </si>
   <si>
     <t>I11D71b4a3a</t>
@@ -1070,7 +1070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB70B6F0-5233-47B2-820E-0C3685436BE5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114DD4A0-99B5-48FE-A8AD-E88226A2AE33}">
   <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1709,7 +1709,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>5</v>
@@ -1717,10 +1717,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>5</v>
@@ -1728,10 +1728,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>5</v>
@@ -1739,10 +1739,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>64</v>
+        <v>4</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>5</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>4</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>4</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>4</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>4</v>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>5</v>
@@ -1819,7 +1819,7 @@
         <v>74</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>5</v>
@@ -1830,7 +1830,7 @@
         <v>75</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>11</v>
@@ -1841,7 +1841,7 @@
         <v>76</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>11</v>
@@ -1852,7 +1852,7 @@
         <v>77</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>11</v>
@@ -1863,7 +1863,7 @@
         <v>78</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>5</v>
@@ -1874,7 +1874,7 @@
         <v>79</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>11</v>
@@ -1951,7 +1951,7 @@
         <v>86</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>5</v>
@@ -1973,7 +1973,7 @@
         <v>88</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>5</v>
@@ -1984,7 +1984,7 @@
         <v>89</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>5</v>
@@ -1995,7 +1995,7 @@
         <v>90</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>5</v>
@@ -2006,7 +2006,7 @@
         <v>91</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>5</v>
@@ -2017,7 +2017,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>5</v>
@@ -2028,7 +2028,7 @@
         <v>93</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>5</v>
@@ -2039,7 +2039,7 @@
         <v>94</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>5</v>
@@ -2050,7 +2050,7 @@
         <v>95</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>5</v>
@@ -2061,7 +2061,7 @@
         <v>96</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>5</v>
@@ -2138,7 +2138,7 @@
         <v>103</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>5</v>
@@ -2149,7 +2149,7 @@
         <v>104</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>5</v>
@@ -2160,7 +2160,7 @@
         <v>105</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>5</v>
@@ -2171,7 +2171,7 @@
         <v>106</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>5</v>
@@ -2182,7 +2182,7 @@
         <v>107</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>5</v>
@@ -2193,7 +2193,7 @@
         <v>108</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>11</v>
@@ -2204,7 +2204,7 @@
         <v>109</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>11</v>
@@ -2215,7 +2215,7 @@
         <v>110</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>5</v>
@@ -2226,7 +2226,7 @@
         <v>111</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>11</v>
@@ -2237,7 +2237,7 @@
         <v>112</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>5</v>
@@ -2248,7 +2248,7 @@
         <v>113</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>5</v>
@@ -2259,7 +2259,7 @@
         <v>114</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>5</v>
@@ -2303,7 +2303,7 @@
         <v>118</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>11</v>
@@ -2314,7 +2314,7 @@
         <v>119</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>11</v>
@@ -2325,7 +2325,7 @@
         <v>120</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>11</v>
@@ -2336,7 +2336,7 @@
         <v>121</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>11</v>
@@ -2347,7 +2347,7 @@
         <v>122</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>5</v>
@@ -2358,7 +2358,7 @@
         <v>123</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>5</v>
@@ -2369,7 +2369,7 @@
         <v>124</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>11</v>
@@ -2380,7 +2380,7 @@
         <v>125</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>11</v>
@@ -2391,7 +2391,7 @@
         <v>126</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>11</v>
@@ -2402,7 +2402,7 @@
         <v>127</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>11</v>
@@ -2413,7 +2413,7 @@
         <v>128</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>11</v>
@@ -2424,7 +2424,7 @@
         <v>129</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>5</v>
@@ -2435,7 +2435,7 @@
         <v>130</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>5</v>
@@ -2446,7 +2446,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>5</v>
@@ -2457,7 +2457,7 @@
         <v>132</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>5</v>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E511C868-A667-44AF-92B9-6E901DE6E20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD913080-1897-4435-A84F-72280BD2C05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0B12C05E-75D4-4CB8-B99E-2B2AA8E289CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39688B2C-ACAB-4361-8F42-F980D335B3AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -195,6 +195,9 @@
     <t>I11D71b3d1c</t>
   </si>
   <si>
+    <t>VOLADA</t>
+  </si>
+  <si>
     <t>I11D71b3d1d</t>
   </si>
   <si>
@@ -241,9 +244,6 @@
   </si>
   <si>
     <t>I11D71b3b4d</t>
-  </si>
-  <si>
-    <t>VOLADA</t>
   </si>
   <si>
     <t>I11D71b4a3a</t>
@@ -1070,7 +1070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114DD4A0-99B5-48FE-A8AD-E88226A2AE33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52560DC1-B1E8-43F1-9E5C-F4F153327A11}">
   <dimension ref="A1:C203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1621,7 +1621,7 @@
         <v>55</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>5</v>
@@ -1629,10 +1629,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>5</v>
@@ -1640,7 +1640,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>4</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>4</v>
@@ -1662,7 +1662,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>4</v>
@@ -1673,7 +1673,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>4</v>
@@ -1684,7 +1684,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>4</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>4</v>
@@ -1706,7 +1706,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>4</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>4</v>
@@ -1728,7 +1728,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>4</v>
@@ -1739,7 +1739,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>4</v>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>4</v>
@@ -1761,7 +1761,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>4</v>
@@ -1772,7 +1772,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>4</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>4</v>
@@ -1794,10 +1794,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>5</v>
@@ -1819,7 +1819,7 @@
         <v>74</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>5</v>
@@ -1830,7 +1830,7 @@
         <v>75</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>11</v>
@@ -1841,7 +1841,7 @@
         <v>76</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>11</v>
@@ -1852,7 +1852,7 @@
         <v>77</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>11</v>
@@ -1863,7 +1863,7 @@
         <v>78</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>5</v>
@@ -1874,7 +1874,7 @@
         <v>79</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>11</v>
@@ -1951,7 +1951,7 @@
         <v>86</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>5</v>
@@ -1973,7 +1973,7 @@
         <v>88</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>5</v>
@@ -1984,7 +1984,7 @@
         <v>89</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>5</v>
@@ -1995,7 +1995,7 @@
         <v>90</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>5</v>
@@ -2006,7 +2006,7 @@
         <v>91</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>5</v>
@@ -2017,7 +2017,7 @@
         <v>92</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>5</v>
@@ -2028,7 +2028,7 @@
         <v>93</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>5</v>
@@ -2039,7 +2039,7 @@
         <v>94</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>5</v>
@@ -2050,7 +2050,7 @@
         <v>95</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>5</v>
@@ -2061,7 +2061,7 @@
         <v>96</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>5</v>
@@ -2138,7 +2138,7 @@
         <v>103</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>5</v>
@@ -2149,7 +2149,7 @@
         <v>104</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>5</v>
@@ -2160,7 +2160,7 @@
         <v>105</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>5</v>
@@ -2171,7 +2171,7 @@
         <v>106</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>5</v>
@@ -2182,7 +2182,7 @@
         <v>107</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>5</v>
@@ -2193,7 +2193,7 @@
         <v>108</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>11</v>
@@ -2204,7 +2204,7 @@
         <v>109</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>11</v>
@@ -2215,7 +2215,7 @@
         <v>110</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>5</v>
@@ -2226,7 +2226,7 @@
         <v>111</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>11</v>
@@ -2237,7 +2237,7 @@
         <v>112</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>5</v>
@@ -2248,7 +2248,7 @@
         <v>113</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>5</v>
@@ -2259,7 +2259,7 @@
         <v>114</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>5</v>
@@ -2303,7 +2303,7 @@
         <v>118</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>11</v>
@@ -2314,7 +2314,7 @@
         <v>119</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>11</v>
@@ -2325,7 +2325,7 @@
         <v>120</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>11</v>
@@ -2336,7 +2336,7 @@
         <v>121</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>11</v>
@@ -2347,7 +2347,7 @@
         <v>122</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>5</v>
@@ -2358,7 +2358,7 @@
         <v>123</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>5</v>
@@ -2369,7 +2369,7 @@
         <v>124</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>11</v>
@@ -2380,7 +2380,7 @@
         <v>125</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>11</v>
@@ -2391,7 +2391,7 @@
         <v>126</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>11</v>
@@ -2402,7 +2402,7 @@
         <v>127</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>11</v>
@@ -2413,7 +2413,7 @@
         <v>128</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>11</v>
@@ -2424,7 +2424,7 @@
         <v>129</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>5</v>
@@ -2435,7 +2435,7 @@
         <v>130</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>5</v>
@@ -2446,7 +2446,7 @@
         <v>131</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>5</v>
@@ -2457,7 +2457,7 @@
         <v>132</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>5</v>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD913080-1897-4435-A84F-72280BD2C05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{30D2CD82-061F-4BB4-A8E2-C12C90731904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{39688B2C-ACAB-4361-8F42-F980D335B3AB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D10899E-E8A3-4765-B0B2-F82E9828985F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="213">
   <si>
     <t>CLAVE</t>
   </si>
@@ -36,6 +36,9 @@
     <t>LIDAR</t>
   </si>
   <si>
+    <t>OBSERVACION</t>
+  </si>
+  <si>
     <t>I11D71d2b1d</t>
   </si>
   <si>
@@ -57,322 +60,328 @@
     <t>I11D71a4c4d</t>
   </si>
   <si>
+    <t>VOLADA</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>VOLVER A VOLAR YA QUE EL PRODUCTO ES MUY CLARO</t>
+  </si>
+  <si>
+    <t>I11D71a4d3c</t>
+  </si>
+  <si>
+    <t>I11D71d2b1a</t>
+  </si>
+  <si>
+    <t>I11D71d2b1b</t>
+  </si>
+  <si>
+    <t>I11D71a4d3d</t>
+  </si>
+  <si>
+    <t>I11D71a4d4a</t>
+  </si>
+  <si>
+    <t>I11D71a4d4b</t>
+  </si>
+  <si>
+    <t>I11D71a4d4c</t>
+  </si>
+  <si>
+    <t>I11D71a4d4d</t>
+  </si>
+  <si>
+    <t>I11D71b3c3c</t>
+  </si>
+  <si>
+    <t>I11D71b3c3d</t>
+  </si>
+  <si>
+    <t>I11D71a4c2c</t>
+  </si>
+  <si>
+    <t>I11D71a4c2d</t>
+  </si>
+  <si>
+    <t>I11D71a4c4a</t>
+  </si>
+  <si>
+    <t>I11D71a4c4b</t>
+  </si>
+  <si>
+    <t>I11D71a4d1c</t>
+  </si>
+  <si>
+    <t>I11D71a4d1d</t>
+  </si>
+  <si>
+    <t>I11D71a4d3a</t>
+  </si>
+  <si>
+    <t>I11D71a4d3b</t>
+  </si>
+  <si>
+    <t>I11D71b3c1c</t>
+  </si>
+  <si>
+    <t>I11D71b3c1d</t>
+  </si>
+  <si>
+    <t>I11D71b3c3a</t>
+  </si>
+  <si>
+    <t>I11D71b3c3b</t>
+  </si>
+  <si>
+    <t>I11D71b3c2c</t>
+  </si>
+  <si>
+    <t>I11D71b3c2d</t>
+  </si>
+  <si>
+    <t>I11D71b3c4a</t>
+  </si>
+  <si>
+    <t>I11D71b3c4b</t>
+  </si>
+  <si>
+    <t>I11D71a4d1b</t>
+  </si>
+  <si>
+    <t>I11D71a4d2a</t>
+  </si>
+  <si>
+    <t>I11D71a4d2c</t>
+  </si>
+  <si>
+    <t>I11D71a4d2d</t>
+  </si>
+  <si>
+    <t>I11D71a4b4c</t>
+  </si>
+  <si>
+    <t>I11D71a4b4d</t>
+  </si>
+  <si>
+    <t>I11D71a4d2b</t>
+  </si>
+  <si>
+    <t>I11D71b3c1a</t>
+  </si>
+  <si>
+    <t>I11D71b3a3c</t>
+  </si>
+  <si>
+    <t>I11D71b3a3d</t>
+  </si>
+  <si>
+    <t>I11D71b3c1b</t>
+  </si>
+  <si>
+    <t>I11D71b3c2a</t>
+  </si>
+  <si>
+    <t>I11D71b3a4c</t>
+  </si>
+  <si>
+    <t>ESTABLECER PUNTOS DE CONTROL PARA AJUSTE</t>
+  </si>
+  <si>
+    <t>I11D71b3a4d</t>
+  </si>
+  <si>
+    <t>I11D71b3c2b</t>
+  </si>
+  <si>
+    <t>I11D71b3d1a</t>
+  </si>
+  <si>
+    <t>I11D71b3d1b</t>
+  </si>
+  <si>
+    <t>I11D71b3d1c</t>
+  </si>
+  <si>
+    <t>I11D71b3d1d</t>
+  </si>
+  <si>
+    <t>I11D71b3d2a</t>
+  </si>
+  <si>
+    <t>I11D71b3d2b</t>
+  </si>
+  <si>
+    <t>I11D71b4a3c</t>
+  </si>
+  <si>
+    <t>I11D71b4c1a</t>
+  </si>
+  <si>
+    <t>I11D71b4a3d</t>
+  </si>
+  <si>
+    <t>I11D71b4a4c</t>
+  </si>
+  <si>
+    <t>I11D71b4c1b</t>
+  </si>
+  <si>
+    <t>I11D71b4a4a</t>
+  </si>
+  <si>
+    <t>I11D71b4a4b</t>
+  </si>
+  <si>
+    <t>I11D71b4a4d</t>
+  </si>
+  <si>
+    <t>I11D71b3b3d</t>
+  </si>
+  <si>
+    <t>I11D71b3b4a</t>
+  </si>
+  <si>
+    <t>I11D71b3b4c</t>
+  </si>
+  <si>
+    <t>I11D71b3b4b</t>
+  </si>
+  <si>
+    <t>I11D71b3b4d</t>
+  </si>
+  <si>
+    <t>I11D71b4a3a</t>
+  </si>
+  <si>
+    <t>I11D71b4a1c</t>
+  </si>
+  <si>
+    <t>I11D71b4a1d</t>
+  </si>
+  <si>
+    <t>I11D71b4a3b</t>
+  </si>
+  <si>
+    <t>I11D71b4b1c</t>
+  </si>
+  <si>
+    <t>I11D71b4b1d</t>
+  </si>
+  <si>
+    <t>I11D71b4b3a</t>
+  </si>
+  <si>
+    <t>I11D71b3b2b</t>
+  </si>
+  <si>
+    <t>I11D71b3b2c</t>
+  </si>
+  <si>
+    <t>I11D71b3b2d</t>
+  </si>
+  <si>
+    <t>I11D71b2c3c</t>
+  </si>
+  <si>
+    <t>I11D71b4a1a</t>
+  </si>
+  <si>
+    <t>I11D71b4a1b</t>
+  </si>
+  <si>
+    <t>I11D71b4a2a</t>
+  </si>
+  <si>
+    <t>I11D71b4a2b</t>
+  </si>
+  <si>
+    <t>I11D71b4a2c</t>
+  </si>
+  <si>
+    <t>I11D71b4a2d</t>
+  </si>
+  <si>
+    <t>I11D71b2d3c</t>
+  </si>
+  <si>
+    <t>I11D71b2d3d</t>
+  </si>
+  <si>
+    <t>I11D71b4b1a</t>
+  </si>
+  <si>
+    <t>I11D71b4b1b</t>
+  </si>
+  <si>
+    <t>I11D71b4b2a</t>
+  </si>
+  <si>
+    <t>I11D71b4b2b</t>
+  </si>
+  <si>
+    <t>I11D71b4b2c</t>
+  </si>
+  <si>
+    <t>I11D71b2c4b</t>
+  </si>
+  <si>
+    <t>I11D71b2c4c</t>
+  </si>
+  <si>
+    <t>I11D71b2c4d</t>
+  </si>
+  <si>
+    <t>I11D71b2d3a</t>
+  </si>
+  <si>
+    <t>I11D71b2d1d</t>
+  </si>
+  <si>
+    <t>I11D71b2d2c</t>
+  </si>
+  <si>
+    <t>I11D71b2d3b</t>
+  </si>
+  <si>
+    <t>I11D71b2d4a</t>
+  </si>
+  <si>
+    <t>I11D71b2d4b</t>
+  </si>
+  <si>
+    <t>I11D71b2d4c</t>
+  </si>
+  <si>
+    <t>I11D71b2d4d</t>
+  </si>
+  <si>
+    <t>I11D71b2d2d</t>
+  </si>
+  <si>
+    <t>I11D71c1c1c</t>
+  </si>
+  <si>
+    <t>I11D71c1c3a</t>
+  </si>
+  <si>
+    <t>I11D71c1c3b</t>
+  </si>
+  <si>
+    <t>I11D71c1c3c</t>
+  </si>
+  <si>
+    <t>I11D71c1c3d</t>
+  </si>
+  <si>
+    <t>I11D71c3a1a</t>
+  </si>
+  <si>
+    <t>I11D71c1c4c</t>
+  </si>
+  <si>
     <t>PENDIENTE</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>I11D71a4d3c</t>
-  </si>
-  <si>
-    <t>I11D71d2b1a</t>
-  </si>
-  <si>
-    <t>I11D71d2b1b</t>
-  </si>
-  <si>
-    <t>I11D71a4d3d</t>
-  </si>
-  <si>
-    <t>I11D71a4d4a</t>
-  </si>
-  <si>
-    <t>I11D71a4d4b</t>
-  </si>
-  <si>
-    <t>I11D71a4d4c</t>
-  </si>
-  <si>
-    <t>I11D71a4d4d</t>
-  </si>
-  <si>
-    <t>I11D71b3c3c</t>
-  </si>
-  <si>
-    <t>I11D71b3c3d</t>
-  </si>
-  <si>
-    <t>I11D71a4c2c</t>
-  </si>
-  <si>
-    <t>I11D71a4c2d</t>
-  </si>
-  <si>
-    <t>I11D71a4c4a</t>
-  </si>
-  <si>
-    <t>I11D71a4c4b</t>
-  </si>
-  <si>
-    <t>I11D71a4d1c</t>
-  </si>
-  <si>
-    <t>I11D71a4d1d</t>
-  </si>
-  <si>
-    <t>I11D71a4d3a</t>
-  </si>
-  <si>
-    <t>I11D71a4d3b</t>
-  </si>
-  <si>
-    <t>I11D71b3c1c</t>
-  </si>
-  <si>
-    <t>I11D71b3c1d</t>
-  </si>
-  <si>
-    <t>I11D71b3c3a</t>
-  </si>
-  <si>
-    <t>I11D71b3c3b</t>
-  </si>
-  <si>
-    <t>I11D71b3c2c</t>
-  </si>
-  <si>
-    <t>I11D71b3c2d</t>
-  </si>
-  <si>
-    <t>I11D71b3c4a</t>
-  </si>
-  <si>
-    <t>I11D71b3c4b</t>
-  </si>
-  <si>
-    <t>I11D71a4d1b</t>
-  </si>
-  <si>
-    <t>I11D71a4d2a</t>
-  </si>
-  <si>
-    <t>I11D71a4d2c</t>
-  </si>
-  <si>
-    <t>I11D71a4d2d</t>
-  </si>
-  <si>
-    <t>I11D71a4b4c</t>
-  </si>
-  <si>
-    <t>I11D71a4b4d</t>
-  </si>
-  <si>
-    <t>I11D71a4d2b</t>
-  </si>
-  <si>
-    <t>I11D71b3c1a</t>
-  </si>
-  <si>
-    <t>I11D71b3a3c</t>
-  </si>
-  <si>
-    <t>I11D71b3a3d</t>
-  </si>
-  <si>
-    <t>I11D71b3c1b</t>
-  </si>
-  <si>
-    <t>I11D71b3c2a</t>
-  </si>
-  <si>
-    <t>I11D71b3a4c</t>
-  </si>
-  <si>
-    <t>I11D71b3a4d</t>
-  </si>
-  <si>
-    <t>I11D71b3c2b</t>
-  </si>
-  <si>
-    <t>I11D71b3d1a</t>
-  </si>
-  <si>
-    <t>I11D71b3d1b</t>
-  </si>
-  <si>
-    <t>I11D71b3d1c</t>
-  </si>
-  <si>
-    <t>VOLADA</t>
-  </si>
-  <si>
-    <t>I11D71b3d1d</t>
-  </si>
-  <si>
-    <t>I11D71b3d2a</t>
-  </si>
-  <si>
-    <t>I11D71b3d2b</t>
-  </si>
-  <si>
-    <t>I11D71b4a3c</t>
-  </si>
-  <si>
-    <t>I11D71b4c1a</t>
-  </si>
-  <si>
-    <t>I11D71b4a3d</t>
-  </si>
-  <si>
-    <t>I11D71b4a4c</t>
-  </si>
-  <si>
-    <t>I11D71b4c1b</t>
-  </si>
-  <si>
-    <t>I11D71b4a4a</t>
-  </si>
-  <si>
-    <t>I11D71b4a4b</t>
-  </si>
-  <si>
-    <t>I11D71b4a4d</t>
-  </si>
-  <si>
-    <t>I11D71b3b3d</t>
-  </si>
-  <si>
-    <t>I11D71b3b4a</t>
-  </si>
-  <si>
-    <t>I11D71b3b4c</t>
-  </si>
-  <si>
-    <t>I11D71b3b4b</t>
-  </si>
-  <si>
-    <t>I11D71b3b4d</t>
-  </si>
-  <si>
-    <t>I11D71b4a3a</t>
-  </si>
-  <si>
-    <t>I11D71b4a1c</t>
-  </si>
-  <si>
-    <t>I11D71b4a1d</t>
-  </si>
-  <si>
-    <t>I11D71b4a3b</t>
-  </si>
-  <si>
-    <t>I11D71b4b1c</t>
-  </si>
-  <si>
-    <t>I11D71b4b1d</t>
-  </si>
-  <si>
-    <t>I11D71b4b3a</t>
-  </si>
-  <si>
-    <t>I11D71b3b2b</t>
-  </si>
-  <si>
-    <t>I11D71b3b2c</t>
-  </si>
-  <si>
-    <t>I11D71b3b2d</t>
-  </si>
-  <si>
-    <t>I11D71b2c3c</t>
-  </si>
-  <si>
-    <t>I11D71b4a1a</t>
-  </si>
-  <si>
-    <t>I11D71b4a1b</t>
-  </si>
-  <si>
-    <t>I11D71b4a2a</t>
-  </si>
-  <si>
-    <t>I11D71b4a2b</t>
-  </si>
-  <si>
-    <t>I11D71b4a2c</t>
-  </si>
-  <si>
-    <t>I11D71b4a2d</t>
-  </si>
-  <si>
-    <t>I11D71b2d3c</t>
-  </si>
-  <si>
-    <t>I11D71b2d3d</t>
-  </si>
-  <si>
-    <t>I11D71b4b1a</t>
-  </si>
-  <si>
-    <t>I11D71b4b1b</t>
-  </si>
-  <si>
-    <t>I11D71b4b2a</t>
-  </si>
-  <si>
-    <t>I11D71b4b2b</t>
-  </si>
-  <si>
-    <t>I11D71b4b2c</t>
-  </si>
-  <si>
-    <t>I11D71b2c4b</t>
-  </si>
-  <si>
-    <t>I11D71b2c4c</t>
-  </si>
-  <si>
-    <t>I11D71b2c4d</t>
-  </si>
-  <si>
-    <t>I11D71b2d3a</t>
-  </si>
-  <si>
-    <t>I11D71b2d1d</t>
-  </si>
-  <si>
-    <t>I11D71b2d2c</t>
-  </si>
-  <si>
-    <t>I11D71b2d3b</t>
-  </si>
-  <si>
-    <t>I11D71b2d4a</t>
-  </si>
-  <si>
-    <t>I11D71b2d4b</t>
-  </si>
-  <si>
-    <t>I11D71b2d4c</t>
-  </si>
-  <si>
-    <t>I11D71b2d4d</t>
-  </si>
-  <si>
-    <t>I11D71b2d2d</t>
-  </si>
-  <si>
-    <t>I11D71c1c1c</t>
-  </si>
-  <si>
-    <t>I11D71c1c3a</t>
-  </si>
-  <si>
-    <t>I11D71c1c3b</t>
-  </si>
-  <si>
-    <t>I11D71c1c3c</t>
-  </si>
-  <si>
-    <t>I11D71c1c3d</t>
-  </si>
-  <si>
-    <t>I11D71c3a1a</t>
-  </si>
-  <si>
-    <t>I11D71c1c4c</t>
   </si>
   <si>
     <t>I11D71c1c4d</t>
@@ -1070,14 +1079,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52560DC1-B1E8-43F1-9E5C-F4F153327A11}">
-  <dimension ref="A1:C203"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA46E65B-9821-444C-864B-91EBADAB90A9}">
+  <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1087,2228 +1102,2449 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D43" s="6"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D49" s="6"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D51" s="6"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D53" s="6"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D55" s="6"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D57" s="6"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D61" s="6"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D63" s="6"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D65" s="6"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D67" s="6"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D69" s="6"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D81" s="6"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D83" s="6"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D85" s="6"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D87" s="6"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D89" s="6"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D91" s="6"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D93" s="6"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D95" s="6"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D97" s="6"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D99" s="6"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D101" s="6"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D103" s="6"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D105" s="6"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D109" s="6"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D111" s="6"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D113" s="6"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D115" s="6"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D117" s="6"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D119" s="6"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D121" s="6"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D123" s="6"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D125" s="6"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D127" s="6"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D129" s="6"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D131" s="6"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D133" s="6"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D135" s="6"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D137" s="6"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D139" s="6"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D141" s="6"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D143" s="6"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D145" s="6"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D147" s="6"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D149" s="6"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D151" s="6"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D153" s="6"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D155" s="6"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D157" s="6"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D159" s="6"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D161" s="6"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D163" s="6"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D165" s="6"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D167" s="6"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D169" s="6"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D170" s="4"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D171" s="6"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D173" s="6"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D175" s="6"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D177" s="6"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C178" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D179" s="6"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D181" s="6"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D183" s="6"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D185" s="6"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D187" s="6"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D189" s="6"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D191" s="6"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D193" s="6"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D195" s="6"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D197" s="6"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C198" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D199" s="6"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C200" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D201" s="6"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="D202" s="7"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D203" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30D2CD82-061F-4BB4-A8E2-C12C90731904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E414AA71-83B9-42AE-92DC-3E3AC9613FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D10899E-E8A3-4765-B0B2-F82E9828985F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C10FDE33-A6E9-4D6E-AC34-8FD7360F7A4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1079,7 +1079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA46E65B-9821-444C-864B-91EBADAB90A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7209EE60-ED0F-4818-ABA2-A2AFDBA96B4C}">
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2519,7 +2519,7 @@
         <v>127</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>12</v>
@@ -2531,7 +2531,7 @@
         <v>128</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>12</v>
@@ -2543,7 +2543,7 @@
         <v>129</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>12</v>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E414AA71-83B9-42AE-92DC-3E3AC9613FAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B030114-AA95-47C3-A1EB-47C78A71036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C10FDE33-A6E9-4D6E-AC34-8FD7360F7A4C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{727CC460-BE91-404E-9813-0E6A4A80A2BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="216">
   <si>
     <t>CLAVE</t>
   </si>
@@ -204,6 +204,9 @@
     <t>I11D71b3d1c</t>
   </si>
   <si>
+    <t>FALTA LINEAS DE VUELO</t>
+  </si>
+  <si>
     <t>I11D71b3d1d</t>
   </si>
   <si>
@@ -252,12 +255,18 @@
     <t>I11D71b3b4d</t>
   </si>
   <si>
+    <t>FALTA POSTPROCESO DE LA BASE DEL VUELO</t>
+  </si>
+  <si>
     <t>I11D71b4a3a</t>
   </si>
   <si>
     <t>I11D71b4a1c</t>
   </si>
   <si>
+    <t>NO VOLADA</t>
+  </si>
+  <si>
     <t>I11D71b4a1d</t>
   </si>
   <si>
@@ -318,6 +327,9 @@
     <t>I11D71b4b2a</t>
   </si>
   <si>
+    <t>PENDIENTE</t>
+  </si>
+  <si>
     <t>I11D71b4b2b</t>
   </si>
   <si>
@@ -379,9 +391,6 @@
   </si>
   <si>
     <t>I11D71c1c4c</t>
-  </si>
-  <si>
-    <t>PENDIENTE</t>
   </si>
   <si>
     <t>I11D71c1c4d</t>
@@ -1079,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7209EE60-ED0F-4818-ABA2-A2AFDBA96B4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7E4D37-913D-41CD-BE10-2AD24EEB5AAB}">
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1708,23 +1717,27 @@
       <c r="C50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B51" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>5</v>
@@ -1736,7 +1749,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>5</v>
@@ -1748,7 +1761,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>5</v>
@@ -1760,7 +1773,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>5</v>
@@ -1772,7 +1785,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>5</v>
@@ -1784,7 +1797,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>5</v>
@@ -1796,7 +1809,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>5</v>
@@ -1808,7 +1821,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>5</v>
@@ -1820,7 +1833,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>5</v>
@@ -1832,7 +1845,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>5</v>
@@ -1844,7 +1857,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>5</v>
@@ -1856,7 +1869,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>5</v>
@@ -1868,7 +1881,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>5</v>
@@ -1880,7 +1893,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>5</v>
@@ -1892,7 +1905,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>11</v>
@@ -1900,11 +1913,13 @@
       <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>5</v>
@@ -1916,7 +1931,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>11</v>
@@ -1924,11 +1939,13 @@
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>11</v>
@@ -1936,11 +1953,13 @@
       <c r="C69" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="6"/>
+      <c r="D69" s="6" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>11</v>
@@ -1948,11 +1967,13 @@
       <c r="C70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="4"/>
+      <c r="D70" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>11</v>
@@ -1960,11 +1981,13 @@
       <c r="C71" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="6"/>
+      <c r="D71" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>11</v>
@@ -1972,11 +1995,13 @@
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="4"/>
+      <c r="D72" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>11</v>
@@ -1984,11 +2009,13 @@
       <c r="C73" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="6"/>
+      <c r="D73" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>5</v>
@@ -2000,7 +2027,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>5</v>
@@ -2012,7 +2039,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>5</v>
@@ -2024,7 +2051,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>5</v>
@@ -2036,7 +2063,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>5</v>
@@ -2048,7 +2075,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>5</v>
@@ -2060,7 +2087,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>11</v>
@@ -2068,11 +2095,13 @@
       <c r="C80" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="4"/>
+      <c r="D80" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>5</v>
@@ -2084,7 +2113,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>11</v>
@@ -2092,11 +2121,13 @@
       <c r="C82" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="4"/>
+      <c r="D82" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>11</v>
@@ -2104,11 +2135,13 @@
       <c r="C83" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="6"/>
+      <c r="D83" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>11</v>
@@ -2116,11 +2149,13 @@
       <c r="C84" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D84" s="4"/>
+      <c r="D84" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>11</v>
@@ -2128,11 +2163,13 @@
       <c r="C85" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="6"/>
+      <c r="D85" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>11</v>
@@ -2140,11 +2177,13 @@
       <c r="C86" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D86" s="4"/>
+      <c r="D86" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>11</v>
@@ -2152,14 +2191,16 @@
       <c r="C87" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="6"/>
+      <c r="D87" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>6</v>
@@ -2168,10 +2209,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>6</v>
@@ -2180,10 +2221,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>6</v>
@@ -2192,7 +2233,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>5</v>
@@ -2204,7 +2245,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>5</v>
@@ -2216,7 +2257,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>5</v>
@@ -2228,7 +2269,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>5</v>
@@ -2240,7 +2281,7 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>5</v>
@@ -2252,7 +2293,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>5</v>
@@ -2264,7 +2305,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>11</v>
@@ -2272,11 +2313,13 @@
       <c r="C97" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D97" s="6"/>
+      <c r="D97" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>11</v>
@@ -2284,11 +2327,13 @@
       <c r="C98" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="4"/>
+      <c r="D98" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>11</v>
@@ -2296,14 +2341,16 @@
       <c r="C99" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="6"/>
+      <c r="D99" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>6</v>
@@ -2312,10 +2359,10 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>6</v>
@@ -2324,7 +2371,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>11</v>
@@ -2332,11 +2379,13 @@
       <c r="C102" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="4"/>
+      <c r="D102" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>11</v>
@@ -2344,11 +2393,13 @@
       <c r="C103" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D103" s="6"/>
+      <c r="D103" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>11</v>
@@ -2356,11 +2407,13 @@
       <c r="C104" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="4"/>
+      <c r="D104" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>11</v>
@@ -2368,14 +2421,16 @@
       <c r="C105" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D105" s="6"/>
+      <c r="D105" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>6</v>
@@ -2384,10 +2439,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>6</v>
@@ -2396,10 +2451,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>6</v>
@@ -2408,10 +2463,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>6</v>
@@ -2420,10 +2475,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>6</v>
@@ -2432,10 +2487,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>6</v>
@@ -2444,7 +2499,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>11</v>
@@ -2452,11 +2507,13 @@
       <c r="C112" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="4"/>
+      <c r="D112" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>11</v>
@@ -2464,11 +2521,13 @@
       <c r="C113" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D113" s="6"/>
+      <c r="D113" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>11</v>
@@ -2476,11 +2535,13 @@
       <c r="C114" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D114" s="4"/>
+      <c r="D114" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>11</v>
@@ -2488,11 +2549,13 @@
       <c r="C115" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D115" s="6"/>
+      <c r="D115" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>11</v>
@@ -2500,11 +2563,13 @@
       <c r="C116" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D116" s="4"/>
+      <c r="D116" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>11</v>
@@ -2512,11 +2577,13 @@
       <c r="C117" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="6"/>
+      <c r="D117" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>5</v>
@@ -2528,7 +2595,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>5</v>
@@ -2540,7 +2607,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>5</v>
@@ -2552,7 +2619,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>11</v>
@@ -2560,11 +2627,13 @@
       <c r="C121" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D121" s="6"/>
+      <c r="D121" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>11</v>
@@ -2572,11 +2641,13 @@
       <c r="C122" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D122" s="4"/>
+      <c r="D122" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>11</v>
@@ -2584,11 +2655,13 @@
       <c r="C123" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D123" s="6"/>
+      <c r="D123" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>11</v>
@@ -2596,11 +2669,13 @@
       <c r="C124" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D124" s="4"/>
+      <c r="D124" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>11</v>
@@ -2608,11 +2683,13 @@
       <c r="C125" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D125" s="6"/>
+      <c r="D125" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>11</v>
@@ -2620,14 +2697,16 @@
       <c r="C126" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D126" s="4"/>
+      <c r="D126" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>6</v>
@@ -2636,10 +2715,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>6</v>
@@ -2648,10 +2727,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>6</v>
@@ -2660,10 +2739,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>6</v>
@@ -2672,10 +2751,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>6</v>
@@ -2684,10 +2763,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>6</v>
@@ -2696,10 +2775,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>6</v>
@@ -2708,10 +2787,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>6</v>
@@ -2720,10 +2799,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>6</v>
@@ -2732,10 +2811,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>6</v>
@@ -2744,10 +2823,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>6</v>
@@ -2756,10 +2835,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>6</v>
@@ -2768,10 +2847,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>6</v>
@@ -2780,10 +2859,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>6</v>
@@ -2792,10 +2871,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>6</v>
@@ -2804,10 +2883,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>6</v>
@@ -2816,10 +2895,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>6</v>
@@ -2828,10 +2907,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>6</v>
@@ -2840,10 +2919,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>6</v>
@@ -2852,10 +2931,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>6</v>
@@ -2864,10 +2943,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>6</v>
@@ -2876,10 +2955,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>6</v>
@@ -2888,10 +2967,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>6</v>
@@ -2900,10 +2979,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>6</v>
@@ -2912,10 +2991,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>6</v>
@@ -2924,10 +3003,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>6</v>
@@ -2936,10 +3015,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>6</v>
@@ -2948,10 +3027,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>6</v>
@@ -2960,10 +3039,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>6</v>
@@ -2972,10 +3051,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>6</v>
@@ -2984,10 +3063,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>6</v>
@@ -2996,10 +3075,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>6</v>
@@ -3008,10 +3087,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>6</v>
@@ -3020,10 +3099,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>6</v>
@@ -3032,10 +3111,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>6</v>
@@ -3044,10 +3123,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>6</v>
@@ -3056,10 +3135,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>6</v>
@@ -3068,10 +3147,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>6</v>
@@ -3080,10 +3159,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>6</v>
@@ -3092,10 +3171,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>6</v>
@@ -3104,10 +3183,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>6</v>
@@ -3116,10 +3195,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>6</v>
@@ -3128,10 +3207,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>6</v>
@@ -3140,10 +3219,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>6</v>
@@ -3152,10 +3231,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>6</v>
@@ -3164,10 +3243,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>6</v>
@@ -3176,10 +3255,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>6</v>
@@ -3188,10 +3267,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>6</v>
@@ -3200,10 +3279,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>6</v>
@@ -3212,10 +3291,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>6</v>
@@ -3224,10 +3303,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>6</v>
@@ -3236,10 +3315,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>6</v>
@@ -3248,10 +3327,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>6</v>
@@ -3260,10 +3339,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>6</v>
@@ -3272,10 +3351,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>6</v>
@@ -3284,10 +3363,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>6</v>
@@ -3296,10 +3375,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>6</v>
@@ -3308,10 +3387,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>6</v>
@@ -3320,10 +3399,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>6</v>
@@ -3332,10 +3411,10 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C186" s="4" t="s">
         <v>6</v>
@@ -3344,10 +3423,10 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>6</v>
@@ -3356,10 +3435,10 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>6</v>
@@ -3368,10 +3447,10 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>6</v>
@@ -3380,10 +3459,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>6</v>
@@ -3392,10 +3471,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>6</v>
@@ -3404,10 +3483,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>6</v>
@@ -3416,10 +3495,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>6</v>
@@ -3428,7 +3507,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>5</v>
@@ -3440,7 +3519,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>5</v>
@@ -3452,7 +3531,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>5</v>
@@ -3464,10 +3543,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>6</v>
@@ -3476,10 +3555,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>6</v>
@@ -3488,10 +3567,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>6</v>
@@ -3500,10 +3579,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>6</v>
@@ -3512,10 +3591,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>6</v>
@@ -3524,7 +3603,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>5</v>
@@ -3536,7 +3615,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>5</v>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B030114-AA95-47C3-A1EB-47C78A71036B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{42ABB9B8-EC75-41D6-9AE2-D8859827998A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{727CC460-BE91-404E-9813-0E6A4A80A2BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20343B77-31EE-4E4C-A978-D890ACB8622A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="215">
   <si>
     <t>CLAVE</t>
   </si>
@@ -264,7 +264,7 @@
     <t>I11D71b4a1c</t>
   </si>
   <si>
-    <t>NO VOLADA</t>
+    <t>PENDIENTE</t>
   </si>
   <si>
     <t>I11D71b4a1d</t>
@@ -324,18 +324,6 @@
     <t>I11D71b4b1b</t>
   </si>
   <si>
-    <t>I11D71b4b2a</t>
-  </si>
-  <si>
-    <t>PENDIENTE</t>
-  </si>
-  <si>
-    <t>I11D71b4b2b</t>
-  </si>
-  <si>
-    <t>I11D71b4b2c</t>
-  </si>
-  <si>
     <t>I11D71b2c4b</t>
   </si>
   <si>
@@ -363,12 +351,6 @@
     <t>I11D71b2d4b</t>
   </si>
   <si>
-    <t>I11D71b2d4c</t>
-  </si>
-  <si>
-    <t>I11D71b2d4d</t>
-  </si>
-  <si>
     <t>I11D71b2d2d</t>
   </si>
   <si>
@@ -381,15 +363,6 @@
     <t>I11D71c1c3b</t>
   </si>
   <si>
-    <t>I11D71c1c3c</t>
-  </si>
-  <si>
-    <t>I11D71c1c3d</t>
-  </si>
-  <si>
-    <t>I11D71c3a1a</t>
-  </si>
-  <si>
     <t>I11D71c1c4c</t>
   </si>
   <si>
@@ -673,6 +646,30 @@
   </si>
   <si>
     <t>I11D61f3b2a</t>
+  </si>
+  <si>
+    <t>I11D71c3c4c</t>
+  </si>
+  <si>
+    <t>I11D71c3c4a</t>
+  </si>
+  <si>
+    <t>I11D71c3c4d</t>
+  </si>
+  <si>
+    <t>I11D71c3c4b</t>
+  </si>
+  <si>
+    <t>I11D71c3d3c</t>
+  </si>
+  <si>
+    <t>I11D71c3d3b</t>
+  </si>
+  <si>
+    <t>I11D71c3d4a</t>
+  </si>
+  <si>
+    <t>I11D71c3d4b</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1085,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7E4D37-913D-41CD-BE10-2AD24EEB5AAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C4EF10-CE1A-4EE3-9A7E-E37DD13D7727}">
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1934,42 +1931,36 @@
         <v>78</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>79</v>
-      </c>
+      <c r="D69" s="6"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>81</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>79</v>
-      </c>
+      <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
@@ -2200,7 +2191,7 @@
         <v>99</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>6</v>
@@ -2209,22 +2200,22 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D89" s="6"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>6</v>
@@ -2233,7 +2224,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>5</v>
@@ -2245,19 +2236,19 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>5</v>
@@ -2269,71 +2260,77 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="4"/>
+      <c r="D94" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="6"/>
+      <c r="D95" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="4"/>
+      <c r="D96" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>11</v>
@@ -2347,22 +2344,24 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D100" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>6</v>
@@ -2371,49 +2370,45 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D102" s="4"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D103" s="6" t="s">
-        <v>53</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D103" s="6"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>11</v>
@@ -2427,93 +2422,99 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D106" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D108" s="4"/>
+      <c r="D108" s="4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D109" s="6"/>
+      <c r="D109" s="6" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D111" s="6"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="D112" s="4"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>11</v>
@@ -2527,7 +2528,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>11</v>
@@ -2541,13 +2542,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>53</v>
@@ -2555,7 +2556,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>11</v>
@@ -2564,12 +2565,12 @@
         <v>6</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>11</v>
@@ -2578,135 +2579,125 @@
         <v>6</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D118" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D119" s="6"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D121" s="6" t="s">
-        <v>53</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D121" s="6"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>53</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D122" s="4"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D123" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="D123" s="6"/>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D124" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="D124" s="4"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D125" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="D125" s="6"/>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D126" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="D126" s="4"/>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>6</v>
@@ -2715,10 +2706,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>6</v>
@@ -2727,10 +2718,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>6</v>
@@ -2739,10 +2730,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>6</v>
@@ -2751,10 +2742,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>6</v>
@@ -2763,10 +2754,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>6</v>
@@ -2775,10 +2766,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>6</v>
@@ -2787,10 +2778,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>6</v>
@@ -2799,10 +2790,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>6</v>
@@ -2811,10 +2802,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>6</v>
@@ -2823,10 +2814,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>6</v>
@@ -2835,10 +2826,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>6</v>
@@ -2847,10 +2838,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>6</v>
@@ -2859,10 +2850,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>6</v>
@@ -2871,10 +2862,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>6</v>
@@ -2883,10 +2874,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>6</v>
@@ -2895,10 +2886,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>6</v>
@@ -2907,10 +2898,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>6</v>
@@ -2919,10 +2910,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>6</v>
@@ -2931,10 +2922,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>6</v>
@@ -2943,10 +2934,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>6</v>
@@ -2955,10 +2946,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>6</v>
@@ -2967,10 +2958,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>6</v>
@@ -2979,10 +2970,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>6</v>
@@ -2991,10 +2982,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>6</v>
@@ -3003,10 +2994,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>6</v>
@@ -3015,10 +3006,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>6</v>
@@ -3027,10 +3018,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>6</v>
@@ -3039,10 +3030,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>6</v>
@@ -3051,10 +3042,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>6</v>
@@ -3063,10 +3054,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>6</v>
@@ -3075,10 +3066,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>6</v>
@@ -3087,10 +3078,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>6</v>
@@ -3099,10 +3090,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>6</v>
@@ -3111,10 +3102,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>6</v>
@@ -3123,10 +3114,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>6</v>
@@ -3135,10 +3126,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>6</v>
@@ -3147,10 +3138,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>6</v>
@@ -3159,10 +3150,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>6</v>
@@ -3171,10 +3162,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>6</v>
@@ -3183,10 +3174,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>6</v>
@@ -3195,10 +3186,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>6</v>
@@ -3207,10 +3198,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>6</v>
@@ -3219,10 +3210,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>6</v>
@@ -3231,10 +3222,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>6</v>
@@ -3243,10 +3234,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>6</v>
@@ -3255,10 +3246,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>6</v>
@@ -3267,10 +3258,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>6</v>
@@ -3279,10 +3270,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>6</v>
@@ -3291,10 +3282,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>6</v>
@@ -3303,10 +3294,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>6</v>
@@ -3315,10 +3306,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>6</v>
@@ -3327,10 +3318,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>6</v>
@@ -3339,10 +3330,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>6</v>
@@ -3351,10 +3342,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>6</v>
@@ -3363,10 +3354,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>6</v>
@@ -3375,10 +3366,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>6</v>
@@ -3387,10 +3378,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>6</v>
@@ -3399,10 +3390,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>6</v>
@@ -3411,46 +3402,46 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D187" s="6"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>6</v>
@@ -3459,10 +3450,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>6</v>
@@ -3471,10 +3462,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>6</v>
@@ -3483,10 +3474,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>6</v>
@@ -3495,10 +3486,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>6</v>
@@ -3507,19 +3498,19 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="C194" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D194" s="4"/>
+      <c r="D194" s="7"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>5</v>
@@ -3531,22 +3522,22 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D196" s="4"/>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>6</v>
@@ -3555,10 +3546,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>6</v>
@@ -3567,10 +3558,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>6</v>
@@ -3579,10 +3570,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>6</v>
@@ -3591,10 +3582,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>6</v>
@@ -3603,25 +3594,25 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C202" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D202" s="7"/>
+        <v>79</v>
+      </c>
+      <c r="C202" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D202" s="4"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D203" s="6"/>
     </row>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{42ABB9B8-EC75-41D6-9AE2-D8859827998A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{36610588-60EC-41FD-8C13-CA857D32779C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{20343B77-31EE-4E4C-A978-D890ACB8622A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2218E111-E5A8-4B9E-8E6F-0CAA3A56FD98}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="217">
   <si>
     <t>CLAVE</t>
   </si>
@@ -204,7 +204,7 @@
     <t>I11D71b3d1c</t>
   </si>
   <si>
-    <t>FALTA LINEAS DE VUELO</t>
+    <t>FALTA LINEAS DE VUELO (VOLARSE DE NUEVO)</t>
   </si>
   <si>
     <t>I11D71b3d1d</t>
@@ -255,7 +255,7 @@
     <t>I11D71b3b4d</t>
   </si>
   <si>
-    <t>FALTA POSTPROCESO DE LA BASE DEL VUELO</t>
+    <t>FALTA POSTPROCESO DE LA BASE DEL VUELO (VOLARSE DE NUEVO)</t>
   </si>
   <si>
     <t>I11D71b4a3a</t>
@@ -303,6 +303,9 @@
     <t>I11D71b4a2a</t>
   </si>
   <si>
+    <t>FALTA LINEAS DE VUELO (CON RECORTES DE AREAS CONTIGUAS SE OBTIENEN AREAS FALTANTES)</t>
+  </si>
+  <si>
     <t>I11D71b4a2b</t>
   </si>
   <si>
@@ -313,6 +316,9 @@
   </si>
   <si>
     <t>I11D71b2d3c</t>
+  </si>
+  <si>
+    <t>FALTA POSTPROCESO DE LA BASE DEL VUELO (ACCESO PENDIENTE)</t>
   </si>
   <si>
     <t>I11D71b2d3d</t>
@@ -1085,7 +1091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C4EF10-CE1A-4EE3-9A7E-E37DD13D7727}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C0E20B-9F6E-4528-BFBB-C1746D3299EA}">
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1095,7 +1101,7 @@
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="87.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2087,12 +2093,12 @@
         <v>6</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>5</v>
@@ -2104,7 +2110,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>11</v>
@@ -2118,7 +2124,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>11</v>
@@ -2132,7 +2138,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>11</v>
@@ -2141,12 +2147,12 @@
         <v>6</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>11</v>
@@ -2155,26 +2161,26 @@
         <v>6</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>11</v>
@@ -2183,12 +2189,12 @@
         <v>6</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>5</v>
@@ -2200,7 +2206,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>5</v>
@@ -2212,7 +2218,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>5</v>
@@ -2224,7 +2230,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>5</v>
@@ -2236,7 +2242,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>5</v>
@@ -2248,7 +2254,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>5</v>
@@ -2260,7 +2266,7 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>11</v>
@@ -2269,12 +2275,12 @@
         <v>6</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>11</v>
@@ -2283,12 +2289,12 @@
         <v>6</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>59</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>11</v>
@@ -2302,7 +2308,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>11</v>
@@ -2316,7 +2322,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>11</v>
@@ -2330,7 +2336,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>11</v>
@@ -2344,7 +2350,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>11</v>
@@ -2358,7 +2364,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>79</v>
@@ -2370,7 +2376,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>79</v>
@@ -2382,7 +2388,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>79</v>
@@ -2394,7 +2400,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>11</v>
@@ -2408,7 +2414,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>11</v>
@@ -2422,7 +2428,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>11</v>
@@ -2436,7 +2442,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>11</v>
@@ -2450,7 +2456,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>11</v>
@@ -2464,7 +2470,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>11</v>
@@ -2478,7 +2484,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>5</v>
@@ -2490,7 +2496,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>5</v>
@@ -2502,7 +2508,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>5</v>
@@ -2514,7 +2520,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>11</v>
@@ -2528,7 +2534,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>11</v>
@@ -2542,7 +2548,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>11</v>
@@ -2556,7 +2562,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>11</v>
@@ -2570,7 +2576,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>11</v>
@@ -2584,7 +2590,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>11</v>
@@ -2598,7 +2604,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>79</v>
@@ -2610,7 +2616,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>79</v>
@@ -2622,7 +2628,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>79</v>
@@ -2634,7 +2640,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>79</v>
@@ -2646,7 +2652,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>79</v>
@@ -2658,7 +2664,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>79</v>
@@ -2670,7 +2676,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>79</v>
@@ -2682,7 +2688,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>79</v>
@@ -2694,7 +2700,7 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>79</v>
@@ -2706,7 +2712,7 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>79</v>
@@ -2718,7 +2724,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>79</v>
@@ -2730,7 +2736,7 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>79</v>
@@ -2742,7 +2748,7 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>79</v>
@@ -2754,7 +2760,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>79</v>
@@ -2766,7 +2772,7 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>79</v>
@@ -2778,7 +2784,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>79</v>
@@ -2790,7 +2796,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>79</v>
@@ -2802,7 +2808,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>79</v>
@@ -2814,7 +2820,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>79</v>
@@ -2826,7 +2832,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>79</v>
@@ -2838,7 +2844,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>79</v>
@@ -2850,7 +2856,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>79</v>
@@ -2862,7 +2868,7 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>79</v>
@@ -2874,7 +2880,7 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>79</v>
@@ -2886,7 +2892,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>79</v>
@@ -2898,7 +2904,7 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>79</v>
@@ -2910,7 +2916,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>79</v>
@@ -2922,7 +2928,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>79</v>
@@ -2934,7 +2940,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>79</v>
@@ -2946,7 +2952,7 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>79</v>
@@ -2958,7 +2964,7 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>79</v>
@@ -2970,7 +2976,7 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>79</v>
@@ -2982,7 +2988,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>79</v>
@@ -2994,7 +3000,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>79</v>
@@ -3006,7 +3012,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>79</v>
@@ -3018,7 +3024,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>79</v>
@@ -3030,7 +3036,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>79</v>
@@ -3042,7 +3048,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>79</v>
@@ -3054,7 +3060,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>79</v>
@@ -3066,7 +3072,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>79</v>
@@ -3078,7 +3084,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>79</v>
@@ -3090,7 +3096,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>79</v>
@@ -3102,7 +3108,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>79</v>
@@ -3114,7 +3120,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>79</v>
@@ -3126,7 +3132,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>79</v>
@@ -3138,7 +3144,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>79</v>
@@ -3150,7 +3156,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>79</v>
@@ -3162,7 +3168,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>79</v>
@@ -3174,7 +3180,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>79</v>
@@ -3186,7 +3192,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>79</v>
@@ -3198,7 +3204,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>79</v>
@@ -3210,7 +3216,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>79</v>
@@ -3222,7 +3228,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B171" s="6" t="s">
         <v>79</v>
@@ -3234,7 +3240,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>79</v>
@@ -3246,7 +3252,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>79</v>
@@ -3258,7 +3264,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>79</v>
@@ -3270,7 +3276,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>79</v>
@@ -3282,7 +3288,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>79</v>
@@ -3294,7 +3300,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>79</v>
@@ -3306,7 +3312,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>79</v>
@@ -3318,7 +3324,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>79</v>
@@ -3330,7 +3336,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>79</v>
@@ -3342,7 +3348,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>79</v>
@@ -3354,7 +3360,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>79</v>
@@ -3366,7 +3372,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>79</v>
@@ -3378,7 +3384,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>79</v>
@@ -3390,7 +3396,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>79</v>
@@ -3402,7 +3408,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>5</v>
@@ -3414,7 +3420,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>5</v>
@@ -3426,7 +3432,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>5</v>
@@ -3438,7 +3444,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>79</v>
@@ -3450,7 +3456,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>79</v>
@@ -3462,7 +3468,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>79</v>
@@ -3474,7 +3480,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>79</v>
@@ -3486,7 +3492,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>79</v>
@@ -3498,7 +3504,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>5</v>
@@ -3510,7 +3516,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>5</v>
@@ -3522,7 +3528,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>79</v>
@@ -3534,7 +3540,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>79</v>
@@ -3546,7 +3552,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>79</v>
@@ -3558,7 +3564,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>79</v>
@@ -3570,7 +3576,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>79</v>
@@ -3582,7 +3588,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>79</v>
@@ -3594,7 +3600,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>79</v>
@@ -3606,7 +3612,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>79</v>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36610588-60EC-41FD-8C13-CA857D32779C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C71688DA-F480-4531-A806-5AF8A4CDAE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2218E111-E5A8-4B9E-8E6F-0CAA3A56FD98}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32EF8F42-A930-4F52-AD00-9AC89FF58E98}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="216">
   <si>
     <t>CLAVE</t>
   </si>
@@ -60,132 +60,129 @@
     <t>I11D71a4c4d</t>
   </si>
   <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>I11D71a4d3c</t>
+  </si>
+  <si>
+    <t>I11D71d2b1a</t>
+  </si>
+  <si>
+    <t>I11D71d2b1b</t>
+  </si>
+  <si>
+    <t>I11D71a4d3d</t>
+  </si>
+  <si>
+    <t>I11D71a4d4a</t>
+  </si>
+  <si>
+    <t>I11D71a4d4b</t>
+  </si>
+  <si>
+    <t>I11D71a4d4c</t>
+  </si>
+  <si>
+    <t>I11D71a4d4d</t>
+  </si>
+  <si>
+    <t>I11D71b3c3c</t>
+  </si>
+  <si>
+    <t>I11D71b3c3d</t>
+  </si>
+  <si>
+    <t>I11D71a4c2c</t>
+  </si>
+  <si>
+    <t>I11D71a4c2d</t>
+  </si>
+  <si>
+    <t>I11D71a4c4a</t>
+  </si>
+  <si>
+    <t>I11D71a4c4b</t>
+  </si>
+  <si>
+    <t>I11D71a4d1c</t>
+  </si>
+  <si>
+    <t>I11D71a4d1d</t>
+  </si>
+  <si>
+    <t>I11D71a4d3a</t>
+  </si>
+  <si>
+    <t>I11D71a4d3b</t>
+  </si>
+  <si>
+    <t>I11D71b3c1c</t>
+  </si>
+  <si>
+    <t>I11D71b3c1d</t>
+  </si>
+  <si>
+    <t>I11D71b3c3a</t>
+  </si>
+  <si>
+    <t>I11D71b3c3b</t>
+  </si>
+  <si>
+    <t>I11D71b3c2c</t>
+  </si>
+  <si>
+    <t>I11D71b3c2d</t>
+  </si>
+  <si>
+    <t>I11D71b3c4a</t>
+  </si>
+  <si>
+    <t>I11D71b3c4b</t>
+  </si>
+  <si>
+    <t>I11D71a4d1b</t>
+  </si>
+  <si>
+    <t>I11D71a4d2a</t>
+  </si>
+  <si>
+    <t>I11D71a4d2c</t>
+  </si>
+  <si>
+    <t>I11D71a4d2d</t>
+  </si>
+  <si>
+    <t>I11D71a4b4c</t>
+  </si>
+  <si>
+    <t>I11D71a4b4d</t>
+  </si>
+  <si>
+    <t>I11D71a4d2b</t>
+  </si>
+  <si>
+    <t>I11D71b3c1a</t>
+  </si>
+  <si>
+    <t>I11D71b3a3c</t>
+  </si>
+  <si>
+    <t>I11D71b3a3d</t>
+  </si>
+  <si>
+    <t>I11D71b3c1b</t>
+  </si>
+  <si>
+    <t>I11D71b3c2a</t>
+  </si>
+  <si>
+    <t>I11D71b3a4c</t>
+  </si>
+  <si>
     <t>VOLADA</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>VOLVER A VOLAR YA QUE EL PRODUCTO ES MUY CLARO</t>
-  </si>
-  <si>
-    <t>I11D71a4d3c</t>
-  </si>
-  <si>
-    <t>I11D71d2b1a</t>
-  </si>
-  <si>
-    <t>I11D71d2b1b</t>
-  </si>
-  <si>
-    <t>I11D71a4d3d</t>
-  </si>
-  <si>
-    <t>I11D71a4d4a</t>
-  </si>
-  <si>
-    <t>I11D71a4d4b</t>
-  </si>
-  <si>
-    <t>I11D71a4d4c</t>
-  </si>
-  <si>
-    <t>I11D71a4d4d</t>
-  </si>
-  <si>
-    <t>I11D71b3c3c</t>
-  </si>
-  <si>
-    <t>I11D71b3c3d</t>
-  </si>
-  <si>
-    <t>I11D71a4c2c</t>
-  </si>
-  <si>
-    <t>I11D71a4c2d</t>
-  </si>
-  <si>
-    <t>I11D71a4c4a</t>
-  </si>
-  <si>
-    <t>I11D71a4c4b</t>
-  </si>
-  <si>
-    <t>I11D71a4d1c</t>
-  </si>
-  <si>
-    <t>I11D71a4d1d</t>
-  </si>
-  <si>
-    <t>I11D71a4d3a</t>
-  </si>
-  <si>
-    <t>I11D71a4d3b</t>
-  </si>
-  <si>
-    <t>I11D71b3c1c</t>
-  </si>
-  <si>
-    <t>I11D71b3c1d</t>
-  </si>
-  <si>
-    <t>I11D71b3c3a</t>
-  </si>
-  <si>
-    <t>I11D71b3c3b</t>
-  </si>
-  <si>
-    <t>I11D71b3c2c</t>
-  </si>
-  <si>
-    <t>I11D71b3c2d</t>
-  </si>
-  <si>
-    <t>I11D71b3c4a</t>
-  </si>
-  <si>
-    <t>I11D71b3c4b</t>
-  </si>
-  <si>
-    <t>I11D71a4d1b</t>
-  </si>
-  <si>
-    <t>I11D71a4d2a</t>
-  </si>
-  <si>
-    <t>I11D71a4d2c</t>
-  </si>
-  <si>
-    <t>I11D71a4d2d</t>
-  </si>
-  <si>
-    <t>I11D71a4b4c</t>
-  </si>
-  <si>
-    <t>I11D71a4b4d</t>
-  </si>
-  <si>
-    <t>I11D71a4d2b</t>
-  </si>
-  <si>
-    <t>I11D71b3c1a</t>
-  </si>
-  <si>
-    <t>I11D71b3a3c</t>
-  </si>
-  <si>
-    <t>I11D71b3a3d</t>
-  </si>
-  <si>
-    <t>I11D71b3c1b</t>
-  </si>
-  <si>
-    <t>I11D71b3c2a</t>
-  </si>
-  <si>
-    <t>I11D71b3a4c</t>
-  </si>
-  <si>
     <t>ESTABLECER PUNTOS DE CONTROL PARA AJUSTE</t>
   </si>
   <si>
@@ -255,121 +252,121 @@
     <t>I11D71b3b4d</t>
   </si>
   <si>
+    <t>I11D71b4a3a</t>
+  </si>
+  <si>
+    <t>I11D71b4a1c</t>
+  </si>
+  <si>
+    <t>I11D71b4a1d</t>
+  </si>
+  <si>
+    <t>I11D71b4a3b</t>
+  </si>
+  <si>
+    <t>I11D71b4b1c</t>
+  </si>
+  <si>
     <t>FALTA POSTPROCESO DE LA BASE DEL VUELO (VOLARSE DE NUEVO)</t>
   </si>
   <si>
-    <t>I11D71b4a3a</t>
-  </si>
-  <si>
-    <t>I11D71b4a1c</t>
+    <t>I11D71b4b1d</t>
+  </si>
+  <si>
+    <t>I11D71b4b3a</t>
+  </si>
+  <si>
+    <t>I11D71b3b2b</t>
+  </si>
+  <si>
+    <t>I11D71b3b2c</t>
+  </si>
+  <si>
+    <t>I11D71b3b2d</t>
+  </si>
+  <si>
+    <t>I11D71b2c3c</t>
+  </si>
+  <si>
+    <t>I11D71b4a1a</t>
+  </si>
+  <si>
+    <t>I11D71b4a1b</t>
+  </si>
+  <si>
+    <t>I11D71b4a2a</t>
+  </si>
+  <si>
+    <t>FALTA LINEAS DE VUELO (CON RECORTES DE AREAS CONTIGUAS SE OBTIENEN AREAS FALTANTES)</t>
+  </si>
+  <si>
+    <t>I11D71b4a2b</t>
+  </si>
+  <si>
+    <t>I11D71b4a2c</t>
+  </si>
+  <si>
+    <t>I11D71b4a2d</t>
+  </si>
+  <si>
+    <t>I11D71b2d3c</t>
+  </si>
+  <si>
+    <t>FALTA POSTPROCESO DE LA BASE DEL VUELO (ACCESO PENDIENTE)</t>
+  </si>
+  <si>
+    <t>I11D71b2d3d</t>
+  </si>
+  <si>
+    <t>I11D71b4b1a</t>
+  </si>
+  <si>
+    <t>I11D71b4b1b</t>
+  </si>
+  <si>
+    <t>I11D71b2c4b</t>
+  </si>
+  <si>
+    <t>I11D71b2c4c</t>
+  </si>
+  <si>
+    <t>I11D71b2c4d</t>
+  </si>
+  <si>
+    <t>I11D71b2d3a</t>
+  </si>
+  <si>
+    <t>I11D71b2d1d</t>
+  </si>
+  <si>
+    <t>I11D71b2d2c</t>
+  </si>
+  <si>
+    <t>I11D71b2d3b</t>
+  </si>
+  <si>
+    <t>I11D71b2d4a</t>
+  </si>
+  <si>
+    <t>I11D71b2d4b</t>
+  </si>
+  <si>
+    <t>I11D71b2d2d</t>
+  </si>
+  <si>
+    <t>I11D71c1c1c</t>
+  </si>
+  <si>
+    <t>I11D71c1c3a</t>
+  </si>
+  <si>
+    <t>I11D71c1c3b</t>
+  </si>
+  <si>
+    <t>I11D71c1c4c</t>
   </si>
   <si>
     <t>PENDIENTE</t>
-  </si>
-  <si>
-    <t>I11D71b4a1d</t>
-  </si>
-  <si>
-    <t>I11D71b4a3b</t>
-  </si>
-  <si>
-    <t>I11D71b4b1c</t>
-  </si>
-  <si>
-    <t>I11D71b4b1d</t>
-  </si>
-  <si>
-    <t>I11D71b4b3a</t>
-  </si>
-  <si>
-    <t>I11D71b3b2b</t>
-  </si>
-  <si>
-    <t>I11D71b3b2c</t>
-  </si>
-  <si>
-    <t>I11D71b3b2d</t>
-  </si>
-  <si>
-    <t>I11D71b2c3c</t>
-  </si>
-  <si>
-    <t>I11D71b4a1a</t>
-  </si>
-  <si>
-    <t>I11D71b4a1b</t>
-  </si>
-  <si>
-    <t>I11D71b4a2a</t>
-  </si>
-  <si>
-    <t>FALTA LINEAS DE VUELO (CON RECORTES DE AREAS CONTIGUAS SE OBTIENEN AREAS FALTANTES)</t>
-  </si>
-  <si>
-    <t>I11D71b4a2b</t>
-  </si>
-  <si>
-    <t>I11D71b4a2c</t>
-  </si>
-  <si>
-    <t>I11D71b4a2d</t>
-  </si>
-  <si>
-    <t>I11D71b2d3c</t>
-  </si>
-  <si>
-    <t>FALTA POSTPROCESO DE LA BASE DEL VUELO (ACCESO PENDIENTE)</t>
-  </si>
-  <si>
-    <t>I11D71b2d3d</t>
-  </si>
-  <si>
-    <t>I11D71b4b1a</t>
-  </si>
-  <si>
-    <t>I11D71b4b1b</t>
-  </si>
-  <si>
-    <t>I11D71b2c4b</t>
-  </si>
-  <si>
-    <t>I11D71b2c4c</t>
-  </si>
-  <si>
-    <t>I11D71b2c4d</t>
-  </si>
-  <si>
-    <t>I11D71b2d3a</t>
-  </si>
-  <si>
-    <t>I11D71b2d1d</t>
-  </si>
-  <si>
-    <t>I11D71b2d2c</t>
-  </si>
-  <si>
-    <t>I11D71b2d3b</t>
-  </si>
-  <si>
-    <t>I11D71b2d4a</t>
-  </si>
-  <si>
-    <t>I11D71b2d4b</t>
-  </si>
-  <si>
-    <t>I11D71b2d2d</t>
-  </si>
-  <si>
-    <t>I11D71c1c1c</t>
-  </si>
-  <si>
-    <t>I11D71c1c3a</t>
-  </si>
-  <si>
-    <t>I11D71c1c3b</t>
-  </si>
-  <si>
-    <t>I11D71c1c4c</t>
   </si>
   <si>
     <t>I11D71c1c4d</t>
@@ -1091,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C0E20B-9F6E-4528-BFBB-C1746D3299EA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED070BA3-A01F-4803-91CF-D87C736D0621}">
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1171,60 +1168,52 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>5</v>
@@ -1236,7 +1225,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>5</v>
@@ -1248,7 +1237,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>5</v>
@@ -1260,7 +1249,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>5</v>
@@ -1272,7 +1261,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>5</v>
@@ -1284,7 +1273,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>5</v>
@@ -1296,7 +1285,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>5</v>
@@ -1308,7 +1297,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>5</v>
@@ -1320,7 +1309,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>5</v>
@@ -1332,7 +1321,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>5</v>
@@ -1344,7 +1333,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>5</v>
@@ -1356,7 +1345,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>5</v>
@@ -1368,7 +1357,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>5</v>
@@ -1380,7 +1369,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>5</v>
@@ -1392,7 +1381,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>5</v>
@@ -1404,7 +1393,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>5</v>
@@ -1416,7 +1405,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>5</v>
@@ -1428,7 +1417,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>5</v>
@@ -1440,7 +1429,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>5</v>
@@ -1452,7 +1441,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>5</v>
@@ -1464,7 +1453,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>5</v>
@@ -1476,7 +1465,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>5</v>
@@ -1488,7 +1477,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>5</v>
@@ -1500,7 +1489,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>5</v>
@@ -1512,7 +1501,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>5</v>
@@ -1524,7 +1513,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>5</v>
@@ -1536,7 +1525,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>5</v>
@@ -1548,7 +1537,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>5</v>
@@ -1560,7 +1549,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>5</v>
@@ -1572,7 +1561,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>5</v>
@@ -1584,7 +1573,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>5</v>
@@ -1596,7 +1585,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>5</v>
@@ -1608,7 +1597,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>5</v>
@@ -1620,7 +1609,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>5</v>
@@ -1632,7 +1621,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>5</v>
@@ -1644,63 +1633,63 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>5</v>
@@ -1712,35 +1701,35 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>5</v>
@@ -1752,7 +1741,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>5</v>
@@ -1764,7 +1753,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>5</v>
@@ -1776,7 +1765,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>5</v>
@@ -1788,7 +1777,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>5</v>
@@ -1800,7 +1789,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>5</v>
@@ -1812,7 +1801,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>5</v>
@@ -1824,7 +1813,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>5</v>
@@ -1836,7 +1825,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>5</v>
@@ -1848,7 +1837,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>5</v>
@@ -1860,7 +1849,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>5</v>
@@ -1872,7 +1861,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>5</v>
@@ -1884,19 +1873,19 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>5</v>
@@ -1908,21 +1897,19 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>5</v>
@@ -1934,10 +1921,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>6</v>
@@ -1946,73 +1933,73 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D69" s="6"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B71" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D71" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B73" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C73" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D73" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>5</v>
@@ -2024,7 +2011,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>5</v>
@@ -2036,7 +2023,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>5</v>
@@ -2048,7 +2035,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>5</v>
@@ -2060,7 +2047,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>5</v>
@@ -2072,7 +2059,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>5</v>
@@ -2084,117 +2071,117 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" s="6"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>5</v>
@@ -2206,19 +2193,19 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D89" s="6"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>5</v>
@@ -2230,7 +2217,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>5</v>
@@ -2242,7 +2229,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>5</v>
@@ -2254,7 +2241,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>5</v>
@@ -2266,108 +2253,108 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B97" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C97" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D97" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B98" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D98" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B100" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D100" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>6</v>
@@ -2376,10 +2363,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>6</v>
@@ -2388,10 +2375,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>6</v>
@@ -2400,214 +2387,210 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B104" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D104" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B105" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C105" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C105" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D105" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B106" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C106" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D106" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B107" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C107" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D107" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D110" s="4"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D111" s="6"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D112" s="4"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B113" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C113" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C113" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D113" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B114" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C114" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="D114" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D115" s="6" t="s">
-        <v>53</v>
-      </c>
+      <c r="D115" s="6"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>53</v>
-      </c>
+      <c r="D116" s="4"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>6</v>
@@ -2616,10 +2599,10 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>6</v>
@@ -2628,10 +2611,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>6</v>
@@ -2640,10 +2623,10 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>6</v>
@@ -2652,10 +2635,10 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>6</v>
@@ -2664,10 +2647,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>6</v>
@@ -2676,10 +2659,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>6</v>
@@ -2688,10 +2671,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>6</v>
@@ -2700,10 +2683,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>6</v>
@@ -2712,10 +2695,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>6</v>
@@ -2724,10 +2707,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>6</v>
@@ -2736,10 +2719,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>6</v>
@@ -2748,10 +2731,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>6</v>
@@ -2760,10 +2743,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>6</v>
@@ -2772,10 +2755,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>6</v>
@@ -2784,10 +2767,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>6</v>
@@ -2796,10 +2779,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>6</v>
@@ -2808,10 +2791,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>6</v>
@@ -2820,10 +2803,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>6</v>
@@ -2832,10 +2815,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>6</v>
@@ -2844,10 +2827,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>6</v>
@@ -2856,10 +2839,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>6</v>
@@ -2868,10 +2851,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>6</v>
@@ -2880,10 +2863,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>6</v>
@@ -2892,10 +2875,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>6</v>
@@ -2904,10 +2887,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>6</v>
@@ -2916,10 +2899,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>6</v>
@@ -2928,10 +2911,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>6</v>
@@ -2940,10 +2923,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>6</v>
@@ -2952,10 +2935,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>6</v>
@@ -2964,10 +2947,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>6</v>
@@ -2976,10 +2959,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>6</v>
@@ -2988,10 +2971,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>6</v>
@@ -3000,10 +2983,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>6</v>
@@ -3012,10 +2995,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>6</v>
@@ -3024,10 +3007,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>6</v>
@@ -3036,10 +3019,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>6</v>
@@ -3048,10 +3031,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>6</v>
@@ -3060,10 +3043,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>6</v>
@@ -3072,10 +3055,10 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>6</v>
@@ -3084,10 +3067,10 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>6</v>
@@ -3096,10 +3079,10 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>6</v>
@@ -3108,10 +3091,10 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>6</v>
@@ -3120,10 +3103,10 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>6</v>
@@ -3132,10 +3115,10 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>6</v>
@@ -3144,10 +3127,10 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>6</v>
@@ -3156,10 +3139,10 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>6</v>
@@ -3168,10 +3151,10 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>6</v>
@@ -3180,10 +3163,10 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>6</v>
@@ -3192,10 +3175,10 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>6</v>
@@ -3204,10 +3187,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>6</v>
@@ -3216,10 +3199,10 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>6</v>
@@ -3228,10 +3211,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>6</v>
@@ -3240,10 +3223,10 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>6</v>
@@ -3252,10 +3235,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>6</v>
@@ -3264,10 +3247,10 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>6</v>
@@ -3276,10 +3259,10 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>6</v>
@@ -3288,10 +3271,10 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>6</v>
@@ -3300,10 +3283,10 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>6</v>
@@ -3312,10 +3295,10 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>6</v>
@@ -3324,10 +3307,10 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>6</v>
@@ -3336,10 +3319,10 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>6</v>
@@ -3348,10 +3331,10 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>6</v>
@@ -3360,10 +3343,10 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>6</v>
@@ -3372,10 +3355,10 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>6</v>
@@ -3384,10 +3367,10 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>6</v>
@@ -3396,10 +3379,10 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>6</v>
@@ -3408,46 +3391,46 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D186" s="4"/>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D187" s="6"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D188" s="4"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>6</v>
@@ -3456,10 +3439,10 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>6</v>
@@ -3468,10 +3451,10 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>6</v>
@@ -3480,10 +3463,10 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>6</v>
@@ -3492,10 +3475,10 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>6</v>
@@ -3504,34 +3487,34 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D194" s="7"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D195" s="6"/>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>6</v>
@@ -3540,10 +3523,10 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>6</v>
@@ -3552,10 +3535,10 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>6</v>
@@ -3564,10 +3547,10 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>6</v>
@@ -3576,10 +3559,10 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>6</v>
@@ -3588,10 +3571,10 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>6</v>
@@ -3600,10 +3583,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>6</v>
@@ -3612,10 +3595,10 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>6</v>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C71688DA-F480-4531-A806-5AF8A4CDAE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{286CA97C-1D07-4460-83DF-0941367C57D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{32EF8F42-A930-4F52-AD00-9AC89FF58E98}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9ACD2EC1-5D32-4076-BDDE-268A5B86DC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -366,61 +366,61 @@
     <t>I11D71c1c4c</t>
   </si>
   <si>
+    <t>I11D71c1c4d</t>
+  </si>
+  <si>
+    <t>I11D71c1d3c</t>
+  </si>
+  <si>
+    <t>I11D71c1c2d</t>
+  </si>
+  <si>
+    <t>I11D71c1c4a</t>
+  </si>
+  <si>
+    <t>I11D71c1c4b</t>
+  </si>
+  <si>
+    <t>I11D71c1d1d</t>
+  </si>
+  <si>
+    <t>I11D71c1d3a</t>
+  </si>
+  <si>
+    <t>I11D71c1d3b</t>
+  </si>
+  <si>
+    <t>I11D71c1d2c</t>
+  </si>
+  <si>
+    <t>I11D71c1d2d</t>
+  </si>
+  <si>
+    <t>I11D71c1d4a</t>
+  </si>
+  <si>
+    <t>I11D71c2c1a</t>
+  </si>
+  <si>
+    <t>I11D71c2c1b</t>
+  </si>
+  <si>
+    <t>I11D71c2c1c</t>
+  </si>
+  <si>
+    <t>I11D71c2c1d</t>
+  </si>
+  <si>
+    <t>I11D71c2c2a</t>
+  </si>
+  <si>
+    <t>I11D71c2c2b</t>
+  </si>
+  <si>
+    <t>I11D61e4c3b</t>
+  </si>
+  <si>
     <t>PENDIENTE</t>
-  </si>
-  <si>
-    <t>I11D71c1c4d</t>
-  </si>
-  <si>
-    <t>I11D71c1d3c</t>
-  </si>
-  <si>
-    <t>I11D71c1c2d</t>
-  </si>
-  <si>
-    <t>I11D71c1c4a</t>
-  </si>
-  <si>
-    <t>I11D71c1c4b</t>
-  </si>
-  <si>
-    <t>I11D71c1d1d</t>
-  </si>
-  <si>
-    <t>I11D71c1d3a</t>
-  </si>
-  <si>
-    <t>I11D71c1d3b</t>
-  </si>
-  <si>
-    <t>I11D71c1d2c</t>
-  </si>
-  <si>
-    <t>I11D71c1d2d</t>
-  </si>
-  <si>
-    <t>I11D71c1d4a</t>
-  </si>
-  <si>
-    <t>I11D71c2c1a</t>
-  </si>
-  <si>
-    <t>I11D71c2c1b</t>
-  </si>
-  <si>
-    <t>I11D71c2c1c</t>
-  </si>
-  <si>
-    <t>I11D71c2c1d</t>
-  </si>
-  <si>
-    <t>I11D71c2c2a</t>
-  </si>
-  <si>
-    <t>I11D71c2c2b</t>
-  </si>
-  <si>
-    <t>I11D61e4c3b</t>
   </si>
   <si>
     <t>I11D61e4c3d</t>
@@ -1088,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED070BA3-A01F-4803-91CF-D87C736D0621}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709E1B18-223F-452C-A752-96DD2F4FAEB2}">
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2354,7 +2354,7 @@
         <v>112</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>6</v>
@@ -2363,10 +2363,10 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>6</v>
@@ -2375,10 +2375,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>6</v>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>51</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>51</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>51</v>
@@ -2429,7 +2429,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>51</v>
@@ -2443,7 +2443,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>51</v>
@@ -2457,7 +2457,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>51</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>5</v>
@@ -2483,7 +2483,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>5</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>5</v>
@@ -2507,7 +2507,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>51</v>
@@ -2521,7 +2521,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>51</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>5</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>5</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>51</v>
@@ -2573,7 +2573,7 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>51</v>
@@ -2587,10 +2587,10 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>6</v>
@@ -2602,7 +2602,7 @@
         <v>132</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>6</v>
@@ -2614,7 +2614,7 @@
         <v>133</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>6</v>
@@ -2626,7 +2626,7 @@
         <v>134</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>6</v>
@@ -2638,7 +2638,7 @@
         <v>135</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>6</v>
@@ -2650,7 +2650,7 @@
         <v>136</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>6</v>
@@ -2662,7 +2662,7 @@
         <v>137</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>6</v>
@@ -2674,7 +2674,7 @@
         <v>138</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>6</v>
@@ -2686,7 +2686,7 @@
         <v>139</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>6</v>
@@ -2698,7 +2698,7 @@
         <v>140</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>6</v>
@@ -2710,7 +2710,7 @@
         <v>141</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>6</v>
@@ -2722,7 +2722,7 @@
         <v>142</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>6</v>
@@ -2734,7 +2734,7 @@
         <v>143</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>6</v>
@@ -2746,7 +2746,7 @@
         <v>144</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>6</v>
@@ -2758,7 +2758,7 @@
         <v>145</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>6</v>
@@ -2770,7 +2770,7 @@
         <v>146</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>6</v>
@@ -2782,7 +2782,7 @@
         <v>147</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>6</v>
@@ -2794,7 +2794,7 @@
         <v>148</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>6</v>
@@ -2806,7 +2806,7 @@
         <v>149</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>6</v>
@@ -2818,7 +2818,7 @@
         <v>150</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>6</v>
@@ -2830,7 +2830,7 @@
         <v>151</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>6</v>
@@ -2842,7 +2842,7 @@
         <v>152</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>6</v>
@@ -2854,7 +2854,7 @@
         <v>153</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>6</v>
@@ -2866,7 +2866,7 @@
         <v>154</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>6</v>
@@ -2878,7 +2878,7 @@
         <v>155</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>6</v>
@@ -2890,7 +2890,7 @@
         <v>156</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>6</v>
@@ -2902,7 +2902,7 @@
         <v>157</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>6</v>
@@ -2914,7 +2914,7 @@
         <v>158</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>6</v>
@@ -2926,7 +2926,7 @@
         <v>159</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>6</v>
@@ -2938,7 +2938,7 @@
         <v>160</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>6</v>
@@ -2950,7 +2950,7 @@
         <v>161</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>6</v>
@@ -2962,7 +2962,7 @@
         <v>162</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>6</v>
@@ -2974,7 +2974,7 @@
         <v>163</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>6</v>
@@ -2986,7 +2986,7 @@
         <v>164</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>6</v>
@@ -2998,7 +2998,7 @@
         <v>165</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>6</v>
@@ -3010,7 +3010,7 @@
         <v>166</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>6</v>
@@ -3022,7 +3022,7 @@
         <v>167</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>6</v>
@@ -3034,7 +3034,7 @@
         <v>168</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>6</v>
@@ -3046,7 +3046,7 @@
         <v>169</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>6</v>
@@ -3058,7 +3058,7 @@
         <v>170</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>6</v>
@@ -3070,7 +3070,7 @@
         <v>171</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>6</v>
@@ -3082,7 +3082,7 @@
         <v>172</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>6</v>
@@ -3094,7 +3094,7 @@
         <v>173</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>6</v>
@@ -3106,7 +3106,7 @@
         <v>174</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>6</v>
@@ -3118,7 +3118,7 @@
         <v>175</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>6</v>
@@ -3130,7 +3130,7 @@
         <v>176</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>6</v>
@@ -3142,7 +3142,7 @@
         <v>177</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>6</v>
@@ -3154,7 +3154,7 @@
         <v>178</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>6</v>
@@ -3166,7 +3166,7 @@
         <v>179</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>6</v>
@@ -3178,7 +3178,7 @@
         <v>180</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>6</v>
@@ -3190,7 +3190,7 @@
         <v>181</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>6</v>
@@ -3202,7 +3202,7 @@
         <v>182</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>6</v>
@@ -3214,7 +3214,7 @@
         <v>183</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>6</v>
@@ -3226,7 +3226,7 @@
         <v>184</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>6</v>
@@ -3238,7 +3238,7 @@
         <v>185</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>6</v>
@@ -3250,7 +3250,7 @@
         <v>186</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>6</v>
@@ -3262,7 +3262,7 @@
         <v>187</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>6</v>
@@ -3274,7 +3274,7 @@
         <v>188</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>6</v>
@@ -3286,7 +3286,7 @@
         <v>189</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>6</v>
@@ -3298,7 +3298,7 @@
         <v>190</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>6</v>
@@ -3310,7 +3310,7 @@
         <v>191</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>6</v>
@@ -3322,7 +3322,7 @@
         <v>192</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>6</v>
@@ -3334,7 +3334,7 @@
         <v>193</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>6</v>
@@ -3346,7 +3346,7 @@
         <v>194</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>6</v>
@@ -3358,7 +3358,7 @@
         <v>195</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>6</v>
@@ -3370,7 +3370,7 @@
         <v>196</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>6</v>
@@ -3382,7 +3382,7 @@
         <v>197</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>6</v>
@@ -3430,7 +3430,7 @@
         <v>201</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>6</v>
@@ -3442,7 +3442,7 @@
         <v>202</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>6</v>
@@ -3454,7 +3454,7 @@
         <v>203</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>6</v>
@@ -3466,7 +3466,7 @@
         <v>204</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>6</v>
@@ -3478,7 +3478,7 @@
         <v>205</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>6</v>
@@ -3514,7 +3514,7 @@
         <v>208</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>6</v>
@@ -3526,7 +3526,7 @@
         <v>209</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>6</v>
@@ -3538,7 +3538,7 @@
         <v>210</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>6</v>
@@ -3550,7 +3550,7 @@
         <v>211</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>6</v>
@@ -3562,7 +3562,7 @@
         <v>212</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>6</v>
@@ -3574,7 +3574,7 @@
         <v>213</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>6</v>
@@ -3586,7 +3586,7 @@
         <v>214</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>6</v>
@@ -3598,7 +3598,7 @@
         <v>215</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>6</v>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{286CA97C-1D07-4460-83DF-0941367C57D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D172DEAA-CF99-4F11-9F2A-0D8B4DB3E153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9ACD2EC1-5D32-4076-BDDE-268A5B86DC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F96DA0EB-8135-41B3-A2AA-825CA084A6E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="216">
   <si>
     <t>CLAVE</t>
   </si>
@@ -180,180 +180,195 @@
     <t>I11D71b3a4c</t>
   </si>
   <si>
+    <t>I11D71b3a4d</t>
+  </si>
+  <si>
+    <t>I11D71b3c2b</t>
+  </si>
+  <si>
+    <t>I11D71b3d1a</t>
+  </si>
+  <si>
+    <t>I11D71b3d1b</t>
+  </si>
+  <si>
+    <t>I11D71b3d1c</t>
+  </si>
+  <si>
+    <t>I11D71b3d1d</t>
+  </si>
+  <si>
+    <t>I11D71b3d2a</t>
+  </si>
+  <si>
+    <t>I11D71b3d2b</t>
+  </si>
+  <si>
+    <t>I11D71b4a3c</t>
+  </si>
+  <si>
+    <t>I11D71b4c1a</t>
+  </si>
+  <si>
+    <t>I11D71b4a3d</t>
+  </si>
+  <si>
+    <t>I11D71b4a4c</t>
+  </si>
+  <si>
+    <t>I11D71b4c1b</t>
+  </si>
+  <si>
+    <t>I11D71b4a4a</t>
+  </si>
+  <si>
+    <t>I11D71b4a4b</t>
+  </si>
+  <si>
+    <t>I11D71b4a4d</t>
+  </si>
+  <si>
+    <t>I11D71b3b3d</t>
+  </si>
+  <si>
+    <t>I11D71b3b4a</t>
+  </si>
+  <si>
+    <t>I11D71b3b4c</t>
+  </si>
+  <si>
+    <t>I11D71b3b4b</t>
+  </si>
+  <si>
+    <t>I11D71b3b4d</t>
+  </si>
+  <si>
+    <t>I11D71b4a3a</t>
+  </si>
+  <si>
+    <t>I11D71b4a1c</t>
+  </si>
+  <si>
+    <t>I11D71b4a1d</t>
+  </si>
+  <si>
+    <t>I11D71b4a3b</t>
+  </si>
+  <si>
+    <t>I11D71b4b1c</t>
+  </si>
+  <si>
+    <t>I11D71b4b1d</t>
+  </si>
+  <si>
+    <t>I11D71b4b3a</t>
+  </si>
+  <si>
+    <t>I11D71b3b2b</t>
+  </si>
+  <si>
+    <t>I11D71b3b2c</t>
+  </si>
+  <si>
+    <t>I11D71b3b2d</t>
+  </si>
+  <si>
+    <t>I11D71b2c3c</t>
+  </si>
+  <si>
+    <t>I11D71b4a1a</t>
+  </si>
+  <si>
+    <t>I11D71b4a1b</t>
+  </si>
+  <si>
+    <t>I11D71b4a2a</t>
+  </si>
+  <si>
     <t>VOLADA</t>
   </si>
   <si>
+    <t>FALTA LINEAS DE VUELO (CON RECORTES DE AREAS CONTIGUAS SE OBTIENEN AREAS FALTANTES)</t>
+  </si>
+  <si>
+    <t>I11D71b4a2b</t>
+  </si>
+  <si>
+    <t>I11D71b4a2c</t>
+  </si>
+  <si>
+    <t>FALTA POSTPROCESO DE LA BASE DEL VUELO (VOLARSE DE NUEVO)</t>
+  </si>
+  <si>
+    <t>I11D71b4a2d</t>
+  </si>
+  <si>
+    <t>I11D71b2d3c</t>
+  </si>
+  <si>
+    <t>FALTA POSTPROCESO DE LA BASE DEL VUELO (ACCESO PENDIENTE)</t>
+  </si>
+  <si>
+    <t>I11D71b2d3d</t>
+  </si>
+  <si>
+    <t>I11D71b4b1a</t>
+  </si>
+  <si>
+    <t>I11D71b4b1b</t>
+  </si>
+  <si>
+    <t>I11D71c3c4c</t>
+  </si>
+  <si>
+    <t>I11D71c3c4d</t>
+  </si>
+  <si>
+    <t>I11D71c3d3c</t>
+  </si>
+  <si>
+    <t>I11D71b2c4b</t>
+  </si>
+  <si>
+    <t>I11D71b2c4c</t>
+  </si>
+  <si>
+    <t>I11D71b2c4d</t>
+  </si>
+  <si>
+    <t>I11D71b2d3a</t>
+  </si>
+  <si>
+    <t>I11D71b2d1d</t>
+  </si>
+  <si>
+    <t>I11D71b2d2c</t>
+  </si>
+  <si>
+    <t>I11D71b2d3b</t>
+  </si>
+  <si>
+    <t>I11D71b2d4a</t>
+  </si>
+  <si>
+    <t>I11D71b2d4b</t>
+  </si>
+  <si>
+    <t>FALTA LINEAS DE VUELO (VOLARSE DE NUEVO)</t>
+  </si>
+  <si>
+    <t>I11D71c3c4a</t>
+  </si>
+  <si>
+    <t>I11D71c3c4b</t>
+  </si>
+  <si>
+    <t>I11D71b2d2d</t>
+  </si>
+  <si>
     <t>ESTABLECER PUNTOS DE CONTROL PARA AJUSTE</t>
   </si>
   <si>
-    <t>I11D71b3a4d</t>
-  </si>
-  <si>
-    <t>I11D71b3c2b</t>
-  </si>
-  <si>
-    <t>I11D71b3d1a</t>
-  </si>
-  <si>
-    <t>I11D71b3d1b</t>
-  </si>
-  <si>
-    <t>I11D71b3d1c</t>
-  </si>
-  <si>
-    <t>FALTA LINEAS DE VUELO (VOLARSE DE NUEVO)</t>
-  </si>
-  <si>
-    <t>I11D71b3d1d</t>
-  </si>
-  <si>
-    <t>I11D71b3d2a</t>
-  </si>
-  <si>
-    <t>I11D71b3d2b</t>
-  </si>
-  <si>
-    <t>I11D71b4a3c</t>
-  </si>
-  <si>
-    <t>I11D71b4c1a</t>
-  </si>
-  <si>
-    <t>I11D71b4a3d</t>
-  </si>
-  <si>
-    <t>I11D71b4a4c</t>
-  </si>
-  <si>
-    <t>I11D71b4c1b</t>
-  </si>
-  <si>
-    <t>I11D71b4a4a</t>
-  </si>
-  <si>
-    <t>I11D71b4a4b</t>
-  </si>
-  <si>
-    <t>I11D71b4a4d</t>
-  </si>
-  <si>
-    <t>I11D71b3b3d</t>
-  </si>
-  <si>
-    <t>I11D71b3b4a</t>
-  </si>
-  <si>
-    <t>I11D71b3b4c</t>
-  </si>
-  <si>
-    <t>I11D71b3b4b</t>
-  </si>
-  <si>
-    <t>I11D71b3b4d</t>
-  </si>
-  <si>
-    <t>I11D71b4a3a</t>
-  </si>
-  <si>
-    <t>I11D71b4a1c</t>
-  </si>
-  <si>
-    <t>I11D71b4a1d</t>
-  </si>
-  <si>
-    <t>I11D71b4a3b</t>
-  </si>
-  <si>
-    <t>I11D71b4b1c</t>
-  </si>
-  <si>
-    <t>FALTA POSTPROCESO DE LA BASE DEL VUELO (VOLARSE DE NUEVO)</t>
-  </si>
-  <si>
-    <t>I11D71b4b1d</t>
-  </si>
-  <si>
-    <t>I11D71b4b3a</t>
-  </si>
-  <si>
-    <t>I11D71b3b2b</t>
-  </si>
-  <si>
-    <t>I11D71b3b2c</t>
-  </si>
-  <si>
-    <t>I11D71b3b2d</t>
-  </si>
-  <si>
-    <t>I11D71b2c3c</t>
-  </si>
-  <si>
-    <t>I11D71b4a1a</t>
-  </si>
-  <si>
-    <t>I11D71b4a1b</t>
-  </si>
-  <si>
-    <t>I11D71b4a2a</t>
-  </si>
-  <si>
-    <t>FALTA LINEAS DE VUELO (CON RECORTES DE AREAS CONTIGUAS SE OBTIENEN AREAS FALTANTES)</t>
-  </si>
-  <si>
-    <t>I11D71b4a2b</t>
-  </si>
-  <si>
-    <t>I11D71b4a2c</t>
-  </si>
-  <si>
-    <t>I11D71b4a2d</t>
-  </si>
-  <si>
-    <t>I11D71b2d3c</t>
-  </si>
-  <si>
-    <t>FALTA POSTPROCESO DE LA BASE DEL VUELO (ACCESO PENDIENTE)</t>
-  </si>
-  <si>
-    <t>I11D71b2d3d</t>
-  </si>
-  <si>
-    <t>I11D71b4b1a</t>
-  </si>
-  <si>
-    <t>I11D71b4b1b</t>
-  </si>
-  <si>
-    <t>I11D71b2c4b</t>
-  </si>
-  <si>
-    <t>I11D71b2c4c</t>
-  </si>
-  <si>
-    <t>I11D71b2c4d</t>
-  </si>
-  <si>
-    <t>I11D71b2d3a</t>
-  </si>
-  <si>
-    <t>I11D71b2d1d</t>
-  </si>
-  <si>
-    <t>I11D71b2d2c</t>
-  </si>
-  <si>
-    <t>I11D71b2d3b</t>
-  </si>
-  <si>
-    <t>I11D71b2d4a</t>
-  </si>
-  <si>
-    <t>I11D71b2d4b</t>
-  </si>
-  <si>
-    <t>I11D71b2d2d</t>
-  </si>
-  <si>
     <t>I11D71c1c1c</t>
   </si>
   <si>
@@ -363,6 +378,15 @@
     <t>I11D71c1c3b</t>
   </si>
   <si>
+    <t>I11D71c3d3b</t>
+  </si>
+  <si>
+    <t>I11D71c3d4a</t>
+  </si>
+  <si>
+    <t>I11D71c3d4b</t>
+  </si>
+  <si>
     <t>I11D71c1c4c</t>
   </si>
   <si>
@@ -649,30 +673,6 @@
   </si>
   <si>
     <t>I11D61f3b2a</t>
-  </si>
-  <si>
-    <t>I11D71c3c4c</t>
-  </si>
-  <si>
-    <t>I11D71c3c4a</t>
-  </si>
-  <si>
-    <t>I11D71c3c4d</t>
-  </si>
-  <si>
-    <t>I11D71c3c4b</t>
-  </si>
-  <si>
-    <t>I11D71c3d3c</t>
-  </si>
-  <si>
-    <t>I11D71c3d3b</t>
-  </si>
-  <si>
-    <t>I11D71c3d4a</t>
-  </si>
-  <si>
-    <t>I11D71c3d4b</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709E1B18-223F-452C-A752-96DD2F4FAEB2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D236AD4-121B-4AD6-9190-48409B2EECC2}">
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1636,60 +1636,52 @@
         <v>50</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D46" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="D46" s="4"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>52</v>
-      </c>
+      <c r="D48" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>5</v>
@@ -1701,35 +1693,31 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D50" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="D50" s="4"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>5</v>
@@ -1741,7 +1729,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>5</v>
@@ -1753,7 +1741,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>5</v>
@@ -1765,7 +1753,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>5</v>
@@ -1777,7 +1765,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>5</v>
@@ -1789,7 +1777,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>5</v>
@@ -1801,7 +1789,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>5</v>
@@ -1813,7 +1801,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>5</v>
@@ -1825,7 +1813,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>5</v>
@@ -1837,7 +1825,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>5</v>
@@ -1849,7 +1837,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>5</v>
@@ -1861,7 +1849,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>5</v>
@@ -1873,7 +1861,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>5</v>
@@ -1885,7 +1873,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>5</v>
@@ -1897,7 +1885,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>5</v>
@@ -1909,7 +1897,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>5</v>
@@ -1921,7 +1909,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>5</v>
@@ -1933,7 +1921,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>5</v>
@@ -1945,7 +1933,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>5</v>
@@ -1957,49 +1945,43 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="D71" s="6"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="D73" s="6"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>5</v>
@@ -2011,7 +1993,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>5</v>
@@ -2023,7 +2005,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>5</v>
@@ -2035,7 +2017,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>5</v>
@@ -2047,7 +2029,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>5</v>
@@ -2059,7 +2041,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>5</v>
@@ -2071,21 +2053,21 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>5</v>
@@ -2097,103 +2079,101 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D83" s="6" t="s">
-        <v>80</v>
-      </c>
+      <c r="D83" s="6"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D88" s="4"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>5</v>
@@ -2205,10 +2185,10 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>6</v>
@@ -2217,7 +2197,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>5</v>
@@ -2229,19 +2209,19 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D92" s="4"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>5</v>
@@ -2253,108 +2233,100 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D94" s="4" t="s">
-        <v>90</v>
-      </c>
+      <c r="D94" s="4"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="D95" s="6"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D96" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="D96" s="4"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D100" s="4"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>6</v>
@@ -2363,40 +2335,44 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D102" s="4"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D103" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -2404,13 +2380,13 @@
         <v>116</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -2418,66 +2394,58 @@
         <v>117</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D106" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D106" s="4"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D107" s="6" t="s">
-        <v>52</v>
-      </c>
+      <c r="D107" s="6"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D108" s="4"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>120</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>58</v>
-      </c>
+      <c r="D109" s="6"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D110" s="4"/>
     </row>
@@ -2486,10 +2454,10 @@
         <v>122</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D111" s="6"/>
     </row>
@@ -2498,25 +2466,27 @@
         <v>123</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D112" s="4"/>
+      <c r="D112" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>124</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -2524,13 +2494,13 @@
         <v>125</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -2538,37 +2508,41 @@
         <v>126</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D115" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D116" s="4"/>
+      <c r="D116" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>128</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -2576,69 +2550,67 @@
         <v>129</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D118" s="4"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>130</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D119" s="6"/>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D120" s="4"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D121" s="6"/>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D122" s="4"/>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>6</v>
@@ -2647,10 +2619,10 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>6</v>
@@ -2659,10 +2631,10 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>6</v>
@@ -2671,10 +2643,10 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>6</v>
@@ -2683,10 +2655,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>6</v>
@@ -2698,7 +2670,7 @@
         <v>140</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>6</v>
@@ -2710,7 +2682,7 @@
         <v>141</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>6</v>
@@ -2722,7 +2694,7 @@
         <v>142</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>6</v>
@@ -2734,7 +2706,7 @@
         <v>143</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>6</v>
@@ -2746,7 +2718,7 @@
         <v>144</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>6</v>
@@ -2758,7 +2730,7 @@
         <v>145</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>6</v>
@@ -2770,7 +2742,7 @@
         <v>146</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>6</v>
@@ -2782,7 +2754,7 @@
         <v>147</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>6</v>
@@ -2794,7 +2766,7 @@
         <v>148</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>6</v>
@@ -2806,7 +2778,7 @@
         <v>149</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>6</v>
@@ -2818,7 +2790,7 @@
         <v>150</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>6</v>
@@ -2830,7 +2802,7 @@
         <v>151</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>6</v>
@@ -2842,7 +2814,7 @@
         <v>152</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>6</v>
@@ -2854,7 +2826,7 @@
         <v>153</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>6</v>
@@ -2866,7 +2838,7 @@
         <v>154</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>6</v>
@@ -2878,7 +2850,7 @@
         <v>155</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>6</v>
@@ -2890,7 +2862,7 @@
         <v>156</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>6</v>
@@ -2902,7 +2874,7 @@
         <v>157</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>6</v>
@@ -2914,10 +2886,10 @@
         <v>158</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D146" s="4"/>
     </row>
@@ -2926,10 +2898,10 @@
         <v>159</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D147" s="6"/>
     </row>
@@ -2938,7 +2910,7 @@
         <v>160</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>6</v>
@@ -2950,7 +2922,7 @@
         <v>161</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>6</v>
@@ -2962,10 +2934,10 @@
         <v>162</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D150" s="4"/>
     </row>
@@ -2974,7 +2946,7 @@
         <v>163</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>6</v>
@@ -2986,10 +2958,10 @@
         <v>164</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D152" s="4"/>
     </row>
@@ -2998,7 +2970,7 @@
         <v>165</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>6</v>
@@ -3010,10 +2982,10 @@
         <v>166</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D154" s="4"/>
     </row>
@@ -3022,10 +2994,10 @@
         <v>167</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D155" s="6"/>
     </row>
@@ -3034,10 +3006,10 @@
         <v>168</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D156" s="4"/>
     </row>
@@ -3046,10 +3018,10 @@
         <v>169</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D157" s="6"/>
     </row>
@@ -3058,7 +3030,7 @@
         <v>170</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>6</v>
@@ -3070,7 +3042,7 @@
         <v>171</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>6</v>
@@ -3082,7 +3054,7 @@
         <v>172</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>6</v>
@@ -3094,7 +3066,7 @@
         <v>173</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>6</v>
@@ -3106,7 +3078,7 @@
         <v>174</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>6</v>
@@ -3118,7 +3090,7 @@
         <v>175</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>6</v>
@@ -3130,7 +3102,7 @@
         <v>176</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>6</v>
@@ -3142,7 +3114,7 @@
         <v>177</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>6</v>
@@ -3154,7 +3126,7 @@
         <v>178</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>6</v>
@@ -3166,7 +3138,7 @@
         <v>179</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>6</v>
@@ -3178,7 +3150,7 @@
         <v>180</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>6</v>
@@ -3190,7 +3162,7 @@
         <v>181</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>6</v>
@@ -3202,7 +3174,7 @@
         <v>182</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>6</v>
@@ -3214,10 +3186,10 @@
         <v>183</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D171" s="6"/>
     </row>
@@ -3226,7 +3198,7 @@
         <v>184</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>6</v>
@@ -3238,10 +3210,10 @@
         <v>185</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D173" s="6"/>
     </row>
@@ -3250,7 +3222,7 @@
         <v>186</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>6</v>
@@ -3262,10 +3234,10 @@
         <v>187</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D175" s="6"/>
     </row>
@@ -3274,7 +3246,7 @@
         <v>188</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>6</v>
@@ -3286,10 +3258,10 @@
         <v>189</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D177" s="6"/>
     </row>
@@ -3298,7 +3270,7 @@
         <v>190</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>6</v>
@@ -3310,10 +3282,10 @@
         <v>191</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D179" s="6"/>
     </row>
@@ -3322,7 +3294,7 @@
         <v>192</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>6</v>
@@ -3334,10 +3306,10 @@
         <v>193</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D181" s="6"/>
     </row>
@@ -3346,7 +3318,7 @@
         <v>194</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>6</v>
@@ -3358,7 +3330,7 @@
         <v>195</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>6</v>
@@ -3370,7 +3342,7 @@
         <v>196</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>6</v>
@@ -3382,10 +3354,10 @@
         <v>197</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D185" s="6"/>
     </row>
@@ -3418,10 +3390,10 @@
         <v>200</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D188" s="4"/>
     </row>
@@ -3430,7 +3402,7 @@
         <v>201</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>6</v>
@@ -3442,10 +3414,10 @@
         <v>202</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D190" s="4"/>
     </row>
@@ -3454,10 +3426,10 @@
         <v>203</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D191" s="6"/>
     </row>
@@ -3466,10 +3438,10 @@
         <v>204</v>
       </c>
       <c r="B192" s="4" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D192" s="4"/>
     </row>
@@ -3478,10 +3450,10 @@
         <v>205</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D193" s="6"/>
     </row>
@@ -3492,10 +3464,10 @@
       <c r="B194" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C194" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D194" s="7"/>
+      <c r="C194" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D194" s="4"/>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
@@ -3514,10 +3486,10 @@
         <v>208</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C196" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D196" s="4"/>
     </row>
@@ -3526,7 +3498,7 @@
         <v>209</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>6</v>
@@ -3538,7 +3510,7 @@
         <v>210</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>6</v>
@@ -3550,7 +3522,7 @@
         <v>211</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>6</v>
@@ -3562,7 +3534,7 @@
         <v>212</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>6</v>
@@ -3574,7 +3546,7 @@
         <v>213</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>6</v>
@@ -3586,22 +3558,22 @@
         <v>214</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C202" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D202" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D202" s="7"/>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>215</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D203" s="6"/>
     </row>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D172DEAA-CF99-4F11-9F2A-0D8B4DB3E153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDDBA5F2-4989-414D-8063-ADB7ED433AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F96DA0EB-8135-41B3-A2AA-825CA084A6E9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96E54110-A04B-4DDF-80C4-364B22E84BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1088,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D236AD4-121B-4AD6-9190-48409B2EECC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A696B3E7-576E-4405-ADC9-B472D729DDC8}">
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2433,7 +2433,7 @@
         <v>86</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D109" s="6"/>
     </row>
@@ -2445,7 +2445,7 @@
         <v>86</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D110" s="4"/>
     </row>
@@ -2457,7 +2457,7 @@
         <v>86</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D111" s="6"/>
     </row>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDDBA5F2-4989-414D-8063-ADB7ED433AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F20C337-C88C-4DFC-BCEA-E484A0F5E88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{96E54110-A04B-4DDF-80C4-364B22E84BA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF33FBD7-873A-4348-BA3E-3DE7BE730662}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1088,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A696B3E7-576E-4405-ADC9-B472D729DDC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E17CC03-77D0-4AA5-8171-B743CE1205BF}">
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3030,7 +3030,7 @@
         <v>170</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>6</v>
@@ -3042,7 +3042,7 @@
         <v>171</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>6</v>
@@ -3054,7 +3054,7 @@
         <v>172</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>6</v>
@@ -3066,7 +3066,7 @@
         <v>173</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>6</v>
@@ -3078,7 +3078,7 @@
         <v>174</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>6</v>
@@ -3090,7 +3090,7 @@
         <v>175</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>6</v>
@@ -3102,7 +3102,7 @@
         <v>176</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>6</v>
@@ -3114,7 +3114,7 @@
         <v>177</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>6</v>
@@ -3126,7 +3126,7 @@
         <v>178</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>6</v>
@@ -3138,7 +3138,7 @@
         <v>179</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>6</v>
@@ -3150,7 +3150,7 @@
         <v>180</v>
       </c>
       <c r="B168" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>6</v>
@@ -3174,7 +3174,7 @@
         <v>182</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>6</v>
@@ -3390,7 +3390,7 @@
         <v>200</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>6</v>
@@ -3402,7 +3402,7 @@
         <v>201</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>6</v>
@@ -3498,7 +3498,7 @@
         <v>209</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>6</v>
@@ -3510,7 +3510,7 @@
         <v>210</v>
       </c>
       <c r="B198" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>6</v>
@@ -3522,7 +3522,7 @@
         <v>211</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>6</v>
@@ -3534,7 +3534,7 @@
         <v>212</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>6</v>
@@ -3546,7 +3546,7 @@
         <v>213</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>6</v>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F20C337-C88C-4DFC-BCEA-E484A0F5E88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7318568-6DDB-4E39-A0E1-D1E974A2424E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF33FBD7-873A-4348-BA3E-3DE7BE730662}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5B31F59-1CAF-465A-AB90-C4D68D8B459A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1088,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E17CC03-77D0-4AA5-8171-B743CE1205BF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F01D47C-F048-4476-A25B-74BB501B056F}">
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3198,7 +3198,7 @@
         <v>184</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>6</v>
@@ -3222,7 +3222,7 @@
         <v>186</v>
       </c>
       <c r="B174" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>6</v>
@@ -3246,7 +3246,7 @@
         <v>188</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>6</v>
@@ -3270,7 +3270,7 @@
         <v>190</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>6</v>
@@ -3294,7 +3294,7 @@
         <v>192</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>6</v>
@@ -3342,7 +3342,7 @@
         <v>196</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>6</v>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7318568-6DDB-4E39-A0E1-D1E974A2424E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8C84C2A-A1BA-4B94-8135-CAF1E4EABC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F5B31F59-1CAF-465A-AB90-C4D68D8B459A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED4AF944-D7DC-48E9-8260-9CA1DBCA1E90}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1088,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F01D47C-F048-4476-A25B-74BB501B056F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F22B2C-D683-4A70-894A-BFD3DB946923}">
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3318,7 +3318,7 @@
         <v>194</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>6</v>
@@ -3330,7 +3330,7 @@
         <v>195</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>6</v>

--- a/REPORTE.xlsx
+++ b/REPORTE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FRANCISCO\Desktop\REPORTE_VISUALIZADOR\reporte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8C84C2A-A1BA-4B94-8135-CAF1E4EABC9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{046E240D-2612-4E59-A08A-54A4A4E16C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{ED4AF944-D7DC-48E9-8260-9CA1DBCA1E90}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{132CDB07-6D4A-456C-A7E1-EAE270D2E7E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="214">
   <si>
     <t>CLAVE</t>
   </si>
@@ -354,9 +354,6 @@
     <t>I11D71b2d4b</t>
   </si>
   <si>
-    <t>FALTA LINEAS DE VUELO (VOLARSE DE NUEVO)</t>
-  </si>
-  <si>
     <t>I11D71c3c4a</t>
   </si>
   <si>
@@ -364,9 +361,6 @@
   </si>
   <si>
     <t>I11D71b2d2d</t>
-  </si>
-  <si>
-    <t>ESTABLECER PUNTOS DE CONTROL PARA AJUSTE</t>
   </si>
   <si>
     <t>I11D71c1c1c</t>
@@ -1088,7 +1082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2F22B2C-D683-4A70-894A-BFD3DB946923}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43F8310-B66E-4931-B1BA-EB0A59E591FF}">
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1783,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D57" s="6"/>
     </row>
@@ -1807,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D59" s="6"/>
     </row>
@@ -1819,7 +1813,7 @@
         <v>5</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D60" s="4"/>
     </row>
@@ -2023,7 +2017,7 @@
         <v>5</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D77" s="6"/>
     </row>
@@ -2059,7 +2053,7 @@
         <v>86</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D80" s="4" t="s">
         <v>87</v>
@@ -2085,7 +2079,7 @@
         <v>86</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>90</v>
@@ -2099,7 +2093,7 @@
         <v>5</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D83" s="6"/>
     </row>
@@ -2286,32 +2280,28 @@
         <v>107</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="D98" s="4"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>108</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="D99" s="6"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>5</v>
@@ -2323,7 +2313,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>86</v>
@@ -2335,63 +2325,55 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D102" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="D102" s="4"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="D103" s="6"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="D104" s="4"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="D105" s="6"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>5</v>
@@ -2403,7 +2385,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>5</v>
@@ -2415,7 +2397,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>5</v>
@@ -2427,10 +2409,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>11</v>
@@ -2439,10 +2421,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>11</v>
@@ -2451,10 +2433,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>11</v>
@@ -2463,91 +2445,79 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="D112" s="4"/>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="D113" s="6"/>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>113</v>
-      </c>
+      <c r="D114" s="4"/>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D115" s="6" t="s">
-        <v>113</v>
-      </c>
+      <c r="D115" s="6"/>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>109</v>
-      </c>
+      <c r="D116" s="4"/>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D117" s="6" t="s">
-        <v>109</v>
-      </c>
+      <c r="D117" s="6"/>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>5</v>
@@ -2559,7 +2529,7 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>5</v>
@@ -2571,7 +2541,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>5</v>
@@ -2583,7 +2553,7 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>5</v>
@@ -2595,7 +2565,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>5</v>
@@ -2607,7 +2577,7 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>5</v>
@@ -2619,7 +2589,7 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>5</v>
@@ -2631,7 +2601,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>5</v>
@@ -2643,7 +2613,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>5</v>
@@ -2655,10 +2625,10 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>6</v>
@@ -2667,10 +2637,10 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>6</v>
@@ -2679,10 +2649,10 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>6</v>
@@ -2691,10 +2661,10 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>6</v>
@@ -2703,10 +2673,10 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>6</v>
@@ -2715,10 +2685,10 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>6</v>
@@ -2727,10 +2697,10 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>6</v>
@@ -2739,10 +2709,10 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>6</v>
@@ -2751,10 +2721,10 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>6</v>
@@ -2763,10 +2733,10 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>6</v>
@@ -2775,10 +2745,10 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>6</v>
@@ -2787,10 +2757,10 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>6</v>
@@ -2799,10 +2769,10 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>6</v>
@@ -2811,10 +2781,10 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>6</v>
@@ -2823,10 +2793,10 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>6</v>
@@ -2835,10 +2805,10 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>6</v>
@@ -2847,10 +2817,10 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>6</v>
@@ -2859,10 +2829,10 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>6</v>
@@ -2871,10 +2841,10 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>6</v>
@@ -2883,10 +2853,10 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>11</v>
@@ -2895,10 +2865,10 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>11</v>
@@ -2907,10 +2877,10 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>6</v>
@@ -2919,10 +2889,10 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>6</v>
@@ -2931,10 +2901,10 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>11</v>
@@ -2943,10 +2913,10 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>6</v>
@@ -2955,10 +2925,10 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>11</v>
@@ -2967,10 +2937,10 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>6</v>
@@ -2979,10 +2949,10 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>11</v>
@@ -2991,10 +2961,10 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>11</v>
@@ -3003,10 +2973,10 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>11</v>
@@ -3015,10 +2985,10 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>11</v>
@@ -3027,7 +2997,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>86</v>
@@ -3039,7 +3009,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>86</v>
@@ -3051,7 +3021,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>86</v>
@@ -3063,7 +3033,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>86</v>
@@ -3075,7 +3045,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>86</v>
@@ -3087,7 +3057,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>86</v>
@@ -3099,7 +3069,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>86</v>
@@ -3111,7 +3081,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>86</v>
@@ -3123,7 +3093,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>86</v>
@@ -3135,7 +3105,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>86</v>
@@ -3147,7 +3117,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>86</v>
@@ -3159,10 +3129,10 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>6</v>
@@ -3171,7 +3141,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>86</v>
@@ -3183,10 +3153,10 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>11</v>
@@ -3195,7 +3165,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>86</v>
@@ -3207,10 +3177,10 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>11</v>
@@ -3219,7 +3189,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B174" s="4" t="s">
         <v>86</v>
@@ -3231,7 +3201,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>86</v>
@@ -3243,7 +3213,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>86</v>
@@ -3255,7 +3225,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>86</v>
@@ -3267,7 +3237,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>86</v>
@@ -3279,7 +3249,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>5</v>
@@ -3291,7 +3261,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B180" s="4" t="s">
         <v>86</v>
@@ -3303,7 +3273,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>5</v>
@@ -3315,7 +3285,7 @@
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B182" s="4" t="s">
         <v>86</v>
@@ -3327,7 +3297,7 @@
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>86</v>
@@ -3339,7 +3309,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B184" s="4" t="s">
         <v>86</v>
@@ -3351,7 +3321,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>5</v>
@@ -3363,7 +3333,7 @@
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B186" s="4" t="s">
         <v>5</v>
@@ -3375,7 +3345,7 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>5</v>
@@ -3387,7 +3357,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B188" s="4" t="s">
         <v>86</v>
@@ -3399,7 +3369,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>86</v>
@@ -3411,7 +3381,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B190" s="4" t="s">
         <v>5</v>
@@ -3423,7 +3393,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>5</v>
@@ -3435,7 +3405,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B192" s="4" t="s">
         <v>5</v>
@@ -3447,7 +3417,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>5</v>
@@ -3459,7 +3429,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B194" s="4" t="s">
         <v>5</v>
@@ -3471,7 +3441,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>5</v>
@@ -3483,7 +3453,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B196" s="4" t="s">
         <v>5</v>
@@ -3495,7 +3465,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>86</v>
@@ -3507,7 +3477,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B198" s="4" t="s">
         <v>86</v>
@@ -3519,7 +3489,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>86</v>
@@ -3531,7 +3501,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B200" s="4" t="s">
         <v>86</v>
@@ -3543,7 +3513,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>86</v>
@@ -3555,7 +3525,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B202" s="4" t="s">
         <v>5</v>
@@ -3567,7 +3537,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>5</v>
